--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -85,9 +85,6 @@
     <t>Daniel Klomp</t>
   </si>
   <si>
-    <t>Maandag vergadering bijeenkomst</t>
-  </si>
-  <si>
     <t>Donderdag werkbijeenkomst</t>
   </si>
   <si>
@@ -137,23 +134,6 @@
     <t>Feedback Plan v. Aanpak .Ovink</t>
   </si>
   <si>
-    <t>Interviewen klant</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Maandag </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Opstellen Interview</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Maandag vergadering bijeenkomst, </t>
     </r>
@@ -175,6 +155,42 @@
   </si>
   <si>
     <t>Deadline Donderdag 22-1 Inleveren eindproducten.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maandag werkbijeenkomst </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Opstellen Interview</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Donderdag </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Interviewen klant</t>
+    </r>
+  </si>
+  <si>
+    <t>Donderdag Vergadering en werkbijeenkomst</t>
   </si>
 </sst>
 </file>
@@ -336,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,6 +453,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,11 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -764,7 +783,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -804,24 +823,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46" t="s">
+      <c r="F3" s="49"/>
+      <c r="G3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="45" t="s">
+      <c r="H3" s="50"/>
+      <c r="I3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -875,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="20">
         <v>2</v>
@@ -904,11 +923,11 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="30">
-        <f t="shared" ref="M5:M12" si="0">C5+E5+G5+I5+K5</f>
+        <f t="shared" ref="M5:M11" si="0">C5+E5+G5+I5+K5</f>
         <v>8</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" ref="N5:N10" si="1">D5+F5+H5+J5+L5</f>
+        <f t="shared" ref="N5:N11" si="1">D5+F5+H5+J5+L5</f>
         <v>8</v>
       </c>
     </row>
@@ -917,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="20">
         <v>2</v>
@@ -959,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="20">
         <v>3</v>
@@ -1025,33 +1044,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="20">
         <v>2</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
       <c r="E9" s="6">
         <v>2</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
       <c r="G9" s="15">
         <v>2</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="15">
+        <v>2</v>
+      </c>
       <c r="I9" s="6">
-        <v>2</v>
-      </c>
-      <c r="J9" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="30">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1059,61 +1086,91 @@
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C10" s="20">
         <v>2</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
       <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
       <c r="G10" s="15">
         <v>2</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
       <c r="I10" s="6">
-        <v>2</v>
-      </c>
-      <c r="J10" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="30">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40">
         <v>2</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.5</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40">
-        <v>2</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>21</v>
+      <c r="M11" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="20">
         <v>1</v>
@@ -1134,44 +1191,44 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M12:N17" si="2">C12+E12+G12+I12+K12</f>
         <v>4</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>29</v>
+      <c r="A13" s="42">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="30">
-        <f t="shared" ref="M13:N17" si="2">C13+E13+G13+I13+K13</f>
-        <v>12</v>
-      </c>
-      <c r="N13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25">
@@ -1201,8 +1258,8 @@
       <c r="A15" s="1">
         <v>3</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>22</v>
+      <c r="B15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="21">
         <v>2</v>
@@ -1217,14 +1274,14 @@
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="2"/>
@@ -1236,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="21">
         <v>2</v>
@@ -1251,14 +1308,14 @@
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="2"/>
@@ -1270,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="21">
         <v>1</v>
@@ -1300,8 +1357,8 @@
       <c r="A18" s="25">
         <v>3</v>
       </c>
-      <c r="B18" s="48" t="s">
-        <v>28</v>
+      <c r="B18" s="44" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="21">
         <v>2</v>
@@ -1334,7 +1391,7 @@
       <c r="A19" s="25">
         <v>3</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="2"/>
@@ -1359,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="21">
         <v>2</v>
@@ -1374,14 +1431,14 @@
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="30">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="6"/>
@@ -1393,7 +1450,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21" s="21">
         <v>2</v>
@@ -1408,14 +1465,14 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="30">
         <f t="shared" ref="M21:N52" si="7">C21+E21+G21+I21+K21</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="7"/>
@@ -1427,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="21">
         <v>1</v>
@@ -1458,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="21">
         <v>3</v>
@@ -1491,8 +1548,8 @@
       <c r="A24" s="25">
         <v>4</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>32</v>
+      <c r="B24" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -1518,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" s="21">
         <v>2</v>
@@ -1533,14 +1590,14 @@
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="30">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="7"/>
@@ -1552,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="21">
         <v>1</v>
@@ -1586,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="21">
         <v>3</v>
@@ -1644,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C29" s="21">
         <v>2</v>
@@ -1659,14 +1716,14 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="30">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="7"/>
@@ -1678,7 +1735,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="22">
         <v>1</v>
@@ -1712,7 +1769,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="22">
         <v>3</v>
@@ -1793,8 +1850,8 @@
       <c r="A34" s="1">
         <v>6</v>
       </c>
-      <c r="B34" s="49" t="s">
-        <v>33</v>
+      <c r="B34" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -1817,7 +1874,7 @@
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="39"/>
@@ -1835,7 +1892,7 @@
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="39"/>
@@ -1853,7 +1910,7 @@
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="39"/>
@@ -1871,7 +1928,7 @@
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="39"/>
@@ -1889,7 +1946,7 @@
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="39"/>
@@ -1907,7 +1964,7 @@
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="39"/>
@@ -2191,8 +2248,8 @@
       <c r="A52" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="49" t="s">
-        <v>34</v>
+      <c r="B52" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -2236,12 +2293,12 @@
       <c r="A54" s="32"/>
       <c r="B54" s="10"/>
       <c r="C54" s="34">
-        <f t="shared" ref="C54:L54" si="12">SUM(C5:C53)</f>
+        <f t="shared" ref="C54:J54" si="12">SUM(C5:C53)</f>
         <v>42</v>
       </c>
       <c r="D54" s="34">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="E54" s="34">
         <f t="shared" si="12"/>
@@ -2249,7 +2306,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="G54" s="34">
         <f t="shared" si="12"/>
@@ -2257,32 +2314,32 @@
       </c>
       <c r="H54" s="34">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="I54" s="34">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J54" s="34">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
       <c r="M54" s="32">
         <f>C54+E54+G54+I54+K54</f>
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="N54" s="34">
         <f>D54+F54+H54+J54+L54</f>
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B55" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K55" s="47"/>
+      <c r="K55" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2316,25 +2373,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -2495,35 +2533,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2541,6 +2574,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -129,9 +129,6 @@
       </rPr>
       <t>maken team contract</t>
     </r>
-  </si>
-  <si>
-    <t>Feedback Plan v. Aanpak .Ovink</t>
   </si>
   <si>
     <r>
@@ -190,7 +187,74 @@
     </r>
   </si>
   <si>
-    <t>Donderdag Vergadering en werkbijeenkomst</t>
+    <t xml:space="preserve">Donderdag Vergadering en werkbijeenkomst </t>
+  </si>
+  <si>
+    <t>Interview uitwerken</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Donderdag </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Feedback Plan v. Aanpak .Ovink</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maandag </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Maken MoSCoW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maandag </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Afmaken Plan van Aanpak</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Donderdag </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Maken Usecase diagram</t>
+    </r>
+  </si>
+  <si>
+    <t>Donderdag Vergadering</t>
   </si>
 </sst>
 </file>
@@ -244,7 +308,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +348,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,6 +531,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,6 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -780,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -823,24 +900,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="49" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -1086,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="20">
         <v>2</v>
@@ -1170,33 +1247,41 @@
         <v>2</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="20">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.5</v>
+      </c>
       <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G12" s="15">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.5</v>
+      </c>
       <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="30">
-        <f t="shared" ref="M12:N17" si="2">C12+E12+G12+I12+K12</f>
-        <v>4</v>
+        <f t="shared" ref="M12:N16" si="2">C12+E12+G12+I12+K12</f>
+        <v>2</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1204,253 +1289,254 @@
         <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="20">
-        <v>2</v>
-      </c>
-      <c r="D13" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.5</v>
+      </c>
       <c r="E13" s="6">
-        <v>2</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G13" s="15">
-        <v>2</v>
-      </c>
-      <c r="H13" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="6">
-        <v>2</v>
-      </c>
-      <c r="J13" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25">
         <v>2</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="30">
         <f t="shared" ref="M14" si="3">C14+E14+G14+I14+K14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" ref="N14" si="4">D14+F14+H14+J14+L14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="21">
-        <v>2</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="16">
-        <v>2</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="30">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A15" s="47"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16" s="21">
         <v>2</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="21">
+        <v>2</v>
+      </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
       <c r="G16" s="16">
         <v>2</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="16">
+        <v>2</v>
+      </c>
       <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40">
-        <v>3</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="21">
-        <v>1</v>
-      </c>
+      <c r="A17" s="47">
+        <v>3</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="21"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
+      <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="30">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
+      <c r="M17" s="30"/>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
-        <v>3</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="21">
-        <v>2</v>
-      </c>
+      <c r="A18" s="47">
+        <v>3</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="21"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="16">
-        <v>2</v>
-      </c>
+      <c r="G18" s="16"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="2">
-        <v>2</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="30">
-        <f t="shared" ref="M18:M20" si="5">C18+E18+G18+I18+K18</f>
-        <v>8</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" ref="N18:N20" si="6">D18+F18+H18+J18+L18</f>
-        <v>0</v>
-      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
         <v>3</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1</v>
+      </c>
       <c r="D19" s="21"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="16"/>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="M19:M23" si="5">C19+E19+G19+I19+K19</f>
+        <v>4</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N19:N23" si="6">D19+F19+H19+J19+L19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
-        <v>4</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>21</v>
+      <c r="A20" s="46">
+        <v>3</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="30">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>4</v>
+      <c r="A21" s="47">
+        <v>3</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C21" s="21">
         <v>2</v>
@@ -1465,302 +1551,269 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="30">
-        <f t="shared" ref="M21:N52" si="7">C21+E21+G21+I21+K21</f>
-        <v>6</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M21" s="30"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40">
-        <v>4</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="21">
-        <v>1</v>
-      </c>
+      <c r="A22" s="25"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="16">
-        <v>1</v>
-      </c>
+      <c r="G22" s="16"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="30">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="N22" s="2"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
         <v>4</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>19</v>
+      <c r="B23" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="30">
-        <f t="shared" ref="M23:M24" si="8">C23+E23+G23+I23+K23</f>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" ref="N23:N24" si="9">D23+F23+H23+J23+L23</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+      <c r="A24" s="1">
         <v>4</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="21"/>
+      <c r="B24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="21">
+        <v>2</v>
+      </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="16"/>
+      <c r="G24" s="16">
+        <v>2</v>
+      </c>
       <c r="H24" s="16"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="M24:N53" si="7">C24+E24+G24+I24+K24</f>
+        <v>8</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>5</v>
+      <c r="A25" s="25">
+        <v>4</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C25" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="30">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" ref="M25:M26" si="8">C25+E25+G25+I25+K25</f>
+        <v>12</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N25:N26" si="9">D25+F25+H25+J25+L25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>5</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="21">
-        <v>1</v>
-      </c>
+      <c r="A26" s="25">
+        <v>4</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
+      <c r="G26" s="16"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="30">
-        <f t="shared" ref="M26:N28" si="10">C26+E26+G26+I26+K26</f>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
-        <v>5</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="21">
-        <v>3</v>
-      </c>
+      <c r="A27" s="47"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="21"/>
-      <c r="E27" s="2">
-        <v>3</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="16">
-        <v>3</v>
-      </c>
+      <c r="G27" s="16"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="2">
-        <v>3</v>
-      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="30">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="M27" s="30"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+      <c r="A28" s="1">
         <v>5</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="21"/>
+      <c r="B28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="21">
+        <v>2</v>
+      </c>
       <c r="D28" s="21"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="16"/>
+      <c r="G28" s="16">
+        <v>2</v>
+      </c>
       <c r="H28" s="16"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="30">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>6</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>28</v>
+      <c r="A29" s="25">
+        <v>5</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C29" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="30">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" ref="M29:N30" si="10">C29+E29+G29+I29+K29</f>
+        <v>12</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>6</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="22">
-        <v>1</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="17">
-        <v>1</v>
-      </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1"/>
+      <c r="A30" s="25">
+        <v>5</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="30">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1768,30 +1821,30 @@
       <c r="A31" s="1">
         <v>6</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="22">
-        <v>3</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="1">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="17">
-        <v>3</v>
-      </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="1">
-        <v>3</v>
-      </c>
-      <c r="J31" s="1"/>
+      <c r="B31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="21">
+        <v>2</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="16">
+        <v>2</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="30">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="7"/>
@@ -1802,20 +1855,30 @@
       <c r="A32" s="1">
         <v>6</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="22">
+        <v>3</v>
+      </c>
       <c r="D32" s="22"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="17"/>
+      <c r="G32" s="17">
+        <v>3</v>
+      </c>
       <c r="H32" s="17"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="30">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="7"/>
@@ -1850,9 +1913,7 @@
       <c r="A34" s="1">
         <v>6</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>30</v>
-      </c>
+      <c r="B34" s="12"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="1"/>
@@ -1873,22 +1934,30 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="2"/>
+      <c r="M35" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
@@ -1928,7 +1997,7 @@
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="39"/>
@@ -1981,31 +2050,25 @@
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>12</v>
+      <c r="A41" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="B41" s="12"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M41" s="30"/>
+      <c r="N41" s="2"/>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="12"/>
@@ -2052,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>12</v>
       </c>
@@ -2068,7 +2131,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="30">
-        <f t="shared" ref="M44:M53" si="11">C44+E44+G44+I44+K44</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N44" s="2">
@@ -2092,7 +2155,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="M45:M54" si="11">C45+E45+G45+I45+K45</f>
         <v>0</v>
       </c>
       <c r="N45" s="2">
@@ -2125,8 +2188,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>13</v>
+      <c r="A47" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="22"/>
@@ -2149,7 +2212,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="12"/>
@@ -2176,7 +2239,7 @@
       <c r="A49" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="1"/>
@@ -2200,7 +2263,7 @@
       <c r="A50" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="1"/>
@@ -2248,9 +2311,7 @@
       <c r="A52" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="45" t="s">
-        <v>31</v>
-      </c>
+      <c r="B52" s="12"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="1"/>
@@ -2271,75 +2332,101 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
+      <c r="A53" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="31">
+      <c r="M53" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N53" s="11"/>
+      <c r="N53" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="34">
-        <f t="shared" ref="C54:J54" si="12">SUM(C5:C53)</f>
-        <v>42</v>
-      </c>
-      <c r="D54" s="34">
+      <c r="A54" s="10"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="32"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="34">
+        <f t="shared" ref="C55:J55" si="12">SUM(C5:C54)</f>
+        <v>37.5</v>
+      </c>
+      <c r="D55" s="34">
+        <f t="shared" si="12"/>
+        <v>15.5</v>
+      </c>
+      <c r="E55" s="34">
+        <f t="shared" si="12"/>
+        <v>37.5</v>
+      </c>
+      <c r="F55" s="34">
+        <f t="shared" si="12"/>
+        <v>13.5</v>
+      </c>
+      <c r="G55" s="34">
+        <f t="shared" si="12"/>
+        <v>37.5</v>
+      </c>
+      <c r="H55" s="34">
+        <f t="shared" si="12"/>
+        <v>15.5</v>
+      </c>
+      <c r="I55" s="34">
+        <f t="shared" si="12"/>
+        <v>29.5</v>
+      </c>
+      <c r="J55" s="34">
         <f t="shared" si="12"/>
         <v>11.5</v>
       </c>
-      <c r="E54" s="34">
-        <f t="shared" si="12"/>
-        <v>42</v>
-      </c>
-      <c r="F54" s="34">
-        <f t="shared" si="12"/>
-        <v>11.5</v>
-      </c>
-      <c r="G54" s="34">
-        <f t="shared" si="12"/>
-        <v>42</v>
-      </c>
-      <c r="H54" s="34">
-        <f t="shared" si="12"/>
-        <v>11.5</v>
-      </c>
-      <c r="I54" s="34">
-        <f t="shared" si="12"/>
-        <v>26</v>
-      </c>
-      <c r="J54" s="34">
-        <f t="shared" si="12"/>
-        <v>8.5</v>
-      </c>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="32">
-        <f>C54+E54+G54+I54+K54</f>
-        <v>152</v>
-      </c>
-      <c r="N54" s="34">
-        <f>D54+F54+H54+J54+L54</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="33" t="s">
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="32">
+        <f>C55+E55+G55+I55+K55</f>
+        <v>142</v>
+      </c>
+      <c r="N55" s="34">
+        <f>D55+F55+H55+J55+L55</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K55" s="43"/>
+      <c r="K56" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2585,15 +2672,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -143,9 +143,6 @@
       </rPr>
       <t>maken modellen</t>
     </r>
-  </si>
-  <si>
-    <t>Deadline inleveren plan van aanpak</t>
   </si>
   <si>
     <t>Deadline alle Modellen moeten af (Solution acitacture)</t>
@@ -255,6 +252,15 @@
   </si>
   <si>
     <t>Donderdag Vergadering</t>
+  </si>
+  <si>
+    <t>Maandag 11:30 tot 15:00 werkbijeenkomst</t>
+  </si>
+  <si>
+    <t>Deadline Requirement voor 23:59</t>
+  </si>
+  <si>
+    <t>Deadline inleveren plan van aanpak voor 23:59</t>
   </si>
 </sst>
 </file>
@@ -308,7 +314,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,12 +354,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,7 +552,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -859,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="20">
         <v>2</v>
@@ -1247,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="20">
         <v>0.5</v>
@@ -1276,7 +1275,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="30">
-        <f t="shared" ref="M12:N16" si="2">C12+E12+G12+I12+K12</f>
+        <f t="shared" ref="M12:N20" si="2">C12+E12+G12+I12+K12</f>
         <v>2</v>
       </c>
       <c r="N12" s="2">
@@ -1289,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="20">
         <v>1</v>
@@ -1331,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="20">
         <v>1</v>
@@ -1431,73 +1430,125 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="2"/>
+      <c r="M17" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47">
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.5</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="2"/>
+      <c r="M18" s="30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
         <v>3</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>35</v>
+      <c r="B19" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="21">
         <v>1</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="21">
+        <v>1</v>
+      </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="16">
+        <v>1</v>
+      </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="30">
-        <f t="shared" ref="M19:M23" si="5">C19+E19+G19+I19+K19</f>
+        <f t="shared" ref="M19:M22" si="5">C19+E19+G19+I19+K19</f>
         <v>4</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" ref="N19:N23" si="6">D19+F19+H19+J19+L19</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1505,54 +1556,50 @@
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="21">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="21">
+        <v>2</v>
+      </c>
       <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
       <c r="G20" s="16">
-        <v>1</v>
-      </c>
-      <c r="H20" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="H20" s="16">
+        <v>2</v>
+      </c>
       <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="30">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="N20" s="2"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47">
-        <v>3</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="21">
-        <v>2</v>
-      </c>
+      <c r="A21" s="47"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="16">
-        <v>2</v>
-      </c>
+      <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="2">
-        <v>2</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -1560,24 +1607,36 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="25">
+        <v>4</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="21">
+        <v>3.5</v>
+      </c>
       <c r="D22" s="21"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>3.5</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="16"/>
+      <c r="G22" s="16">
+        <v>3.5</v>
+      </c>
       <c r="H22" s="16"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2">
+        <v>3.5</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N21:N22" si="6">D22+F22+H22+J22+L22</f>
         <v>0</v>
       </c>
     </row>
@@ -1586,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C23" s="21">
         <v>2</v>
@@ -1607,11 +1666,11 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M23:N53" si="7">C23+E23+G23+I23+K23</f>
         <v>8</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1620,32 +1679,32 @@
         <v>4</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C24" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="30">
-        <f t="shared" ref="M24:N53" si="7">C24+E24+G24+I24+K24</f>
-        <v>8</v>
+        <f t="shared" ref="M24:M26" si="8">C24+E24+G24+I24+K24</f>
+        <v>12</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N24:N26" si="9">D24+F24+H24+J24+L24</f>
         <v>0</v>
       </c>
     </row>
@@ -1653,33 +1712,33 @@
       <c r="A25" s="25">
         <v>4</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>19</v>
+      <c r="B25" s="44" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="30">
-        <f t="shared" ref="M25:M26" si="8">C25+E25+G25+I25+K25</f>
-        <v>12</v>
+        <f>C25+E25+G25+I25+K25</f>
+        <v>4</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" ref="N25:N26" si="9">D25+F25+H25+J25+L25</f>
+        <f>D25+F25+H25+J25+L25</f>
         <v>0</v>
       </c>
     </row>
@@ -1688,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -1710,8 +1769,12 @@
       </c>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="47">
+        <v>4</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>40</v>
+      </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="2"/>
@@ -1938,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -2336,7 +2399,7 @@
         <v>13</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -2380,46 +2443,46 @@
       <c r="A55" s="32"/>
       <c r="B55" s="10"/>
       <c r="C55" s="34">
-        <f t="shared" ref="C55:J55" si="12">SUM(C5:C54)</f>
-        <v>37.5</v>
+        <f>SUM(C5:C54)</f>
+        <v>40.5</v>
       </c>
       <c r="D55" s="34">
-        <f t="shared" si="12"/>
-        <v>15.5</v>
+        <f>SUM(D5:D54)</f>
+        <v>20</v>
       </c>
       <c r="E55" s="34">
-        <f t="shared" si="12"/>
-        <v>37.5</v>
+        <f>SUM(E5:E54)</f>
+        <v>40.5</v>
       </c>
       <c r="F55" s="34">
-        <f t="shared" si="12"/>
-        <v>13.5</v>
+        <f>SUM(F5:F54)</f>
+        <v>18</v>
       </c>
       <c r="G55" s="34">
-        <f t="shared" si="12"/>
-        <v>37.5</v>
+        <f>SUM(G5:G54)</f>
+        <v>40.5</v>
       </c>
       <c r="H55" s="34">
-        <f t="shared" si="12"/>
-        <v>15.5</v>
+        <f>SUM(H5:H54)</f>
+        <v>20</v>
       </c>
       <c r="I55" s="34">
-        <f t="shared" si="12"/>
-        <v>29.5</v>
+        <f>SUM(I5:I54)</f>
+        <v>32.5</v>
       </c>
       <c r="J55" s="34">
-        <f t="shared" si="12"/>
-        <v>11.5</v>
+        <f>SUM(J5:J54)</f>
+        <v>16</v>
       </c>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
       <c r="M55" s="32">
         <f>C55+E55+G55+I55+K55</f>
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="N55" s="34">
         <f>D55+F55+H55+J55+L55</f>
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -2460,6 +2523,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -2620,30 +2702,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2661,30 +2748,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -254,13 +254,28 @@
     <t>Donderdag Vergadering</t>
   </si>
   <si>
-    <t>Maandag 11:30 tot 15:00 werkbijeenkomst</t>
-  </si>
-  <si>
     <t>Deadline Requirement voor 23:59</t>
   </si>
   <si>
     <t>Deadline inleveren plan van aanpak voor 23:59</t>
+  </si>
+  <si>
+    <t>Maandag Maken Constraints</t>
+  </si>
+  <si>
+    <t>Maandag Maken Activity Diagram Control washing cycle</t>
+  </si>
+  <si>
+    <t>Maandag Maken Activity Diagram Provide access</t>
+  </si>
+  <si>
+    <t>Maandag Maken Activity Diagram Manage user profile</t>
+  </si>
+  <si>
+    <t>Maandag Maken Activity Diagram Display machine state</t>
+  </si>
+  <si>
+    <t>Maandag Maken Activity Diagram Read machine state</t>
   </si>
 </sst>
 </file>
@@ -422,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,6 +546,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -899,24 +917,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="51" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="49"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -1611,189 +1629,259 @@
         <v>4</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="D22" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="21">
+        <v>2</v>
+      </c>
       <c r="E22" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
       <c r="G22" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="H22" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
       <c r="I22" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="J22" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="30">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f>C22+E22+G22+I22+K22</f>
+        <v>2</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" ref="N21:N22" si="6">D22+F22+H22+J22+L22</f>
-        <v>0</v>
+        <f t="shared" ref="N22:N26" si="6">D22+F22+H22+J22+L22</f>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="A23" s="48">
         <v>4</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C23" s="21">
-        <v>2</v>
-      </c>
-      <c r="D23" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
       <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
       <c r="G23" s="16">
-        <v>2</v>
-      </c>
-      <c r="H23" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
       <c r="I23" s="2">
-        <v>2</v>
-      </c>
-      <c r="J23" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="30">
-        <f t="shared" ref="M23:N53" si="7">C23+E23+G23+I23+K23</f>
-        <v>8</v>
+        <f>C23+E23+G23+I23+K23</f>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="48">
         <v>4</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C24" s="21">
-        <v>3</v>
-      </c>
-      <c r="D24" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
       <c r="E24" s="2">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
       <c r="G24" s="16">
-        <v>3</v>
-      </c>
-      <c r="H24" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
       <c r="I24" s="2">
-        <v>3</v>
-      </c>
-      <c r="J24" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="30">
-        <f t="shared" ref="M24:M26" si="8">C24+E24+G24+I24+K24</f>
-        <v>12</v>
+        <f>C24+E24+G24+I24+K24</f>
+        <v>1</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" ref="N24:N26" si="9">D24+F24+H24+J24+L24</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
+      <c r="A25" s="48">
         <v>4</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>34</v>
+      <c r="B25" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C25" s="21">
-        <v>1</v>
-      </c>
-      <c r="D25" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
       <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
       <c r="G25" s="16">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="H25" s="16">
+        <v>2</v>
+      </c>
       <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="30">
         <f>C25+E25+G25+I25+K25</f>
+        <v>2</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="48">
         <v>4</v>
       </c>
-      <c r="N25" s="2">
-        <f>D25+F25+H25+J25+L25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
-        <v>4</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>C26+E26+G26+I26+K26</f>
+        <v>2</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47">
+      <c r="A27" s="25">
         <v>4</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="B27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1.5</v>
+      </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="2"/>
+      <c r="M27" s="30">
+        <f t="shared" ref="M27:N57" si="7">C27+E27+G27+I27+K27</f>
+        <v>6</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C28" s="21">
         <v>2</v>
@@ -1808,59 +1896,61 @@
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="30">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" ref="M28:M30" si="8">C28+E28+G28+I28+K28</f>
+        <v>8</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N28:N30" si="9">D28+F28+H28+J28+L28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
-        <v>5</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="30">
-        <f t="shared" ref="M29:N30" si="10">C29+E29+G29+I29+K29</f>
-        <v>12</v>
+        <f>C29+E29+G29+I29+K29</f>
+        <v>4</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" si="10"/>
+        <f>D29+F29+H29+J29+L29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
-        <v>5</v>
-      </c>
-      <c r="B30" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>40</v>
+      </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="2"/>
@@ -1872,76 +1962,62 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>6</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="21">
-        <v>2</v>
-      </c>
+      <c r="A31" s="47">
+        <v>4</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="21"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="16">
-        <v>2</v>
-      </c>
+      <c r="G31" s="16"/>
       <c r="H31" s="16"/>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="30">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M31" s="30"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>6</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="22">
-        <v>3</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="1">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="17">
-        <v>3</v>
-      </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="1">
-        <v>3</v>
-      </c>
-      <c r="J32" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="21">
+        <v>2</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="16">
+        <v>2</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="30">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="7"/>
@@ -1949,50 +2025,60 @@
       </c>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>6</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="A33" s="25">
+        <v>5</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="21">
+        <v>3</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="16">
+        <v>3</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="2">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="M33:N34" si="10">C33+E33+G33+I33+K33</f>
+        <v>12</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>6</v>
+      <c r="A34" s="25">
+        <v>5</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2000,22 +2086,30 @@
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="B35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="21">
+        <v>2</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="16">
+        <v>2</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="30">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="7"/>
@@ -2023,80 +2117,116 @@
       </c>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
+      <c r="A36" s="1">
+        <v>6</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="22">
+        <v>3</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="17">
+        <v>3</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="1">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="2"/>
+      <c r="M36" s="30">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
-        <v>22</v>
+      <c r="A37" s="1">
+        <v>6</v>
       </c>
       <c r="B37" s="12"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="2"/>
+      <c r="M37" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40" t="s">
-        <v>22</v>
+      <c r="A38" s="1">
+        <v>6</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="2"/>
+      <c r="M38" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
+      <c r="A39" s="1">
+        <v>6</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="2"/>
+      <c r="M39" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="39"/>
@@ -2114,7 +2244,7 @@
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="39"/>
@@ -2131,103 +2261,79 @@
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>12</v>
+      <c r="A42" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M42" s="30"/>
+      <c r="N42" s="2"/>
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28" t="s">
-        <v>12</v>
+      <c r="A43" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="B43" s="12"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M43" s="30"/>
+      <c r="N43" s="2"/>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
-        <v>12</v>
+      <c r="A44" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="B44" s="12"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
-        <v>12</v>
+      <c r="M44" s="30"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="30">
-        <f t="shared" ref="M45:M54" si="11">C45+E45+G45+I45+K45</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="28" t="s">
+      <c r="M45" s="30"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="12"/>
@@ -2242,7 +2348,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N46" s="2">
@@ -2250,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>12</v>
       </c>
@@ -2266,7 +2372,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N47" s="2">
@@ -2274,9 +2380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>13</v>
+    <row r="48" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="22"/>
@@ -2290,7 +2396,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N48" s="2">
@@ -2300,7 +2406,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="22"/>
@@ -2314,7 +2420,7 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="M49:M58" si="11">C49+E49+G49+I49+K49</f>
         <v>0</v>
       </c>
       <c r="N49" s="2">
@@ -2324,9 +2430,9 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="B50" s="12"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="1"/>
@@ -2348,7 +2454,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="22"/>
@@ -2371,7 +2477,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="12"/>
@@ -2398,9 +2504,7 @@
       <c r="A53" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="45" t="s">
-        <v>29</v>
-      </c>
+      <c r="B53" s="12"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="1"/>
@@ -2421,75 +2525,173 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
+      <c r="A54" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="31">
+      <c r="M54" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N54" s="11"/>
+      <c r="N54" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="34">
-        <f>SUM(C5:C54)</f>
-        <v>40.5</v>
-      </c>
-      <c r="D55" s="34">
-        <f>SUM(D5:D54)</f>
-        <v>20</v>
-      </c>
-      <c r="E55" s="34">
-        <f>SUM(E5:E54)</f>
-        <v>40.5</v>
-      </c>
-      <c r="F55" s="34">
-        <f>SUM(F5:F54)</f>
-        <v>18</v>
-      </c>
-      <c r="G55" s="34">
-        <f>SUM(G5:G54)</f>
-        <v>40.5</v>
-      </c>
-      <c r="H55" s="34">
-        <f>SUM(H5:H54)</f>
-        <v>20</v>
-      </c>
-      <c r="I55" s="34">
-        <f>SUM(I5:I54)</f>
-        <v>32.5</v>
-      </c>
-      <c r="J55" s="34">
-        <f>SUM(J5:J54)</f>
-        <v>16</v>
-      </c>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="32">
-        <f>C55+E55+G55+I55+K55</f>
-        <v>154</v>
-      </c>
-      <c r="N55" s="34">
-        <f>D55+F55+H55+J55+L55</f>
-        <v>74</v>
+      <c r="A55" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B56" s="33" t="s">
+      <c r="A56" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="11"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="32"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="34">
+        <f t="shared" ref="C59:J59" si="12">SUM(C5:C58)</f>
+        <v>37.5</v>
+      </c>
+      <c r="D59" s="34">
+        <f t="shared" si="12"/>
+        <v>23.5</v>
+      </c>
+      <c r="E59" s="34">
+        <f t="shared" si="12"/>
+        <v>37.5</v>
+      </c>
+      <c r="F59" s="34">
+        <f t="shared" si="12"/>
+        <v>21.5</v>
+      </c>
+      <c r="G59" s="34">
+        <f t="shared" si="12"/>
+        <v>37.5</v>
+      </c>
+      <c r="H59" s="34">
+        <f t="shared" si="12"/>
+        <v>23.5</v>
+      </c>
+      <c r="I59" s="34">
+        <f t="shared" si="12"/>
+        <v>29.5</v>
+      </c>
+      <c r="J59" s="34">
+        <f t="shared" si="12"/>
+        <v>19.5</v>
+      </c>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="32">
+        <f>C59+E59+G59+I59+K59</f>
+        <v>142</v>
+      </c>
+      <c r="N59" s="34">
+        <f>D59+F59+H59+J59+L59</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B60" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K56" s="43"/>
+      <c r="K60" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2523,25 +2725,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -2702,35 +2885,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2748,6 +2926,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -128,20 +128,6 @@
         <family val="2"/>
       </rPr>
       <t>maken team contract</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Maandag vergadering bijeenkomst, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>maken modellen</t>
     </r>
   </si>
   <si>
@@ -277,6 +263,104 @@
   <si>
     <t>Maandag Maken Activity Diagram Read machine state</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maandag vergadering bijeenkomst, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>maken Taakstructurering</t>
+    </r>
+  </si>
+  <si>
+    <t>Maandag Maken Klassendiagram</t>
+  </si>
+  <si>
+    <t>Maandag Maken Concurrency model</t>
+  </si>
+  <si>
+    <t>Donderdag vergadering om 11:00</t>
+  </si>
+  <si>
+    <t>Donderdag Maken Klassendiagram</t>
+  </si>
+  <si>
+    <t>Donderdag Maken Concurrency model</t>
+  </si>
+  <si>
+    <t>Maandag Maken STD</t>
+  </si>
+  <si>
+    <t>Donderdag maken STD</t>
+  </si>
+  <si>
+    <t>Donderdag feedback SA om 11:00</t>
+  </si>
+  <si>
+    <t>Hardware inelkaar zetten</t>
+  </si>
+  <si>
+    <t>Html pagina maken</t>
+  </si>
+  <si>
+    <t>Woensdag Maken Activity Diagram Manage user profile</t>
+  </si>
+  <si>
+    <t>Dag 1 Onderzoek gebruikers interface</t>
+  </si>
+  <si>
+    <t>Dag 1 Maken gebruikers interface</t>
+  </si>
+  <si>
+    <t>Dag 5 Technisch verslag afronden</t>
+  </si>
+  <si>
+    <t>Dag 3 Technisch verslag beginnen</t>
+  </si>
+  <si>
+    <t>Dag 4 Technisch verslag bijwerken</t>
+  </si>
+  <si>
+    <t>Dag 2 Code afronden</t>
+  </si>
+  <si>
+    <t>Dag 2 Doxygen testen</t>
+  </si>
+  <si>
+    <t>Dag 3 Onderzoek was programma instellen</t>
+  </si>
+  <si>
+    <t>Dag 3 Maken was programma instellen en verbinding maken</t>
+  </si>
+  <si>
+    <t>Dag 4 Onderzoek Wasprogramma wijzigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dag 4 Maken wasprogramma wijzigen </t>
+  </si>
+  <si>
+    <t>Dag 2 Verbinding maken hardware en interface</t>
+  </si>
+  <si>
+    <t>Dag 5 Maken wasprogramma uitvoeren</t>
+  </si>
+  <si>
+    <t>Dag 2 Verbindings protecol opstellen</t>
+  </si>
+  <si>
+    <t>Dag 5 Code optimaliseren/ bug fixen / uitlopen / extra tijd</t>
+  </si>
+  <si>
+    <t>Dag 1 Code optimaliseren/ bug fixen / uitlopen / extra tijd</t>
+  </si>
+  <si>
+    <t>Vrijdag Plan van aanpak afronden</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -328,8 +412,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,6 +651,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,6 +680,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -874,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -917,24 +1044,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="52" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -1180,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="20">
         <v>2</v>
@@ -1264,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="20">
         <v>0.5</v>
@@ -1306,25 +1433,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="20">
         <v>1</v>
       </c>
       <c r="D13" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="15">
         <v>1</v>
       </c>
       <c r="H13" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
@@ -1340,7 +1467,7 @@
       </c>
       <c r="N13" s="2">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1348,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="20">
         <v>1</v>
@@ -1448,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="21">
         <v>1</v>
@@ -1490,7 +1617,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="21">
         <v>0.5</v>
@@ -1532,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="21">
         <v>1</v>
@@ -1561,7 +1688,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="30">
-        <f t="shared" ref="M19:M22" si="5">C19+E19+G19+I19+K19</f>
+        <f t="shared" ref="M19" si="5">C19+E19+G19+I19+K19</f>
         <v>4</v>
       </c>
       <c r="N19" s="2">
@@ -1574,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="21">
         <v>2</v>
@@ -1629,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="21">
         <v>2</v>
@@ -1671,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="21">
         <v>0</v>
@@ -1713,7 +1840,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="21">
         <v>0</v>
@@ -1755,7 +1882,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="21">
         <v>0</v>
@@ -1797,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="21">
         <v>0</v>
@@ -1839,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="21">
         <v>1.5</v>
@@ -1868,7 +1995,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="30">
-        <f t="shared" ref="M27:N57" si="7">C27+E27+G27+I27+K27</f>
+        <f t="shared" ref="M27:N73" si="7">C27+E27+G27+I27+K27</f>
         <v>6</v>
       </c>
       <c r="N27" s="2">
@@ -1877,273 +2004,340 @@
       </c>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="50">
         <v>4</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C28" s="21">
-        <v>2</v>
-      </c>
-      <c r="D28" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
       <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
       <c r="G28" s="16">
-        <v>2</v>
-      </c>
-      <c r="H28" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
       <c r="I28" s="2">
-        <v>2</v>
-      </c>
-      <c r="J28" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="30">
-        <f t="shared" ref="M28:M30" si="8">C28+E28+G28+I28+K28</f>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" ref="N28:N30" si="9">D28+F28+H28+J28+L28</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
+      <c r="A29" s="1">
         <v>4</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>34</v>
+      <c r="B29" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C29" s="21">
-        <v>1</v>
-      </c>
-      <c r="D29" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="21">
+        <v>3</v>
+      </c>
       <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
       <c r="G29" s="16">
-        <v>1</v>
-      </c>
-      <c r="H29" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="H29" s="16">
+        <v>2</v>
+      </c>
       <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="30">
-        <f>C29+E29+G29+I29+K29</f>
+        <f t="shared" ref="M29:M34" si="8">C29+E29+G29+I29+K29</f>
+        <v>8</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" ref="N29:N34" si="9">D29+F29+H29+J29+L29</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="52">
         <v>4</v>
       </c>
-      <c r="N29" s="2">
-        <f>D29+F29+H29+J29+L29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
-        <v>4</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="B30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.5</v>
+      </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47">
+      <c r="A31" s="25">
         <v>4</v>
       </c>
-      <c r="B31" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="B31" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.5</v>
+      </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="2"/>
+      <c r="M31" s="30">
+        <f>C31+E31+G31+I31+K31</f>
+        <v>2</v>
+      </c>
+      <c r="N31" s="2">
+        <f>D31+F31+H31+J31+L31</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>5</v>
+      <c r="A32" s="52">
+        <v>4</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C32" s="21">
         <v>2</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="21">
+        <v>2</v>
+      </c>
       <c r="E32" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
       <c r="G32" s="16">
         <v>2</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="H32" s="16">
+        <v>2</v>
+      </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="30">
-        <f t="shared" si="7"/>
+        <f>C32+E32+G32+I32+K32</f>
         <v>6</v>
       </c>
-      <c r="N32" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
-        <v>5</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="21">
-        <v>3</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="2">
-        <v>3</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="16">
-        <v>3</v>
-      </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="2">
-        <v>3</v>
-      </c>
-      <c r="J33" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>17</v>
+      </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="30">
-        <f t="shared" ref="M33:N34" si="10">C33+E33+G33+I33+K33</f>
-        <v>12</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="M33" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N33" s="2" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
-        <v>5</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="A34" s="47">
+        <v>4</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="61" t="s">
+        <v>17</v>
+      </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="M34" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N34" s="2" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>6</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="21">
-        <v>2</v>
-      </c>
+      <c r="A35" s="50"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="2">
-        <v>2</v>
-      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="16">
-        <v>2</v>
-      </c>
+      <c r="G35" s="16"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="30">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M35" s="30"/>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>6</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="22">
-        <v>3</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="1">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="17">
-        <v>3</v>
-      </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="1">
-        <v>3</v>
-      </c>
-      <c r="J36" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="21">
+        <v>2</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="16">
+        <v>2</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="30">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="7"/>
@@ -2151,205 +2345,295 @@
       </c>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>6</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="A37" s="50">
+        <v>5</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J37" s="2"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="30">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N37" s="2"/>
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>6</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="A38" s="50">
+        <v>5</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="16">
+        <v>0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="30">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>6</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="A39" s="25">
+        <v>5</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="2"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="M39:N40" si="10">C39+E39+G39+I39+K39</f>
+        <v>2</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
+      <c r="A40" s="25">
+        <v>5</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="21">
+        <v>0</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="2"/>
+      <c r="M40" s="30">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="2"/>
+      <c r="M41" s="30">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
-        <v>22</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="2"/>
+      <c r="M42" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
+      <c r="A43" s="50">
+        <v>6</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="49">
+        <v>3.5</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="50">
+        <v>3.5</v>
+      </c>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51">
+        <v>0</v>
+      </c>
+      <c r="H43" s="51"/>
+      <c r="I43" s="50">
+        <v>3.5</v>
+      </c>
+      <c r="J43" s="50"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="30"/>
       <c r="N43" s="2"/>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="40" t="s">
-        <v>23</v>
+      <c r="A44" s="50">
+        <v>6</v>
       </c>
       <c r="B44" s="12"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51">
+        <v>0</v>
+      </c>
+      <c r="H44" s="51"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="30"/>
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
+      <c r="A45" s="50">
+        <v>6</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="49">
+        <v>2</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="50">
+        <v>2</v>
+      </c>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51">
+        <v>0</v>
+      </c>
+      <c r="H45" s="51"/>
+      <c r="I45" s="50">
+        <v>2</v>
+      </c>
+      <c r="J45" s="50"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="30"/>
       <c r="N45" s="2"/>
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="22"/>
+      <c r="A46" s="1">
+        <v>6</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="22">
+        <v>1</v>
+      </c>
       <c r="D46" s="22"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="17"/>
+      <c r="G46" s="17">
+        <v>0</v>
+      </c>
       <c r="H46" s="17"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="30">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="7"/>
@@ -2357,15 +2641,17 @@
       </c>
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
-        <v>12</v>
+      <c r="A47" s="1">
+        <v>6</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="17"/>
+      <c r="G47" s="17">
+        <v>0</v>
+      </c>
       <c r="H47" s="17"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2381,317 +2667,839 @@
       </c>
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="A48" s="1">
+        <v>6</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>17</v>
+      </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="30">
+      <c r="M48" s="30" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N48" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="39">
+        <v>3</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="40">
+        <v>3</v>
+      </c>
+      <c r="F49" s="40"/>
+      <c r="G49" s="41">
+        <v>0</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="40">
+        <v>0</v>
+      </c>
+      <c r="J49" s="40"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="30">
-        <f t="shared" ref="M49:M58" si="11">C49+E49+G49+I49+K49</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="39">
+        <v>0</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40">
+        <v>0</v>
+      </c>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41">
+        <v>3</v>
+      </c>
+      <c r="H50" s="41"/>
+      <c r="I50" s="40">
+        <v>3</v>
+      </c>
+      <c r="J50" s="40"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="28" t="s">
-        <v>12</v>
+      <c r="M50" s="30"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="B51" s="12"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>13</v>
+      <c r="M51" s="30"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
-        <v>13</v>
+      <c r="M52" s="30"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="B53" s="12"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="28" t="s">
-        <v>13</v>
-      </c>
+      <c r="M54" s="30"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="50"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
-      <c r="M55" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="22"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="22">
+        <v>1</v>
+      </c>
       <c r="D56" s="22"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
       <c r="F56" s="1"/>
-      <c r="G56" s="17"/>
+      <c r="G56" s="17">
+        <v>0</v>
+      </c>
       <c r="H56" s="17"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
       <c r="J56" s="1"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="22">
+        <v>7</v>
+      </c>
       <c r="D57" s="22"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1">
+        <v>8</v>
+      </c>
       <c r="F57" s="1"/>
-      <c r="G57" s="17"/>
+      <c r="G57" s="17">
+        <v>8</v>
+      </c>
       <c r="H57" s="17"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="1">
+        <v>8</v>
+      </c>
       <c r="J57" s="1"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
+    <row r="58" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="49">
+        <v>2</v>
+      </c>
+      <c r="D58" s="49"/>
+      <c r="E58" s="50">
+        <v>2</v>
+      </c>
+      <c r="F58" s="50"/>
+      <c r="G58" s="51">
+        <v>2</v>
+      </c>
+      <c r="H58" s="51"/>
+      <c r="I58" s="50">
+        <v>2</v>
+      </c>
+      <c r="J58" s="50"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
-      <c r="M58" s="31">
+      <c r="M58" s="30"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="49">
+        <v>6</v>
+      </c>
+      <c r="D59" s="49"/>
+      <c r="E59" s="50">
+        <v>6</v>
+      </c>
+      <c r="F59" s="50"/>
+      <c r="G59" s="51">
+        <v>6</v>
+      </c>
+      <c r="H59" s="51"/>
+      <c r="I59" s="50">
+        <v>6</v>
+      </c>
+      <c r="J59" s="50"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="22">
+        <v>0</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="17">
+        <v>0</v>
+      </c>
+      <c r="H60" s="17"/>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="49">
+        <v>8</v>
+      </c>
+      <c r="D61" s="49"/>
+      <c r="E61" s="50">
+        <v>7</v>
+      </c>
+      <c r="F61" s="50"/>
+      <c r="G61" s="51">
+        <v>8</v>
+      </c>
+      <c r="H61" s="51"/>
+      <c r="I61" s="50">
+        <v>8</v>
+      </c>
+      <c r="J61" s="50"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="22">
+        <v>0</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="17">
+        <v>1</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="30">
+        <f t="shared" ref="M62:M74" si="11">C62+E62+G62+I62+K62</f>
+        <v>1</v>
+      </c>
+      <c r="N62" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="49">
+        <v>8</v>
+      </c>
+      <c r="D63" s="49"/>
+      <c r="E63" s="50">
+        <v>8</v>
+      </c>
+      <c r="F63" s="50"/>
+      <c r="G63" s="51">
+        <v>7</v>
+      </c>
+      <c r="H63" s="51"/>
+      <c r="I63" s="50">
+        <v>8</v>
+      </c>
+      <c r="J63" s="50"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="30">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="11"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="34">
-        <f t="shared" ref="C59:J59" si="12">SUM(C5:C58)</f>
-        <v>37.5</v>
-      </c>
-      <c r="D59" s="34">
+        <v>31</v>
+      </c>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="22">
+        <v>8</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="1">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="17">
+        <v>8</v>
+      </c>
+      <c r="H64" s="17"/>
+      <c r="I64" s="1">
+        <v>8</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N64" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="54">
+        <v>0</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="17">
+        <v>0</v>
+      </c>
+      <c r="H65" s="17"/>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="50"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="22">
+        <v>8</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="1">
+        <v>8</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="17">
+        <v>8</v>
+      </c>
+      <c r="H67" s="17"/>
+      <c r="I67" s="1">
+        <v>8</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N67" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="22">
+        <v>8</v>
+      </c>
+      <c r="D68" s="22"/>
+      <c r="E68" s="1">
+        <v>8</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="17">
+        <v>8</v>
+      </c>
+      <c r="H68" s="17"/>
+      <c r="I68" s="1">
+        <v>7</v>
+      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="30">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="49">
+        <v>0</v>
+      </c>
+      <c r="D69" s="49"/>
+      <c r="E69" s="50">
+        <v>0</v>
+      </c>
+      <c r="F69" s="50"/>
+      <c r="G69" s="51">
+        <v>0</v>
+      </c>
+      <c r="H69" s="51"/>
+      <c r="I69" s="50">
+        <v>1</v>
+      </c>
+      <c r="J69" s="50"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="30">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="22">
+        <v>8</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="1">
+        <v>8</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="17">
+        <v>8</v>
+      </c>
+      <c r="H70" s="17"/>
+      <c r="I70" s="1">
+        <v>8</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="22">
+        <v>8</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="E71" s="1">
+        <v>8</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="17">
+        <v>8</v>
+      </c>
+      <c r="H71" s="17"/>
+      <c r="I71" s="1">
+        <v>8</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="22">
+        <v>8</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="1">
+        <v>8</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="17">
+        <v>8</v>
+      </c>
+      <c r="H72" s="17"/>
+      <c r="I72" s="1">
+        <v>8</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="30" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N73" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="10"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="11"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="32"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="34">
+        <f t="shared" ref="C75:J75" si="12">SUM(C5:C74)</f>
+        <v>125.5</v>
+      </c>
+      <c r="D75" s="34">
         <f t="shared" si="12"/>
-        <v>23.5</v>
-      </c>
-      <c r="E59" s="34">
+        <v>30</v>
+      </c>
+      <c r="E75" s="34">
         <f t="shared" si="12"/>
-        <v>37.5</v>
-      </c>
-      <c r="F59" s="34">
+        <v>126.5</v>
+      </c>
+      <c r="F75" s="34">
         <f t="shared" si="12"/>
-        <v>21.5</v>
-      </c>
-      <c r="G59" s="34">
+        <v>27.5</v>
+      </c>
+      <c r="G75" s="34">
         <f t="shared" si="12"/>
-        <v>37.5</v>
-      </c>
-      <c r="H59" s="34">
+        <v>119</v>
+      </c>
+      <c r="H75" s="34">
         <f t="shared" si="12"/>
-        <v>23.5</v>
-      </c>
-      <c r="I59" s="34">
+        <v>29</v>
+      </c>
+      <c r="I75" s="34">
         <f t="shared" si="12"/>
-        <v>29.5</v>
-      </c>
-      <c r="J59" s="34">
+        <v>117.5</v>
+      </c>
+      <c r="J75" s="34">
         <f t="shared" si="12"/>
-        <v>19.5</v>
-      </c>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="32">
-        <f>C59+E59+G59+I59+K59</f>
-        <v>142</v>
-      </c>
-      <c r="N59" s="34">
-        <f>D59+F59+H59+J59+L59</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B60" s="33" t="s">
+        <v>22.5</v>
+      </c>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="32">
+        <f>C75+E75+G75+I75+K75</f>
+        <v>488.5</v>
+      </c>
+      <c r="N75" s="34">
+        <f>D75+F75+H75+J75+L75</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B76" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K60" s="43"/>
+      <c r="K76" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2937,15 +3745,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -264,8 +264,86 @@
     <t>Maandag Maken Activity Diagram Read machine state</t>
   </si>
   <si>
+    <t>Maandag Maken Concurrency model</t>
+  </si>
+  <si>
+    <t>Donderdag vergadering om 11:00</t>
+  </si>
+  <si>
+    <t>Maandag Maken STD</t>
+  </si>
+  <si>
+    <t>Donderdag maken STD</t>
+  </si>
+  <si>
+    <t>Donderdag feedback SA om 11:00</t>
+  </si>
+  <si>
+    <t>Hardware inelkaar zetten</t>
+  </si>
+  <si>
+    <t>Html pagina maken</t>
+  </si>
+  <si>
+    <t>Woensdag Maken Activity Diagram Manage user profile</t>
+  </si>
+  <si>
+    <t>Dag 1 Onderzoek gebruikers interface</t>
+  </si>
+  <si>
+    <t>Dag 1 Maken gebruikers interface</t>
+  </si>
+  <si>
+    <t>Dag 5 Technisch verslag afronden</t>
+  </si>
+  <si>
+    <t>Dag 3 Technisch verslag beginnen</t>
+  </si>
+  <si>
+    <t>Dag 4 Technisch verslag bijwerken</t>
+  </si>
+  <si>
+    <t>Dag 2 Code afronden</t>
+  </si>
+  <si>
+    <t>Dag 2 Doxygen testen</t>
+  </si>
+  <si>
+    <t>Dag 3 Onderzoek was programma instellen</t>
+  </si>
+  <si>
+    <t>Dag 3 Maken was programma instellen en verbinding maken</t>
+  </si>
+  <si>
+    <t>Dag 4 Onderzoek Wasprogramma wijzigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dag 4 Maken wasprogramma wijzigen </t>
+  </si>
+  <si>
+    <t>Dag 2 Verbinding maken hardware en interface</t>
+  </si>
+  <si>
+    <t>Dag 5 Maken wasprogramma uitvoeren</t>
+  </si>
+  <si>
+    <t>Dag 2 Verbindings protecol opstellen</t>
+  </si>
+  <si>
+    <t>Dag 5 Code optimaliseren/ bug fixen / uitlopen / extra tijd</t>
+  </si>
+  <si>
+    <t>Dag 1 Code optimaliseren/ bug fixen / uitlopen / extra tijd</t>
+  </si>
+  <si>
+    <t>Vrijdag Plan van aanpak afronden</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Maandag vergadering bijeenkomst, </t>
+      <t xml:space="preserve">Maandag werkbijeenkomst, </t>
     </r>
     <r>
       <rPr>
@@ -278,88 +356,13 @@
     </r>
   </si>
   <si>
-    <t>Maandag Maken Klassendiagram</t>
-  </si>
-  <si>
-    <t>Maandag Maken Concurrency model</t>
-  </si>
-  <si>
-    <t>Donderdag vergadering om 11:00</t>
-  </si>
-  <si>
-    <t>Donderdag Maken Klassendiagram</t>
-  </si>
-  <si>
-    <t>Donderdag Maken Concurrency model</t>
-  </si>
-  <si>
-    <t>Maandag Maken STD</t>
-  </si>
-  <si>
-    <t>Donderdag maken STD</t>
-  </si>
-  <si>
-    <t>Donderdag feedback SA om 11:00</t>
-  </si>
-  <si>
-    <t>Hardware inelkaar zetten</t>
-  </si>
-  <si>
-    <t>Html pagina maken</t>
-  </si>
-  <si>
-    <t>Woensdag Maken Activity Diagram Manage user profile</t>
-  </si>
-  <si>
-    <t>Dag 1 Onderzoek gebruikers interface</t>
-  </si>
-  <si>
-    <t>Dag 1 Maken gebruikers interface</t>
-  </si>
-  <si>
-    <t>Dag 5 Technisch verslag afronden</t>
-  </si>
-  <si>
-    <t>Dag 3 Technisch verslag beginnen</t>
-  </si>
-  <si>
-    <t>Dag 4 Technisch verslag bijwerken</t>
-  </si>
-  <si>
-    <t>Dag 2 Code afronden</t>
-  </si>
-  <si>
-    <t>Dag 2 Doxygen testen</t>
-  </si>
-  <si>
-    <t>Dag 3 Onderzoek was programma instellen</t>
-  </si>
-  <si>
-    <t>Dag 3 Maken was programma instellen en verbinding maken</t>
-  </si>
-  <si>
-    <t>Dag 4 Onderzoek Wasprogramma wijzigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dag 4 Maken wasprogramma wijzigen </t>
-  </si>
-  <si>
-    <t>Dag 2 Verbinding maken hardware en interface</t>
-  </si>
-  <si>
-    <t>Dag 5 Maken wasprogramma uitvoeren</t>
-  </si>
-  <si>
-    <t>Dag 2 Verbindings protecol opstellen</t>
-  </si>
-  <si>
-    <t>Dag 5 Code optimaliseren/ bug fixen / uitlopen / extra tijd</t>
-  </si>
-  <si>
-    <t>Dag 1 Code optimaliseren/ bug fixen / uitlopen / extra tijd</t>
-  </si>
-  <si>
-    <t>Vrijdag Plan van aanpak afronden</t>
+    <t>Maandag meeting met Leonie</t>
+  </si>
+  <si>
+    <t>Donderdag Feedback Hoorcollege</t>
+  </si>
+  <si>
+    <t>Donderdag Maken RA bijwerken</t>
   </si>
 </sst>
 </file>
@@ -667,6 +670,21 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -680,21 +698,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1003,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1044,24 +1047,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="58" t="s">
+      <c r="H3" s="64"/>
+      <c r="I3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C28" s="21">
         <v>0</v>
@@ -2176,25 +2179,25 @@
         <v>4</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C32" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" s="16">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H32" s="16">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -2204,9 +2207,9 @@
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="30">
+      <c r="M32" s="30" t="e">
         <f>C32+E32+G32+I32+K32</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N32" s="2"/>
     </row>
@@ -2217,28 +2220,28 @@
       <c r="B33" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="62" t="s">
+      <c r="H33" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="61" t="s">
+      <c r="I33" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="61" t="s">
+      <c r="J33" s="56" t="s">
         <v>17</v>
       </c>
       <c r="K33" s="8"/>
@@ -2259,28 +2262,28 @@
       <c r="B34" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="62" t="s">
+      <c r="G34" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="62" t="s">
+      <c r="H34" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="61" t="s">
+      <c r="I34" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="61" t="s">
+      <c r="J34" s="56" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="8"/>
@@ -2315,33 +2318,41 @@
         <v>5</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C36" s="21">
         <v>2</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="21">
+        <v>2.5</v>
+      </c>
       <c r="E36" s="2">
         <v>2</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2">
+        <v>2.5</v>
+      </c>
       <c r="G36" s="16">
         <v>2</v>
       </c>
-      <c r="H36" s="16"/>
+      <c r="H36" s="16">
+        <v>2.5</v>
+      </c>
       <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2.5</v>
+      </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="30">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2349,29 +2360,37 @@
         <v>5</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C37" s="21">
-        <v>0</v>
-      </c>
-      <c r="D37" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="21">
+        <v>1</v>
+      </c>
       <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
       <c r="G37" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="H37" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="16">
+        <v>1</v>
+      </c>
       <c r="I37" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="J37" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="30">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" s="2"/>
     </row>
@@ -2380,24 +2399,32 @@
         <v>5</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="21">
         <v>1.5</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="21">
+        <v>0</v>
+      </c>
       <c r="E38" s="2">
         <v>1.5</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
       <c r="G38" s="16">
         <v>0</v>
       </c>
-      <c r="H38" s="16"/>
+      <c r="H38" s="16">
+        <v>0</v>
+      </c>
       <c r="I38" s="2">
         <v>0</v>
       </c>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="30">
@@ -2411,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" s="21">
         <v>0.5</v>
@@ -2445,33 +2472,41 @@
         <v>5</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C40" s="21">
-        <v>0</v>
-      </c>
-      <c r="D40" s="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="D40" s="21">
+        <v>1.5</v>
+      </c>
       <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1.5</v>
+      </c>
       <c r="G40" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="H40" s="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="H40" s="16">
+        <v>1.5</v>
+      </c>
       <c r="I40" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="J40" s="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="30">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2479,33 +2514,41 @@
         <v>5</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C41" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="D41" s="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0.5</v>
+      </c>
       <c r="E41" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.5</v>
+      </c>
       <c r="G41" s="16">
-        <v>0</v>
-      </c>
-      <c r="H41" s="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.5</v>
+      </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="30">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2535,7 +2578,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C43" s="49">
         <v>3.5</v>
@@ -2583,7 +2626,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C45" s="49">
         <v>2</v>
@@ -2611,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C46" s="22">
         <v>1</v>
@@ -2673,10 +2716,10 @@
       <c r="B48" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="58" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="38" t="s">
@@ -2685,10 +2728,10 @@
       <c r="F48" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="64" t="s">
+      <c r="G48" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="64" t="s">
+      <c r="H48" s="59" t="s">
         <v>17</v>
       </c>
       <c r="I48" s="38" t="s">
@@ -2713,7 +2756,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C49" s="39">
         <v>3</v>
@@ -2741,7 +2784,7 @@
         <v>22</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C50" s="39">
         <v>0</v>
@@ -2857,7 +2900,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56" s="22">
         <v>1</v>
@@ -2891,7 +2934,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" s="22">
         <v>7</v>
@@ -2925,7 +2968,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C58" s="49">
         <v>2</v>
@@ -2953,7 +2996,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59" s="49">
         <v>6</v>
@@ -2981,7 +3024,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" s="22">
         <v>0</v>
@@ -3015,7 +3058,7 @@
         <v>12</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" s="49">
         <v>8</v>
@@ -3043,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C62" s="22">
         <v>0</v>
@@ -3077,7 +3120,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C63" s="49">
         <v>8</v>
@@ -3108,7 +3151,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C64" s="22">
         <v>8</v>
@@ -3142,7 +3185,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C65" s="54">
         <v>0</v>
@@ -3192,7 +3235,7 @@
         <v>13</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C67" s="22">
         <v>8</v>
@@ -3226,7 +3269,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C68" s="22">
         <v>8</v>
@@ -3260,7 +3303,7 @@
         <v>13</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C69" s="49">
         <v>0</v>
@@ -3291,7 +3334,7 @@
         <v>13</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C70" s="22">
         <v>8</v>
@@ -3325,7 +3368,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C71" s="22">
         <v>8</v>
@@ -3359,7 +3402,7 @@
         <v>13</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C72" s="22">
         <v>8</v>
@@ -3395,10 +3438,10 @@
       <c r="B73" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="63" t="s">
+      <c r="C73" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="63" t="s">
+      <c r="D73" s="58" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="38" t="s">
@@ -3407,10 +3450,10 @@
       <c r="F73" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G73" s="64" t="s">
+      <c r="G73" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H73" s="64" t="s">
+      <c r="H73" s="59" t="s">
         <v>17</v>
       </c>
       <c r="I73" s="38" t="s">
@@ -3454,45 +3497,45 @@
       <c r="B75" s="10"/>
       <c r="C75" s="34">
         <f t="shared" ref="C75:J75" si="12">SUM(C5:C74)</f>
-        <v>125.5</v>
+        <v>127</v>
       </c>
       <c r="D75" s="34">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>36.5</v>
       </c>
       <c r="E75" s="34">
         <f t="shared" si="12"/>
-        <v>126.5</v>
+        <v>128</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="12"/>
-        <v>27.5</v>
+        <v>34</v>
       </c>
       <c r="G75" s="34">
         <f t="shared" si="12"/>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H75" s="34">
         <f t="shared" si="12"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I75" s="34">
         <f t="shared" si="12"/>
-        <v>117.5</v>
+        <v>118.5</v>
       </c>
       <c r="J75" s="34">
         <f t="shared" si="12"/>
-        <v>22.5</v>
+        <v>26.5</v>
       </c>
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
       <c r="M75" s="32">
         <f>C75+E75+G75+I75+K75</f>
-        <v>488.5</v>
+        <v>489.5</v>
       </c>
       <c r="N75" s="34">
         <f>D75+F75+H75+J75+L75</f>
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -3533,6 +3576,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -3693,30 +3759,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3732,36 +3807,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -267,18 +267,6 @@
     <t>Maandag Maken Concurrency model</t>
   </si>
   <si>
-    <t>Donderdag vergadering om 11:00</t>
-  </si>
-  <si>
-    <t>Maandag Maken STD</t>
-  </si>
-  <si>
-    <t>Donderdag maken STD</t>
-  </si>
-  <si>
-    <t>Donderdag feedback SA om 11:00</t>
-  </si>
-  <si>
     <t>Hardware inelkaar zetten</t>
   </si>
   <si>
@@ -363,6 +351,33 @@
   </si>
   <si>
     <t>Donderdag Maken RA bijwerken</t>
+  </si>
+  <si>
+    <t>Donderdag vergadering om 15:00</t>
+  </si>
+  <si>
+    <t>Maandag Maken Klassendiagram</t>
+  </si>
+  <si>
+    <t>STD maken</t>
+  </si>
+  <si>
+    <t>Donderdag vergadering 15:00</t>
+  </si>
+  <si>
+    <t>Donderdag maken STD's</t>
+  </si>
+  <si>
+    <t>Vrijdag PvA</t>
+  </si>
+  <si>
+    <t>Vrijdag Bespreking</t>
+  </si>
+  <si>
+    <t>Voortgangs bespreking en taken uitvoeren</t>
+  </si>
+  <si>
+    <t>Dinsdag Maken klassendiagram</t>
   </si>
 </sst>
 </file>
@@ -536,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,6 +698,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1047,24 +1080,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="63" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -1147,11 +1180,11 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="30">
-        <f t="shared" ref="M5:M11" si="0">C5+E5+G5+I5+K5</f>
+        <f t="shared" ref="M5:M12" si="0">C5+E5+G5+I5+K5</f>
         <v>8</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" ref="N5:N11" si="1">D5+F5+H5+J5+L5</f>
+        <f t="shared" ref="N5:N12" si="1">D5+F5+H5+J5+L5</f>
         <v>8</v>
       </c>
     </row>
@@ -1239,96 +1272,90 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="64">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="30">
-        <f>C8+E8+G8+I8+K8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <f>D8+F8+H8+J8+L8</f>
-        <v>0</v>
-      </c>
+      <c r="M8" s="30"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="20">
-        <v>2</v>
-      </c>
-      <c r="D9" s="20">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2</v>
-      </c>
-      <c r="G9" s="15">
-        <v>2</v>
-      </c>
-      <c r="H9" s="15">
-        <v>2</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="30">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>C9+E9+G9+I9+K9</f>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <f>D9+F9+H9+J9+L9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>29</v>
+      <c r="B10" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="20">
         <v>2</v>
       </c>
       <c r="D10" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
       </c>
       <c r="F10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="15">
         <v>2</v>
       </c>
       <c r="H10" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1344,120 +1371,120 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40">
-        <v>2</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G11" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="20">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E12" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="6">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G12" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H12" s="15">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I12" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J12" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="30">
-        <f t="shared" ref="M12:N20" si="2">C12+E12+G12+I12+K12</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42">
-        <v>2</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>31</v>
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>
@@ -1465,20 +1492,20 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="30">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" ref="M13:N22" si="2">C13+E13+G13+I13+K13</f>
+        <v>2</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>2</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>32</v>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="42">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="20">
         <v>1</v>
@@ -1502,167 +1529,167 @@
         <v>1</v>
       </c>
       <c r="J14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="30">
-        <f t="shared" ref="M14" si="3">C14+E14+G14+I14+K14</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" ref="N14" si="4">D14+F14+H14+J14+L14</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="2"/>
+      <c r="M15" s="30">
+        <f t="shared" ref="M15:M16" si="3">C15+E15+G15+I15+K15</f>
+        <v>4</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" ref="N15:N16" si="4">D15+F15+H15+J15+L15</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="64">
+        <v>2</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="21">
-        <v>2</v>
-      </c>
-      <c r="D16" s="21">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>2</v>
-      </c>
-      <c r="H16" s="16">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>2</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="30">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47">
-        <v>3</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="21">
-        <v>1</v>
-      </c>
-      <c r="D17" s="21">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="30">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47">
-        <v>3</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="C18" s="21">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D18" s="21">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="16">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H18" s="16">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J18" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="30">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
+      <c r="A19" s="47">
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="21">
         <v>1</v>
@@ -1691,7 +1718,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="30">
-        <f t="shared" ref="M19" si="5">C19+E19+G19+I19+K19</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N19" s="2">
@@ -1700,66 +1727,95 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46">
+      <c r="A20" s="47">
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="21">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D20" s="21">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="16">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="16">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I20" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J20" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="30"/>
+      <c r="M20" s="30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="N20" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="A21" s="25">
+        <v>3</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="2"/>
+      <c r="M21" s="30">
+        <f t="shared" ref="M21" si="5">C21+E21+G21+I21+K21</f>
+        <v>4</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
-        <v>4</v>
+      <c r="A22" s="46">
+        <v>3</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C22" s="21">
         <v>2</v>
@@ -1768,94 +1824,65 @@
         <v>2</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="30">
-        <f>C22+E22+G22+I22+K22</f>
-        <v>2</v>
-      </c>
+      <c r="M22" s="30"/>
       <c r="N22" s="2">
-        <f t="shared" ref="N22:N26" si="6">D22+F22+H22+J22+L22</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48">
-        <v>4</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
+      <c r="A23" s="47"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="30">
-        <f>C23+E23+G23+I23+K23</f>
-        <v>1</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+      <c r="M23" s="30"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48">
+      <c r="A24" s="25">
         <v>4</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="16">
         <v>0</v>
@@ -1873,11 +1900,11 @@
       <c r="L24" s="8"/>
       <c r="M24" s="30">
         <f>C24+E24+G24+I24+K24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="N24:N28" si="6">D24+F24+H24+J24+L24</f>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1885,7 +1912,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" s="21">
         <v>0</v>
@@ -1894,16 +1921,16 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -1915,11 +1942,11 @@
       <c r="L25" s="8"/>
       <c r="M25" s="30">
         <f>C25+E25+G25+I25+K25</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1927,7 +1954,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="21">
         <v>0</v>
@@ -1936,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="16">
         <v>0</v>
@@ -1948,70 +1975,70 @@
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="30">
         <f>C26+E26+G26+I26+K26</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+      <c r="A27" s="48">
         <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C27" s="21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D27" s="21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G27" s="16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H27" s="16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="30">
-        <f t="shared" ref="M27:N73" si="7">C27+E27+G27+I27+K27</f>
-        <v>6</v>
+        <f>C27+E27+G27+I27+K27</f>
+        <v>2</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50">
+      <c r="A28" s="48">
         <v>4</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C28" s="21">
         <v>0</v>
@@ -2020,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2032,146 +2059,146 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="30">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>C28+E28+G28+I28+K28</f>
+        <v>2</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="25">
         <v>4</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C29" s="21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D29" s="21">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F29" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G29" s="16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H29" s="16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I29" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J29" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="30">
-        <f t="shared" ref="M29:M34" si="8">C29+E29+G29+I29+K29</f>
-        <v>8</v>
+        <f t="shared" ref="M29:N78" si="7">C29+E29+G29+I29+K29</f>
+        <v>6</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" ref="N29:N34" si="9">D29+F29+H29+J29+L29</f>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52">
+      <c r="A30" s="50">
         <v>4</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C30" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D30" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H30" s="16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="30">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
+      <c r="A31" s="1">
         <v>4</v>
       </c>
-      <c r="B31" s="44" t="s">
-        <v>33</v>
+      <c r="B31" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C31" s="21">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D31" s="21">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E31" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F31" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G31" s="16">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H31" s="16">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I31" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J31" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="30">
-        <f>C31+E31+G31+I31+K31</f>
-        <v>2</v>
+        <f t="shared" ref="M31:M36" si="8">C31+E31+G31+I31+K31</f>
+        <v>8</v>
       </c>
       <c r="N31" s="2">
-        <f>D31+F31+H31+J31+L31</f>
-        <v>2</v>
+        <f t="shared" ref="N31:N36" si="9">D31+F31+H31+J31+L31</f>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2179,321 +2206,332 @@
         <v>4</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C32" s="21">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D32" s="21">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="2">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F32" s="2">
-        <v>3</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0.5</v>
       </c>
       <c r="H32" s="16">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J32" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="30" t="e">
-        <f>C32+E32+G32+I32+K32</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N32" s="2"/>
+      <c r="M32" s="30">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
         <v>4</v>
       </c>
-      <c r="B33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="56" t="s">
-        <v>17</v>
+      <c r="B33" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.5</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="30" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N33" s="2" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+      <c r="M33" s="30">
+        <f>C33+E33+G33+I33+K33</f>
+        <v>2</v>
+      </c>
+      <c r="N33" s="2">
+        <f>D33+F33+H33+J33+L33</f>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47">
+      <c r="A34" s="52">
         <v>4</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="56" t="s">
-        <v>17</v>
+      <c r="B34" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="21">
+        <v>3</v>
+      </c>
+      <c r="D34" s="21">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="30" t="e">
+        <f>C34+E34+G34+I34+K34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25">
+        <v>4</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="30" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N34" s="2" t="e">
+      <c r="N35" s="2" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="2"/>
-    </row>
     <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>5</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="21">
-        <v>2</v>
-      </c>
-      <c r="D36" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G36" s="16">
-        <v>2</v>
-      </c>
-      <c r="H36" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="I36" s="2">
-        <v>2</v>
-      </c>
-      <c r="J36" s="2">
-        <v>2.5</v>
+      <c r="A36" s="47">
+        <v>4</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="56" t="s">
+        <v>17</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="30">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="N36" s="2">
-        <f t="shared" si="7"/>
-        <v>10</v>
+      <c r="M36" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N36" s="2" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50">
-        <v>5</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="21">
-        <v>1</v>
-      </c>
-      <c r="D37" s="21">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="16">
-        <v>1</v>
-      </c>
-      <c r="H37" s="16">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1</v>
-      </c>
+      <c r="A37" s="50"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="30">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
+      <c r="M37" s="30"/>
       <c r="N37" s="2"/>
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50">
+      <c r="A38" s="1">
         <v>5</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C38" s="21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D38" s="21">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E38" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G38" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="16">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="30">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
+      <c r="A39" s="50">
         <v>5</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>47</v>
+      <c r="B39" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C39" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="21">
+        <v>1</v>
+      </c>
       <c r="E39" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
       <c r="G39" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="H39" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="16">
+        <v>1</v>
+      </c>
       <c r="I39" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J39" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="30">
-        <f t="shared" ref="M39:N40" si="10">C39+E39+G39+I39+K39</f>
-        <v>2</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
+      <c r="A40" s="50">
         <v>5</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C40" s="21">
         <v>1.5</v>
       </c>
       <c r="D40" s="21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2">
         <v>1.5</v>
       </c>
       <c r="F40" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G40" s="16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H40" s="16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -2501,20 +2539,17 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="30">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="25">
         <v>5</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>75</v>
+      <c r="B41" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="C41" s="21">
         <v>0.5</v>
@@ -2543,336 +2578,422 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="M41:N42" si="10">C41+E41+G41+I41+K41</f>
         <v>2</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="A42" s="25">
+        <v>5</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D42" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G42" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="H42" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50">
-        <v>6</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="49">
-        <v>3.5</v>
-      </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="50">
-        <v>3.5</v>
-      </c>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51">
-        <v>0</v>
-      </c>
-      <c r="H43" s="51"/>
-      <c r="I43" s="50">
-        <v>3.5</v>
-      </c>
-      <c r="J43" s="50"/>
+      <c r="A43" s="1">
+        <v>5</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.5</v>
+      </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="2"/>
+      <c r="M43" s="30">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="50">
-        <v>6</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="51">
-        <v>0</v>
-      </c>
-      <c r="H44" s="51"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="30"/>
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="50">
-        <v>6</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="49">
-        <v>2</v>
-      </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="50">
-        <v>2</v>
-      </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51">
-        <v>0</v>
-      </c>
-      <c r="H45" s="51"/>
-      <c r="I45" s="50">
-        <v>2</v>
-      </c>
-      <c r="J45" s="50"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="2"/>
+      <c r="M45" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="50">
         <v>6</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="22">
-        <v>1</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="17">
-        <v>0</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="1">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="C46" s="49">
+        <v>0</v>
+      </c>
+      <c r="D46" s="49">
+        <v>2</v>
+      </c>
+      <c r="E46" s="50">
+        <v>0</v>
+      </c>
+      <c r="F46" s="50">
+        <v>2</v>
+      </c>
+      <c r="G46" s="51">
+        <v>3.5</v>
+      </c>
+      <c r="H46" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="I46" s="50">
+        <v>3.5</v>
+      </c>
+      <c r="J46" s="50">
+        <v>3.5</v>
+      </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="30">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="N46" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M46" s="30"/>
+      <c r="N46" s="2"/>
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="50">
         <v>6</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="17">
-        <v>0</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="B47" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="49">
+        <v>3.5</v>
+      </c>
+      <c r="D47" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="E47" s="50">
+        <v>3.5</v>
+      </c>
+      <c r="F47" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="51">
+        <v>0</v>
+      </c>
+      <c r="H47" s="51">
+        <v>0</v>
+      </c>
+      <c r="I47" s="50">
+        <v>0</v>
+      </c>
+      <c r="J47" s="50">
+        <v>0</v>
+      </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M47" s="30"/>
+      <c r="N47" s="2"/>
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="64">
         <v>6</v>
       </c>
-      <c r="B48" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="B48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="63">
+        <v>0</v>
+      </c>
+      <c r="D48" s="63">
+        <v>0</v>
+      </c>
+      <c r="E48" s="64">
+        <v>0</v>
+      </c>
+      <c r="F48" s="64">
+        <v>0</v>
+      </c>
+      <c r="G48" s="65">
+        <v>0</v>
+      </c>
+      <c r="H48" s="65">
+        <v>0</v>
+      </c>
+      <c r="I48" s="64">
+        <v>1.5</v>
+      </c>
+      <c r="J48" s="64"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="30" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N48" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="M48" s="30"/>
+      <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="40" t="s">
-        <v>22</v>
+      <c r="A49" s="50">
+        <v>6</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="39">
-        <v>3</v>
-      </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="40">
-        <v>3</v>
-      </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="41">
-        <v>0</v>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="40">
-        <v>0</v>
-      </c>
-      <c r="J49" s="40"/>
+        <v>75</v>
+      </c>
+      <c r="C49" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51">
+        <v>0</v>
+      </c>
+      <c r="H49" s="51"/>
+      <c r="I49" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="J49" s="50"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="30"/>
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
-        <v>22</v>
+      <c r="A50" s="1">
+        <v>6</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="39">
-        <v>0</v>
-      </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40">
-        <v>0</v>
-      </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="41">
-        <v>3</v>
-      </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="40">
-        <v>3</v>
-      </c>
-      <c r="J50" s="40"/>
+        <v>76</v>
+      </c>
+      <c r="C50" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="17">
+        <v>0</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J50" s="1"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="2"/>
+      <c r="M50" s="30">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
+      <c r="A51" s="61">
+        <v>6</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="60">
+        <v>2</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="61">
+        <v>2</v>
+      </c>
+      <c r="F51" s="61"/>
+      <c r="G51" s="62">
+        <v>0</v>
+      </c>
+      <c r="H51" s="62"/>
+      <c r="I51" s="61">
+        <v>2</v>
+      </c>
+      <c r="J51" s="61"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="30"/>
       <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="40" t="s">
-        <v>23</v>
+      <c r="A52" s="1">
+        <v>6</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="2"/>
+      <c r="M52" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
+      <c r="A53" s="1">
+        <v>6</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="38" t="s">
+        <v>17</v>
+      </c>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="2"/>
+      <c r="M53" s="30" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N53" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="54" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="39"/>
+        <v>22</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="39">
+        <v>0</v>
+      </c>
       <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
+      <c r="E54" s="40">
+        <v>0</v>
+      </c>
       <c r="F54" s="40"/>
-      <c r="G54" s="41"/>
+      <c r="G54" s="41">
+        <v>0</v>
+      </c>
       <c r="H54" s="41"/>
-      <c r="I54" s="40"/>
+      <c r="I54" s="40">
+        <v>3</v>
+      </c>
       <c r="J54" s="40"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -2880,319 +3001,268 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
+      <c r="A55" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="39">
+        <v>3</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="40">
+        <v>3</v>
+      </c>
+      <c r="F55" s="40"/>
+      <c r="G55" s="41">
+        <v>3</v>
+      </c>
+      <c r="H55" s="41"/>
+      <c r="I55" s="40">
+        <v>3</v>
+      </c>
+      <c r="J55" s="40"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="30"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>12</v>
+      <c r="A56" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="22">
-        <v>1</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="17">
-        <v>0</v>
-      </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="C56" s="39">
+        <v>4</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40">
+        <v>4</v>
+      </c>
+      <c r="F56" s="40"/>
+      <c r="G56" s="41">
+        <v>4</v>
+      </c>
+      <c r="H56" s="41"/>
+      <c r="I56" s="40">
+        <v>4</v>
+      </c>
+      <c r="J56" s="40"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
-      <c r="M56" s="30">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N56" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M56" s="30"/>
+      <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="22">
-        <v>7</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="1">
-        <v>8</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="17">
-        <v>8</v>
-      </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="1">
-        <v>8</v>
-      </c>
-      <c r="J57" s="1"/>
+      <c r="A57" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
-      <c r="M57" s="30">
-        <f t="shared" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="N57" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M57" s="30"/>
+      <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="49">
-        <v>2</v>
-      </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="50">
-        <v>2</v>
-      </c>
-      <c r="F58" s="50"/>
-      <c r="G58" s="51">
-        <v>2</v>
-      </c>
-      <c r="H58" s="51"/>
-      <c r="I58" s="50">
-        <v>2</v>
-      </c>
-      <c r="J58" s="50"/>
+      <c r="A58" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="30"/>
       <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="49">
-        <v>6</v>
-      </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="50">
-        <v>6</v>
-      </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="51">
-        <v>6</v>
-      </c>
-      <c r="H59" s="51"/>
-      <c r="I59" s="50">
-        <v>6</v>
-      </c>
-      <c r="J59" s="50"/>
+      <c r="A59" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="30"/>
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="22">
-        <v>0</v>
-      </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="17">
-        <v>0</v>
-      </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
-      <c r="M60" s="30">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N60" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M60" s="30"/>
+      <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="49">
-        <v>8</v>
-      </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="50">
-        <v>7</v>
-      </c>
-      <c r="F61" s="50"/>
-      <c r="G61" s="51">
-        <v>8</v>
-      </c>
-      <c r="H61" s="51"/>
-      <c r="I61" s="50">
-        <v>8</v>
-      </c>
-      <c r="J61" s="50"/>
+        <v>50</v>
+      </c>
+      <c r="C61" s="22">
+        <v>1</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="17">
+        <v>0</v>
+      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="2"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M61" s="30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C62" s="22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="30">
-        <f t="shared" ref="M62:M74" si="11">C62+E62+G62+I62+K62</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" s="49">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D63" s="49"/>
       <c r="E63" s="50">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F63" s="50"/>
       <c r="G63" s="51">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H63" s="51"/>
       <c r="I63" s="50">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J63" s="50"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
-      <c r="M63" s="30">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
+      <c r="M63" s="30"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
+    <row r="64" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="22">
-        <v>8</v>
-      </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="1">
-        <v>8</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="17">
-        <v>8</v>
-      </c>
-      <c r="H64" s="17"/>
-      <c r="I64" s="1">
-        <v>8</v>
-      </c>
-      <c r="J64" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C64" s="49">
+        <v>6</v>
+      </c>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50">
+        <v>6</v>
+      </c>
+      <c r="F64" s="50"/>
+      <c r="G64" s="51">
+        <v>6</v>
+      </c>
+      <c r="H64" s="51"/>
+      <c r="I64" s="50">
+        <v>6</v>
+      </c>
+      <c r="J64" s="50"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
-      <c r="M64" s="30">
-        <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="N64" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M64" s="30"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="54">
+      <c r="B65" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="22">
         <v>0</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="17">
@@ -3206,24 +3276,36 @@
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="50"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="49"/>
+    <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="49">
+        <v>8</v>
+      </c>
       <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
+      <c r="E66" s="50">
+        <v>7</v>
+      </c>
       <c r="F66" s="50"/>
-      <c r="G66" s="51"/>
+      <c r="G66" s="51">
+        <v>8</v>
+      </c>
       <c r="H66" s="51"/>
-      <c r="I66" s="50"/>
+      <c r="I66" s="50">
+        <v>8</v>
+      </c>
       <c r="J66" s="50"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
@@ -3231,33 +3313,33 @@
       <c r="N66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>69</v>
+      <c r="A67" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="C67" s="22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="30">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" ref="M67:M79" si="11">C67+E67+G67+I67+K67</f>
+        <v>1</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="7"/>
@@ -3265,98 +3347,98 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="28" t="s">
-        <v>13</v>
+      <c r="A68" s="50" t="s">
+        <v>12</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="22">
+        <v>60</v>
+      </c>
+      <c r="C68" s="49">
         <v>8</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="1">
+      <c r="D68" s="49"/>
+      <c r="E68" s="50">
         <v>8</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="17">
+      <c r="F68" s="50"/>
+      <c r="G68" s="51">
+        <v>7</v>
+      </c>
+      <c r="H68" s="51"/>
+      <c r="I68" s="50">
         <v>8</v>
       </c>
-      <c r="H68" s="17"/>
-      <c r="I68" s="1">
-        <v>7</v>
-      </c>
-      <c r="J68" s="1"/>
+      <c r="J68" s="50"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="30">
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="N68" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="50" t="s">
-        <v>13</v>
+      <c r="A69" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="49">
-        <v>0</v>
-      </c>
-      <c r="D69" s="49"/>
-      <c r="E69" s="50">
-        <v>0</v>
-      </c>
-      <c r="F69" s="50"/>
-      <c r="G69" s="51">
-        <v>0</v>
-      </c>
-      <c r="H69" s="51"/>
-      <c r="I69" s="50">
-        <v>1</v>
-      </c>
-      <c r="J69" s="50"/>
+        <v>62</v>
+      </c>
+      <c r="C69" s="22">
+        <v>8</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="1">
+        <v>8</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="17">
+        <v>8</v>
+      </c>
+      <c r="H69" s="17"/>
+      <c r="I69" s="1">
+        <v>8</v>
+      </c>
+      <c r="J69" s="1"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="30">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="N69" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="22">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="C70" s="54">
+        <v>0</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H70" s="17"/>
       <c r="I70" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="7"/>
@@ -3364,45 +3446,27 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="22">
-        <v>8</v>
-      </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="1">
-        <v>8</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="17">
-        <v>8</v>
-      </c>
-      <c r="H71" s="17"/>
-      <c r="I71" s="1">
-        <v>8</v>
-      </c>
-      <c r="J71" s="1"/>
+      <c r="A71" s="50"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
-      <c r="M71" s="30">
-        <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="N71" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M71" s="30"/>
+      <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>56</v>
+      <c r="B72" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="C72" s="22">
         <v>8</v>
@@ -3435,114 +3499,281 @@
       <c r="A73" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I73" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="B73" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="22">
+        <v>8</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="1">
+        <v>8</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="17">
+        <v>8</v>
+      </c>
+      <c r="H73" s="17"/>
+      <c r="I73" s="1">
+        <v>7</v>
+      </c>
+      <c r="J73" s="1"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
-      <c r="M73" s="30" t="e">
+      <c r="M73" s="30">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="49">
+        <v>0</v>
+      </c>
+      <c r="D74" s="49"/>
+      <c r="E74" s="50">
+        <v>0</v>
+      </c>
+      <c r="F74" s="50"/>
+      <c r="G74" s="51">
+        <v>0</v>
+      </c>
+      <c r="H74" s="51"/>
+      <c r="I74" s="50">
+        <v>1</v>
+      </c>
+      <c r="J74" s="50"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="30">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="22">
+        <v>8</v>
+      </c>
+      <c r="D75" s="22"/>
+      <c r="E75" s="1">
+        <v>8</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="17">
+        <v>8</v>
+      </c>
+      <c r="H75" s="17"/>
+      <c r="I75" s="1">
+        <v>8</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="22">
+        <v>8</v>
+      </c>
+      <c r="D76" s="22"/>
+      <c r="E76" s="1">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="17">
+        <v>8</v>
+      </c>
+      <c r="H76" s="17"/>
+      <c r="I76" s="1">
+        <v>8</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="22">
+        <v>8</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="1">
+        <v>8</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="17">
+        <v>8</v>
+      </c>
+      <c r="H77" s="17"/>
+      <c r="I77" s="1">
+        <v>8</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="30" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N73" s="2" t="e">
+      <c r="N78" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="31">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="10"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N74" s="11"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="34">
-        <f t="shared" ref="C75:J75" si="12">SUM(C5:C74)</f>
-        <v>127</v>
-      </c>
-      <c r="D75" s="34">
+      <c r="N79" s="11"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="32"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="34">
+        <f t="shared" ref="C80:J80" si="12">SUM(C5:C79)</f>
+        <v>131</v>
+      </c>
+      <c r="D80" s="34">
         <f t="shared" si="12"/>
-        <v>36.5</v>
-      </c>
-      <c r="E75" s="34">
+        <v>40.5</v>
+      </c>
+      <c r="E80" s="34">
         <f t="shared" si="12"/>
-        <v>128</v>
-      </c>
-      <c r="F75" s="34">
+        <v>132</v>
+      </c>
+      <c r="F80" s="34">
         <f t="shared" si="12"/>
-        <v>34</v>
-      </c>
-      <c r="G75" s="34">
+        <v>38</v>
+      </c>
+      <c r="G80" s="34">
         <f t="shared" si="12"/>
-        <v>116</v>
-      </c>
-      <c r="H75" s="34">
+        <v>123.5</v>
+      </c>
+      <c r="H80" s="34">
         <f t="shared" si="12"/>
-        <v>36</v>
-      </c>
-      <c r="I75" s="34">
+        <v>38</v>
+      </c>
+      <c r="I80" s="34">
         <f t="shared" si="12"/>
-        <v>118.5</v>
-      </c>
-      <c r="J75" s="34">
+        <v>130</v>
+      </c>
+      <c r="J80" s="34">
         <f t="shared" si="12"/>
-        <v>26.5</v>
-      </c>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="32">
-        <f>C75+E75+G75+I75+K75</f>
-        <v>489.5</v>
-      </c>
-      <c r="N75" s="34">
-        <f>D75+F75+H75+J75+L75</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B76" s="33" t="s">
+        <v>33.5</v>
+      </c>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="32">
+        <f>C80+E80+G80+I80+K80</f>
+        <v>516.5</v>
+      </c>
+      <c r="N80" s="34">
+        <f>D80+F80+H80+J80+L80</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K76" s="43"/>
+      <c r="K81" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -365,9 +365,6 @@
     <t>Donderdag vergadering 15:00</t>
   </si>
   <si>
-    <t>Donderdag maken STD's</t>
-  </si>
-  <si>
     <t>Vrijdag PvA</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
   </si>
   <si>
     <t>Dinsdag Maken klassendiagram</t>
+  </si>
+  <si>
+    <t>Donderdag bijwerken RA en SA</t>
   </si>
 </sst>
 </file>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="20">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>0.5</v>
       </c>
       <c r="H43" s="16">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="I43" s="2">
         <v>0.5</v>
       </c>
       <c r="J43" s="2">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
@@ -2667,25 +2667,46 @@
       </c>
       <c r="N43" s="2">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="64"/>
+      <c r="A44" s="64">
+        <v>5</v>
+      </c>
       <c r="B44" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="C44" s="21">
+        <v>0</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="30"/>
+      <c r="M44" s="30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2787,7 +2808,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="63">
         <v>0</v>
@@ -2810,7 +2831,9 @@
       <c r="I48" s="64">
         <v>1.5</v>
       </c>
-      <c r="J48" s="64"/>
+      <c r="J48" s="64">
+        <v>1.5</v>
+      </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="30"/>
@@ -2826,19 +2849,27 @@
       <c r="C49" s="49">
         <v>0.5</v>
       </c>
-      <c r="D49" s="49"/>
+      <c r="D49" s="49">
+        <v>0.5</v>
+      </c>
       <c r="E49" s="50">
         <v>0.5</v>
       </c>
-      <c r="F49" s="50"/>
+      <c r="F49" s="50">
+        <v>0.5</v>
+      </c>
       <c r="G49" s="51">
         <v>0</v>
       </c>
-      <c r="H49" s="51"/>
+      <c r="H49" s="51">
+        <v>0</v>
+      </c>
       <c r="I49" s="50">
         <v>0.5</v>
       </c>
-      <c r="J49" s="50"/>
+      <c r="J49" s="50">
+        <v>0.5</v>
+      </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="30"/>
@@ -2849,24 +2880,32 @@
         <v>6</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C50" s="22">
         <v>0.5</v>
       </c>
-      <c r="D50" s="22"/>
+      <c r="D50" s="22">
+        <v>1.5</v>
+      </c>
       <c r="E50" s="1">
         <v>0.5</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G50" s="17">
         <v>0</v>
       </c>
-      <c r="H50" s="17"/>
+      <c r="H50" s="17">
+        <v>0</v>
+      </c>
       <c r="I50" s="1">
         <v>0.5</v>
       </c>
-      <c r="J50" s="1"/>
+      <c r="J50" s="1">
+        <v>1.5</v>
+      </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="30">
@@ -2875,7 +2914,7 @@
       </c>
       <c r="N50" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2888,19 +2927,27 @@
       <c r="C51" s="60">
         <v>2</v>
       </c>
-      <c r="D51" s="60"/>
+      <c r="D51" s="60">
+        <v>1</v>
+      </c>
       <c r="E51" s="61">
         <v>2</v>
       </c>
-      <c r="F51" s="61"/>
+      <c r="F51" s="61">
+        <v>1</v>
+      </c>
       <c r="G51" s="62">
         <v>0</v>
       </c>
-      <c r="H51" s="62"/>
+      <c r="H51" s="62">
+        <v>0</v>
+      </c>
       <c r="I51" s="61">
         <v>2</v>
       </c>
-      <c r="J51" s="61"/>
+      <c r="J51" s="61">
+        <v>1</v>
+      </c>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="30"/>
@@ -3008,19 +3055,19 @@
         <v>48</v>
       </c>
       <c r="C55" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" s="39"/>
       <c r="E55" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" s="40"/>
       <c r="G55" s="41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H55" s="41"/>
       <c r="I55" s="40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J55" s="40"/>
       <c r="K55" s="8"/>
@@ -3728,45 +3775,45 @@
       <c r="B80" s="10"/>
       <c r="C80" s="34">
         <f t="shared" ref="C80:J80" si="12">SUM(C5:C79)</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D80" s="34">
         <f t="shared" si="12"/>
-        <v>40.5</v>
+        <v>43.5</v>
       </c>
       <c r="E80" s="34">
         <f t="shared" si="12"/>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F80" s="34">
         <f t="shared" si="12"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G80" s="34">
         <f t="shared" si="12"/>
-        <v>123.5</v>
+        <v>125.5</v>
       </c>
       <c r="H80" s="34">
         <f t="shared" si="12"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I80" s="34">
         <f t="shared" si="12"/>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J80" s="34">
         <f t="shared" si="12"/>
-        <v>33.5</v>
+        <v>41</v>
       </c>
       <c r="K80" s="34"/>
       <c r="L80" s="34"/>
       <c r="M80" s="32">
         <f>C80+E80+G80+I80+K80</f>
-        <v>516.5</v>
+        <v>520.5</v>
       </c>
       <c r="N80" s="34">
         <f>D80+F80+H80+J80+L80</f>
-        <v>150</v>
+        <v>165.5</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -378,6 +378,15 @@
   </si>
   <si>
     <t>Donderdag bijwerken RA en SA</t>
+  </si>
+  <si>
+    <t>Tentamen</t>
+  </si>
+  <si>
+    <t>Dinsdag verbeteren SA diagrammen</t>
+  </si>
+  <si>
+    <t>Donderdag Hardware optimaliseren</t>
   </si>
 </sst>
 </file>
@@ -551,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,6 +707,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,15 +1055,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
@@ -1080,24 +1098,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="69" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -2109,7 +2127,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="30">
-        <f t="shared" ref="M29:N78" si="7">C29+E29+G29+I29+K29</f>
+        <f t="shared" ref="M29:N80" si="7">C29+E29+G29+I29+K29</f>
         <v>6</v>
       </c>
       <c r="N29" s="2">
@@ -3029,19 +3047,27 @@
       <c r="C54" s="39">
         <v>0</v>
       </c>
-      <c r="D54" s="39"/>
+      <c r="D54" s="39">
+        <v>0</v>
+      </c>
       <c r="E54" s="40">
         <v>0</v>
       </c>
-      <c r="F54" s="40"/>
+      <c r="F54" s="40">
+        <v>0</v>
+      </c>
       <c r="G54" s="41">
         <v>0</v>
       </c>
-      <c r="H54" s="41"/>
+      <c r="H54" s="41">
+        <v>0</v>
+      </c>
       <c r="I54" s="40">
         <v>3</v>
       </c>
-      <c r="J54" s="40"/>
+      <c r="J54" s="40">
+        <v>2</v>
+      </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="30"/>
@@ -3057,19 +3083,27 @@
       <c r="C55" s="39">
         <v>5</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="39">
+        <v>0</v>
+      </c>
       <c r="E55" s="40">
         <v>5</v>
       </c>
-      <c r="F55" s="40"/>
+      <c r="F55" s="40">
+        <v>0</v>
+      </c>
       <c r="G55" s="41">
         <v>5</v>
       </c>
-      <c r="H55" s="41"/>
+      <c r="H55" s="41">
+        <v>0</v>
+      </c>
       <c r="I55" s="40">
         <v>0</v>
       </c>
-      <c r="J55" s="40"/>
+      <c r="J55" s="40">
+        <v>0</v>
+      </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="30"/>
@@ -3085,19 +3119,27 @@
       <c r="C56" s="39">
         <v>4</v>
       </c>
-      <c r="D56" s="39"/>
+      <c r="D56" s="39">
+        <v>0</v>
+      </c>
       <c r="E56" s="40">
         <v>4</v>
       </c>
-      <c r="F56" s="40"/>
+      <c r="F56" s="40">
+        <v>0</v>
+      </c>
       <c r="G56" s="41">
         <v>4</v>
       </c>
-      <c r="H56" s="41"/>
+      <c r="H56" s="41">
+        <v>0</v>
+      </c>
       <c r="I56" s="40">
         <v>4</v>
       </c>
-      <c r="J56" s="40"/>
+      <c r="J56" s="40">
+        <v>0</v>
+      </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="30"/>
@@ -3107,7 +3149,9 @@
       <c r="A57" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="12"/>
+      <c r="B57" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
       <c r="E57" s="40"/>
@@ -3125,7 +3169,9 @@
       <c r="A58" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
       <c r="E58" s="40"/>
@@ -3143,7 +3189,9 @@
       <c r="A59" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
       <c r="E59" s="40"/>
@@ -3158,200 +3206,210 @@
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="50"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
+      <c r="A60" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="66">
+        <v>2</v>
+      </c>
+      <c r="D60" s="66">
+        <v>2</v>
+      </c>
+      <c r="E60" s="67">
+        <v>0</v>
+      </c>
+      <c r="F60" s="67">
+        <v>0</v>
+      </c>
+      <c r="G60" s="68">
+        <v>0</v>
+      </c>
+      <c r="H60" s="68">
+        <v>0</v>
+      </c>
+      <c r="I60" s="67">
+        <v>1.5</v>
+      </c>
+      <c r="J60" s="67">
+        <v>1.5</v>
+      </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="30"/>
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>12</v>
+      <c r="A61" s="67" t="s">
+        <v>81</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="22">
-        <v>1</v>
-      </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="17">
-        <v>0</v>
-      </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="C61" s="66">
+        <v>0</v>
+      </c>
+      <c r="D61" s="66">
+        <v>0</v>
+      </c>
+      <c r="E61" s="67">
+        <v>0</v>
+      </c>
+      <c r="F61" s="67">
+        <v>0</v>
+      </c>
+      <c r="G61" s="68">
+        <v>0</v>
+      </c>
+      <c r="H61" s="68">
+        <v>0</v>
+      </c>
+      <c r="I61" s="67">
+        <v>1</v>
+      </c>
+      <c r="J61" s="67">
+        <v>1</v>
+      </c>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
-      <c r="M61" s="30">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N61" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M61" s="30"/>
+      <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="22">
-        <v>7</v>
-      </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="1">
-        <v>8</v>
-      </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="17">
-        <v>8</v>
-      </c>
-      <c r="H62" s="17"/>
-      <c r="I62" s="1">
-        <v>8</v>
-      </c>
-      <c r="J62" s="1"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
-      <c r="M62" s="30">
+      <c r="M62" s="30"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="22">
+        <v>1</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="17">
+        <v>0</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N63" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="22">
+        <v>7</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="1">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="17">
+        <v>8</v>
+      </c>
+      <c r="H64" s="17"/>
+      <c r="I64" s="1">
+        <v>8</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="30">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N64" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="50" t="s">
+    <row r="65" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B65" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="49">
-        <v>2</v>
-      </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="50">
-        <v>2</v>
-      </c>
-      <c r="F63" s="50"/>
-      <c r="G63" s="51">
-        <v>2</v>
-      </c>
-      <c r="H63" s="51"/>
-      <c r="I63" s="50">
-        <v>2</v>
-      </c>
-      <c r="J63" s="50"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="2"/>
-    </row>
-    <row r="64" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="49">
-        <v>6</v>
-      </c>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50">
-        <v>6</v>
-      </c>
-      <c r="F64" s="50"/>
-      <c r="G64" s="51">
-        <v>6</v>
-      </c>
-      <c r="H64" s="51"/>
-      <c r="I64" s="50">
-        <v>6</v>
-      </c>
-      <c r="J64" s="50"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="2"/>
-    </row>
-    <row r="65" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="22">
-        <v>0</v>
-      </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="17">
-        <v>0</v>
-      </c>
-      <c r="H65" s="17"/>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1"/>
+      <c r="C65" s="49">
+        <v>2</v>
+      </c>
+      <c r="D65" s="49"/>
+      <c r="E65" s="50">
+        <v>2</v>
+      </c>
+      <c r="F65" s="50"/>
+      <c r="G65" s="51">
+        <v>2</v>
+      </c>
+      <c r="H65" s="51"/>
+      <c r="I65" s="50">
+        <v>2</v>
+      </c>
+      <c r="J65" s="50"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
-      <c r="M65" s="30">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N65" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M65" s="30"/>
+      <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C66" s="49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D66" s="49"/>
       <c r="E66" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" s="50"/>
       <c r="G66" s="51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H66" s="51"/>
       <c r="I66" s="50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J66" s="50"/>
       <c r="K66" s="8"/>
@@ -3359,23 +3417,23 @@
       <c r="M66" s="30"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C67" s="22">
         <v>0</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="1">
@@ -3385,7 +3443,7 @@
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="30">
-        <f t="shared" ref="M67:M79" si="11">C67+E67+G67+I67+K67</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N67" s="2">
@@ -3393,23 +3451,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C68" s="49">
         <v>8</v>
       </c>
       <c r="D68" s="49"/>
       <c r="E68" s="50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" s="50"/>
       <c r="G68" s="51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H68" s="51"/>
       <c r="I68" s="50">
@@ -3418,10 +3476,7 @@
       <c r="J68" s="50"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
-      <c r="M68" s="30">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
+      <c r="M68" s="30"/>
       <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3429,29 +3484,29 @@
         <v>12</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C69" s="22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H69" s="17"/>
       <c r="I69" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="30">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" ref="M69:M81" si="11">C69+E69+G69+I69+K69</f>
+        <v>1</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" si="7"/>
@@ -3459,83 +3514,98 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="54">
-        <v>0</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="17">
-        <v>0</v>
-      </c>
-      <c r="H70" s="17"/>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1"/>
+      <c r="B70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="49">
+        <v>8</v>
+      </c>
+      <c r="D70" s="49"/>
+      <c r="E70" s="50">
+        <v>8</v>
+      </c>
+      <c r="F70" s="50"/>
+      <c r="G70" s="51">
+        <v>7</v>
+      </c>
+      <c r="H70" s="51"/>
+      <c r="I70" s="50">
+        <v>8</v>
+      </c>
+      <c r="J70" s="50"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="30">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="N70" s="2"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="50"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
+      <c r="A71" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="22">
+        <v>8</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="E71" s="1">
+        <v>8</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="17">
+        <v>8</v>
+      </c>
+      <c r="H71" s="17"/>
+      <c r="I71" s="1">
+        <v>8</v>
+      </c>
+      <c r="J71" s="1"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="2"/>
+      <c r="M71" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>13</v>
+      <c r="A72" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="22">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="C72" s="54">
+        <v>0</v>
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="7"/>
@@ -3543,76 +3613,61 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="22">
-        <v>8</v>
-      </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="1">
-        <v>8</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="17">
-        <v>8</v>
-      </c>
-      <c r="H73" s="17"/>
-      <c r="I73" s="1">
-        <v>7</v>
-      </c>
-      <c r="J73" s="1"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
-      <c r="M73" s="30">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-      <c r="N73" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M73" s="30"/>
+      <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="49">
-        <v>0</v>
-      </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="50">
-        <v>0</v>
-      </c>
-      <c r="F74" s="50"/>
-      <c r="G74" s="51">
-        <v>0</v>
-      </c>
-      <c r="H74" s="51"/>
-      <c r="I74" s="50">
-        <v>1</v>
-      </c>
-      <c r="J74" s="50"/>
+      <c r="B74" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="22">
+        <v>8</v>
+      </c>
+      <c r="D74" s="22"/>
+      <c r="E74" s="1">
+        <v>8</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="17">
+        <v>8</v>
+      </c>
+      <c r="H74" s="17"/>
+      <c r="I74" s="1">
+        <v>8</v>
+      </c>
+      <c r="J74" s="1"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="30">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>53</v>
+      <c r="B75" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="C75" s="22">
         <v>8</v>
@@ -3627,14 +3682,14 @@
       </c>
       <c r="H75" s="17"/>
       <c r="I75" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="7"/>
@@ -3642,45 +3697,42 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" s="22">
-        <v>8</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="1">
-        <v>8</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="17">
-        <v>8</v>
-      </c>
-      <c r="H76" s="17"/>
-      <c r="I76" s="1">
-        <v>8</v>
-      </c>
-      <c r="J76" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="C76" s="49">
+        <v>0</v>
+      </c>
+      <c r="D76" s="49"/>
+      <c r="E76" s="50">
+        <v>0</v>
+      </c>
+      <c r="F76" s="50"/>
+      <c r="G76" s="51">
+        <v>0</v>
+      </c>
+      <c r="H76" s="51"/>
+      <c r="I76" s="50">
+        <v>1</v>
+      </c>
+      <c r="J76" s="50"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="N76" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>52</v>
+      <c r="B77" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C77" s="22">
         <v>8</v>
@@ -3713,114 +3765,182 @@
       <c r="A78" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="B78" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="22">
+        <v>8</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="1">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="17">
+        <v>8</v>
+      </c>
+      <c r="H78" s="17"/>
+      <c r="I78" s="1">
+        <v>8</v>
+      </c>
+      <c r="J78" s="1"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
-      <c r="M78" s="30" t="e">
+      <c r="M78" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N78" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="22">
+        <v>8</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="1">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="17">
+        <v>8</v>
+      </c>
+      <c r="H79" s="17"/>
+      <c r="I79" s="1">
+        <v>8</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N79" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="30" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N78" s="2" t="e">
+      <c r="N80" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="10"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="31">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="10"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N79" s="11"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="34">
-        <f t="shared" ref="C80:J80" si="12">SUM(C5:C79)</f>
-        <v>133</v>
-      </c>
-      <c r="D80" s="34">
+      <c r="N81" s="11"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="32"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="34">
+        <f t="shared" ref="C82:J82" si="12">SUM(C5:C81)</f>
+        <v>135</v>
+      </c>
+      <c r="D82" s="34">
         <f t="shared" si="12"/>
-        <v>43.5</v>
-      </c>
-      <c r="E80" s="34">
+        <v>45.5</v>
+      </c>
+      <c r="E82" s="34">
         <f t="shared" si="12"/>
         <v>134</v>
       </c>
-      <c r="F80" s="34">
+      <c r="F82" s="34">
         <f t="shared" si="12"/>
         <v>41</v>
       </c>
-      <c r="G80" s="34">
+      <c r="G82" s="34">
         <f t="shared" si="12"/>
         <v>125.5</v>
       </c>
-      <c r="H80" s="34">
+      <c r="H82" s="34">
         <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="I80" s="34">
+      <c r="I82" s="34">
         <f t="shared" si="12"/>
-        <v>128</v>
-      </c>
-      <c r="J80" s="34">
+        <v>130.5</v>
+      </c>
+      <c r="J82" s="34">
         <f t="shared" si="12"/>
-        <v>41</v>
-      </c>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="32">
-        <f>C80+E80+G80+I80+K80</f>
-        <v>520.5</v>
-      </c>
-      <c r="N80" s="34">
-        <f>D80+F80+H80+J80+L80</f>
-        <v>165.5</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="33" t="s">
+        <v>45.5</v>
+      </c>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="32">
+        <f>C82+E82+G82+I82+K82</f>
+        <v>525</v>
+      </c>
+      <c r="N82" s="34">
+        <f>D82+F82+H82+J82+L82</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B83" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K81" s="43"/>
+      <c r="K83" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3854,7 +3974,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3868,12 +3993,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4038,9 +4158,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4062,9 +4182,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -276,12 +276,6 @@
     <t>Woensdag Maken Activity Diagram Manage user profile</t>
   </si>
   <si>
-    <t>Dag 1 Onderzoek gebruikers interface</t>
-  </si>
-  <si>
-    <t>Dag 1 Maken gebruikers interface</t>
-  </si>
-  <si>
     <t>Dag 5 Technisch verslag afronden</t>
   </si>
   <si>
@@ -297,25 +291,13 @@
     <t>Dag 2 Doxygen testen</t>
   </si>
   <si>
-    <t>Dag 3 Onderzoek was programma instellen</t>
-  </si>
-  <si>
-    <t>Dag 3 Maken was programma instellen en verbinding maken</t>
-  </si>
-  <si>
     <t>Dag 4 Onderzoek Wasprogramma wijzigen</t>
   </si>
   <si>
     <t xml:space="preserve">Dag 4 Maken wasprogramma wijzigen </t>
   </si>
   <si>
-    <t>Dag 2 Verbinding maken hardware en interface</t>
-  </si>
-  <si>
     <t>Dag 5 Maken wasprogramma uitvoeren</t>
-  </si>
-  <si>
-    <t>Dag 2 Verbindings protecol opstellen</t>
   </si>
   <si>
     <t>Dag 5 Code optimaliseren/ bug fixen / uitlopen / extra tijd</t>
@@ -387,6 +369,27 @@
   </si>
   <si>
     <t>Donderdag Hardware optimaliseren</t>
+  </si>
+  <si>
+    <t>Dag 1 Maken STD modellen</t>
+  </si>
+  <si>
+    <t>Dag 1 Vergadering + werkbespreking</t>
+  </si>
+  <si>
+    <t>Dag 2 Gesprek met Leonie en Joost</t>
+  </si>
+  <si>
+    <t>Dag 2 Verbeteren STD modellen</t>
+  </si>
+  <si>
+    <t>Dag 2 Maken HTML Website</t>
+  </si>
+  <si>
+    <t>Dag 3 Gesprek met Zuurbier</t>
+  </si>
+  <si>
+    <t>Dag 3 Verbeteren van alle Modellen op advies van zuurbier</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -707,6 +710,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1055,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1098,24 +1110,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="72" t="s">
+      <c r="H3" s="76"/>
+      <c r="I3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
@@ -1607,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C16" s="20">
         <v>0</v>
@@ -2127,7 +2139,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="30">
-        <f t="shared" ref="M29:N80" si="7">C29+E29+G29+I29+K29</f>
+        <f t="shared" ref="M29:N81" si="7">C29+E29+G29+I29+K29</f>
         <v>6</v>
       </c>
       <c r="N29" s="2">
@@ -2308,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C34" s="21">
         <v>3</v>
@@ -2323,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H34" s="16">
         <v>3.5</v>
@@ -2447,7 +2459,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C38" s="21">
         <v>2</v>
@@ -2489,7 +2501,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C39" s="21">
         <v>1</v>
@@ -2567,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C41" s="21">
         <v>0.5</v>
@@ -2609,7 +2621,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C42" s="21">
         <v>1.5</v>
@@ -2651,7 +2663,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C43" s="21">
         <v>0.5</v>
@@ -2693,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C44" s="21">
         <v>0</v>
@@ -2754,7 +2766,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C46" s="49">
         <v>0</v>
@@ -2826,7 +2838,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C48" s="63">
         <v>0</v>
@@ -2862,7 +2874,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C49" s="49">
         <v>0.5</v>
@@ -2898,7 +2910,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C50" s="22">
         <v>0.5</v>
@@ -2940,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C51" s="60">
         <v>2</v>
@@ -3114,7 +3126,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C56" s="39">
         <v>4</v>
@@ -3207,10 +3219,10 @@
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="67" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C60" s="66">
         <v>2</v>
@@ -3243,10 +3255,10 @@
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="67" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C61" s="66">
         <v>0</v>
@@ -3298,33 +3310,41 @@
         <v>12</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C63" s="22">
-        <v>1</v>
-      </c>
-      <c r="D63" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="D63" s="22">
+        <v>3</v>
+      </c>
       <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3</v>
+      </c>
       <c r="G63" s="17">
-        <v>0</v>
-      </c>
-      <c r="H63" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="H63" s="17">
+        <v>3</v>
+      </c>
       <c r="I63" s="1">
         <v>0</v>
       </c>
-      <c r="J63" s="1"/>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="30">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3332,33 +3352,41 @@
         <v>12</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C64" s="22">
-        <v>7</v>
-      </c>
-      <c r="D64" s="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="D64" s="22">
+        <v>1.5</v>
+      </c>
       <c r="E64" s="1">
-        <v>8</v>
-      </c>
-      <c r="F64" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G64" s="17">
-        <v>8</v>
-      </c>
-      <c r="H64" s="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="H64" s="17">
+        <v>0</v>
+      </c>
       <c r="I64" s="1">
-        <v>8</v>
-      </c>
-      <c r="J64" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="30">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>4.5</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3366,246 +3394,272 @@
         <v>12</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C65" s="49">
-        <v>2</v>
-      </c>
-      <c r="D65" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="D65" s="49">
+        <v>1</v>
+      </c>
       <c r="E65" s="50">
-        <v>2</v>
-      </c>
-      <c r="F65" s="50"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="50">
+        <v>1</v>
+      </c>
       <c r="G65" s="51">
-        <v>2</v>
-      </c>
-      <c r="H65" s="51"/>
+        <v>1</v>
+      </c>
+      <c r="H65" s="51">
+        <v>1</v>
+      </c>
       <c r="I65" s="50">
-        <v>2</v>
-      </c>
-      <c r="J65" s="50"/>
+        <v>1</v>
+      </c>
+      <c r="J65" s="50">
+        <v>1</v>
+      </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="30"/>
       <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="70" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="49">
-        <v>6</v>
-      </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50">
-        <v>6</v>
-      </c>
-      <c r="F66" s="50"/>
-      <c r="G66" s="51">
-        <v>6</v>
-      </c>
-      <c r="H66" s="51"/>
-      <c r="I66" s="50">
-        <v>6</v>
-      </c>
-      <c r="J66" s="50"/>
+        <v>82</v>
+      </c>
+      <c r="C66" s="69">
+        <v>2</v>
+      </c>
+      <c r="D66" s="69">
+        <v>2</v>
+      </c>
+      <c r="E66" s="70">
+        <v>2</v>
+      </c>
+      <c r="F66" s="70">
+        <v>2</v>
+      </c>
+      <c r="G66" s="71">
+        <v>0</v>
+      </c>
+      <c r="H66" s="71">
+        <v>0</v>
+      </c>
+      <c r="I66" s="70">
+        <v>0</v>
+      </c>
+      <c r="J66" s="70">
+        <v>0</v>
+      </c>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="30"/>
       <c r="N66" s="2"/>
     </row>
     <row r="67" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="22">
-        <v>0</v>
-      </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="17">
-        <v>0</v>
-      </c>
-      <c r="H67" s="17"/>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="C67" s="49">
+        <v>2</v>
+      </c>
+      <c r="D67" s="49">
+        <v>2</v>
+      </c>
+      <c r="E67" s="50">
+        <v>2</v>
+      </c>
+      <c r="F67" s="50">
+        <v>2</v>
+      </c>
+      <c r="G67" s="51">
+        <v>2</v>
+      </c>
+      <c r="H67" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="50">
+        <v>2</v>
+      </c>
+      <c r="J67" s="50">
+        <v>2</v>
+      </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
-      <c r="M67" s="30">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N67" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M67" s="30"/>
+      <c r="N67" s="2"/>
     </row>
     <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="49">
-        <v>8</v>
-      </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="50">
-        <v>7</v>
-      </c>
-      <c r="F68" s="50"/>
-      <c r="G68" s="51">
-        <v>8</v>
-      </c>
-      <c r="H68" s="51"/>
-      <c r="I68" s="50">
-        <v>8</v>
-      </c>
-      <c r="J68" s="50"/>
+        <v>83</v>
+      </c>
+      <c r="C68" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G68" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H68" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1.5</v>
+      </c>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="2"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
+      <c r="M68" s="30">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="22">
-        <v>0</v>
-      </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="17">
-        <v>1</v>
-      </c>
-      <c r="H69" s="17"/>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="C69" s="49">
+        <v>6</v>
+      </c>
+      <c r="D69" s="49"/>
+      <c r="E69" s="50">
+        <v>6</v>
+      </c>
+      <c r="F69" s="50"/>
+      <c r="G69" s="51">
+        <v>6</v>
+      </c>
+      <c r="H69" s="51"/>
+      <c r="I69" s="50">
+        <v>6</v>
+      </c>
+      <c r="J69" s="50"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
-      <c r="M69" s="30">
-        <f t="shared" ref="M69:M81" si="11">C69+E69+G69+I69+K69</f>
-        <v>1</v>
-      </c>
-      <c r="N69" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M69" s="30"/>
+      <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="49">
-        <v>8</v>
-      </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="50">
-        <v>8</v>
-      </c>
-      <c r="F70" s="50"/>
-      <c r="G70" s="51">
-        <v>7</v>
-      </c>
-      <c r="H70" s="51"/>
-      <c r="I70" s="50">
-        <v>8</v>
-      </c>
-      <c r="J70" s="50"/>
+        <v>55</v>
+      </c>
+      <c r="C70" s="22">
+        <v>0</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="17">
+        <v>1</v>
+      </c>
+      <c r="H70" s="17"/>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="30">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-      <c r="N70" s="2"/>
+        <f t="shared" ref="M70:M82" si="11">C70+E70+G70+I70+K70</f>
+        <v>1</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="22">
+        <v>56</v>
+      </c>
+      <c r="C71" s="49">
         <v>8</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="1">
+      <c r="D71" s="49"/>
+      <c r="E71" s="50">
         <v>8</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="17">
+      <c r="F71" s="50"/>
+      <c r="G71" s="51">
+        <v>7</v>
+      </c>
+      <c r="H71" s="51"/>
+      <c r="I71" s="50">
         <v>8</v>
       </c>
-      <c r="H71" s="17"/>
-      <c r="I71" s="1">
-        <v>8</v>
-      </c>
-      <c r="J71" s="1"/>
+      <c r="J71" s="50"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="N71" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="54">
-        <v>0</v>
+      <c r="B72" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="22">
+        <v>8</v>
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="30">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="7"/>
@@ -3613,61 +3667,61 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
+      <c r="A73" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="54">
+        <v>0</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="17">
+        <v>0</v>
+      </c>
+      <c r="H73" s="17"/>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="2"/>
+      <c r="M73" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="22">
-        <v>8</v>
-      </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="1">
-        <v>8</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="17">
-        <v>8</v>
-      </c>
-      <c r="H74" s="17"/>
-      <c r="I74" s="1">
-        <v>8</v>
-      </c>
-      <c r="J74" s="1"/>
+      <c r="A74" s="50"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
-      <c r="M74" s="30">
-        <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="N74" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M74" s="30"/>
+      <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>55</v>
+      <c r="B75" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C75" s="22">
         <v>8</v>
@@ -3682,14 +3736,14 @@
       </c>
       <c r="H75" s="17"/>
       <c r="I75" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="30">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="7"/>
@@ -3697,76 +3751,76 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="49">
-        <v>0</v>
-      </c>
-      <c r="D76" s="49"/>
-      <c r="E76" s="50">
-        <v>0</v>
-      </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="51">
-        <v>0</v>
-      </c>
-      <c r="H76" s="51"/>
-      <c r="I76" s="50">
-        <v>1</v>
-      </c>
-      <c r="J76" s="50"/>
+        <v>53</v>
+      </c>
+      <c r="C76" s="22">
+        <v>8</v>
+      </c>
+      <c r="D76" s="22"/>
+      <c r="E76" s="1">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="17">
+        <v>8</v>
+      </c>
+      <c r="H76" s="17"/>
+      <c r="I76" s="1">
+        <v>7</v>
+      </c>
+      <c r="J76" s="1"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="30">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="22">
-        <v>8</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="1">
-        <v>8</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="17">
-        <v>8</v>
-      </c>
-      <c r="H77" s="17"/>
-      <c r="I77" s="1">
-        <v>8</v>
-      </c>
-      <c r="J77" s="1"/>
+      <c r="B77" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="49">
+        <v>0</v>
+      </c>
+      <c r="D77" s="49"/>
+      <c r="E77" s="50">
+        <v>0</v>
+      </c>
+      <c r="F77" s="50"/>
+      <c r="G77" s="51">
+        <v>0</v>
+      </c>
+      <c r="H77" s="51"/>
+      <c r="I77" s="50">
+        <v>1</v>
+      </c>
+      <c r="J77" s="50"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="N77" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>54</v>
+      <c r="B78" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="C78" s="22">
         <v>8</v>
@@ -3833,114 +3887,148 @@
       <c r="A80" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="B80" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="22">
+        <v>8</v>
+      </c>
+      <c r="D80" s="22"/>
+      <c r="E80" s="1">
+        <v>8</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="17">
+        <v>8</v>
+      </c>
+      <c r="H80" s="17"/>
+      <c r="I80" s="1">
+        <v>8</v>
+      </c>
+      <c r="J80" s="1"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
-      <c r="M80" s="30" t="e">
+      <c r="M80" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N80" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="30" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N80" s="2" t="e">
+      <c r="N81" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="10"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="31">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="10"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N81" s="11"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="34">
-        <f t="shared" ref="C82:J82" si="12">SUM(C5:C81)</f>
-        <v>135</v>
-      </c>
-      <c r="D82" s="34">
+      <c r="N82" s="11"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="32"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="34">
+        <f t="shared" ref="C83:J83" si="12">SUM(C5:C82)</f>
+        <v>127</v>
+      </c>
+      <c r="D83" s="34">
         <f t="shared" si="12"/>
-        <v>45.5</v>
-      </c>
-      <c r="E82" s="34">
+        <v>56.5</v>
+      </c>
+      <c r="E83" s="34">
         <f t="shared" si="12"/>
-        <v>134</v>
-      </c>
-      <c r="F82" s="34">
+        <v>126</v>
+      </c>
+      <c r="F83" s="34">
         <f t="shared" si="12"/>
-        <v>41</v>
-      </c>
-      <c r="G82" s="34">
+        <v>52</v>
+      </c>
+      <c r="G83" s="34">
         <f t="shared" si="12"/>
-        <v>125.5</v>
-      </c>
-      <c r="H82" s="34">
+        <v>115.5</v>
+      </c>
+      <c r="H83" s="34">
         <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="I82" s="34">
+        <v>46</v>
+      </c>
+      <c r="I83" s="34">
         <f t="shared" si="12"/>
-        <v>130.5</v>
-      </c>
-      <c r="J82" s="34">
+        <v>116</v>
+      </c>
+      <c r="J83" s="34">
         <f t="shared" si="12"/>
-        <v>45.5</v>
-      </c>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="32">
-        <f>C82+E82+G82+I82+K82</f>
-        <v>525</v>
-      </c>
-      <c r="N82" s="34">
-        <f>D82+F82+H82+J82+L82</f>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="32">
+        <f>C83+E83+G83+I83+K83</f>
+        <v>484.5</v>
+      </c>
+      <c r="N83" s="34">
+        <f>D83+F83+H83+J83+L83</f>
+        <v>204.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B84" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K83" s="43"/>
+      <c r="K84" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3974,12 +4062,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3993,7 +4076,12 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4158,9 +4246,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4182,9 +4270,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>Dag 3 Verbeteren van alle Modellen op advies van zuurbier</t>
+  </si>
+  <si>
+    <t>Dag 3 Maken HTML site</t>
+  </si>
+  <si>
+    <t>Dag 3 Maken Code</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,6 +716,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1067,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1110,24 +1125,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="75" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -2139,7 +2154,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="30">
-        <f t="shared" ref="M29:N81" si="7">C29+E29+G29+I29+K29</f>
+        <f t="shared" ref="M29:N83" si="7">C29+E29+G29+I29+K29</f>
         <v>6</v>
       </c>
       <c r="N29" s="2">
@@ -3547,89 +3562,104 @@
         <v>84</v>
       </c>
       <c r="C69" s="49">
-        <v>6</v>
-      </c>
-      <c r="D69" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="D69" s="49">
+        <v>2</v>
+      </c>
       <c r="E69" s="50">
-        <v>6</v>
-      </c>
-      <c r="F69" s="50"/>
+        <v>2</v>
+      </c>
+      <c r="F69" s="50">
+        <v>2</v>
+      </c>
       <c r="G69" s="51">
-        <v>6</v>
-      </c>
-      <c r="H69" s="51"/>
+        <v>2</v>
+      </c>
+      <c r="H69" s="51">
+        <v>2</v>
+      </c>
       <c r="I69" s="50">
-        <v>6</v>
-      </c>
-      <c r="J69" s="50"/>
+        <v>2</v>
+      </c>
+      <c r="J69" s="50">
+        <v>2</v>
+      </c>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="30"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
+    <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" s="22">
-        <v>0</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="17">
-        <v>1</v>
-      </c>
-      <c r="H70" s="17"/>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C70" s="72">
+        <v>2</v>
+      </c>
+      <c r="D70" s="72">
+        <v>2</v>
+      </c>
+      <c r="E70" s="73">
+        <v>2</v>
+      </c>
+      <c r="F70" s="73">
+        <v>2</v>
+      </c>
+      <c r="G70" s="74">
+        <v>0</v>
+      </c>
+      <c r="H70" s="74">
+        <v>0</v>
+      </c>
+      <c r="I70" s="73">
+        <v>0</v>
+      </c>
+      <c r="J70" s="73">
+        <v>0</v>
+      </c>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
-      <c r="M70" s="30">
-        <f t="shared" ref="M70:M82" si="11">C70+E70+G70+I70+K70</f>
-        <v>1</v>
-      </c>
-      <c r="N70" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="50" t="s">
+      <c r="M70" s="30"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="49">
-        <v>8</v>
-      </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50">
-        <v>8</v>
-      </c>
-      <c r="F71" s="50"/>
-      <c r="G71" s="51">
-        <v>7</v>
-      </c>
-      <c r="H71" s="51"/>
-      <c r="I71" s="50">
-        <v>8</v>
-      </c>
-      <c r="J71" s="50"/>
+        <v>86</v>
+      </c>
+      <c r="C71" s="72">
+        <v>0</v>
+      </c>
+      <c r="D71" s="72">
+        <v>0</v>
+      </c>
+      <c r="E71" s="73">
+        <v>0</v>
+      </c>
+      <c r="F71" s="73">
+        <v>0</v>
+      </c>
+      <c r="G71" s="74">
+        <v>2</v>
+      </c>
+      <c r="H71" s="74">
+        <v>2</v>
+      </c>
+      <c r="I71" s="73">
+        <v>2</v>
+      </c>
+      <c r="J71" s="73">
+        <v>2</v>
+      </c>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
-      <c r="M71" s="30">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
+      <c r="M71" s="30"/>
       <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -3637,29 +3667,29 @@
         <v>12</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C72" s="22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D72" s="22"/>
       <c r="E72" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H72" s="17"/>
       <c r="I72" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="30">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" ref="M72:M84" si="11">C72+E72+G72+I72+K72</f>
+        <v>1</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="7"/>
@@ -3667,83 +3697,98 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="54">
-        <v>0</v>
-      </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="17">
-        <v>0</v>
-      </c>
-      <c r="H73" s="17"/>
-      <c r="I73" s="1">
-        <v>0</v>
-      </c>
-      <c r="J73" s="1"/>
+      <c r="B73" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="49">
+        <v>8</v>
+      </c>
+      <c r="D73" s="49"/>
+      <c r="E73" s="50">
+        <v>8</v>
+      </c>
+      <c r="F73" s="50"/>
+      <c r="G73" s="51">
+        <v>7</v>
+      </c>
+      <c r="H73" s="51"/>
+      <c r="I73" s="50">
+        <v>8</v>
+      </c>
+      <c r="J73" s="50"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="30">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
+      <c r="A74" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="22">
+        <v>8</v>
+      </c>
+      <c r="D74" s="22"/>
+      <c r="E74" s="1">
+        <v>8</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="17">
+        <v>8</v>
+      </c>
+      <c r="H74" s="17"/>
+      <c r="I74" s="1">
+        <v>8</v>
+      </c>
+      <c r="J74" s="1"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="2"/>
+      <c r="M74" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>13</v>
+      <c r="A75" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" s="22">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="C75" s="54">
+        <v>0</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H75" s="17"/>
       <c r="I75" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="7"/>
@@ -3751,76 +3796,61 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="22">
-        <v>8</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="1">
-        <v>8</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="17">
-        <v>8</v>
-      </c>
-      <c r="H76" s="17"/>
-      <c r="I76" s="1">
-        <v>7</v>
-      </c>
-      <c r="J76" s="1"/>
+      <c r="A76" s="50"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
-      <c r="M76" s="30">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-      <c r="N76" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M76" s="30"/>
+      <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="49">
-        <v>0</v>
-      </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="50">
-        <v>0</v>
-      </c>
-      <c r="F77" s="50"/>
-      <c r="G77" s="51">
-        <v>0</v>
-      </c>
-      <c r="H77" s="51"/>
-      <c r="I77" s="50">
-        <v>1</v>
-      </c>
-      <c r="J77" s="50"/>
+      <c r="B77" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="22">
+        <v>8</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="1">
+        <v>8</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="17">
+        <v>8</v>
+      </c>
+      <c r="H77" s="17"/>
+      <c r="I77" s="1">
+        <v>8</v>
+      </c>
+      <c r="J77" s="1"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="30">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>51</v>
+      <c r="B78" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C78" s="22">
         <v>8</v>
@@ -3835,14 +3865,14 @@
       </c>
       <c r="H78" s="17"/>
       <c r="I78" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="7"/>
@@ -3850,45 +3880,42 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" s="22">
-        <v>8</v>
-      </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="1">
-        <v>8</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="17">
-        <v>8</v>
-      </c>
-      <c r="H79" s="17"/>
-      <c r="I79" s="1">
-        <v>8</v>
-      </c>
-      <c r="J79" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C79" s="49">
+        <v>0</v>
+      </c>
+      <c r="D79" s="49"/>
+      <c r="E79" s="50">
+        <v>0</v>
+      </c>
+      <c r="F79" s="50"/>
+      <c r="G79" s="51">
+        <v>0</v>
+      </c>
+      <c r="H79" s="51"/>
+      <c r="I79" s="50">
+        <v>1</v>
+      </c>
+      <c r="J79" s="50"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="N79" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>50</v>
+      <c r="B80" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="C80" s="22">
         <v>8</v>
@@ -3921,114 +3948,182 @@
       <c r="A81" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="B81" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="22">
+        <v>8</v>
+      </c>
+      <c r="D81" s="22"/>
+      <c r="E81" s="1">
+        <v>8</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="17">
+        <v>8</v>
+      </c>
+      <c r="H81" s="17"/>
+      <c r="I81" s="1">
+        <v>8</v>
+      </c>
+      <c r="J81" s="1"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
-      <c r="M81" s="30" t="e">
+      <c r="M81" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N81" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="22">
+        <v>8</v>
+      </c>
+      <c r="D82" s="22"/>
+      <c r="E82" s="1">
+        <v>8</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="17">
+        <v>8</v>
+      </c>
+      <c r="H82" s="17"/>
+      <c r="I82" s="1">
+        <v>8</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="30">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="N82" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="30" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N81" s="2" t="e">
+      <c r="N83" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="31">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="10"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N82" s="11"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="34">
-        <f t="shared" ref="C83:J83" si="12">SUM(C5:C82)</f>
-        <v>127</v>
-      </c>
-      <c r="D83" s="34">
+      <c r="N84" s="11"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="32"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="34">
+        <f t="shared" ref="C85:J85" si="12">SUM(C5:C84)</f>
+        <v>125</v>
+      </c>
+      <c r="D85" s="34">
         <f t="shared" si="12"/>
-        <v>56.5</v>
-      </c>
-      <c r="E83" s="34">
+        <v>60.5</v>
+      </c>
+      <c r="E85" s="34">
         <f t="shared" si="12"/>
-        <v>126</v>
-      </c>
-      <c r="F83" s="34">
+        <v>124</v>
+      </c>
+      <c r="F85" s="34">
         <f t="shared" si="12"/>
-        <v>52</v>
-      </c>
-      <c r="G83" s="34">
+        <v>56</v>
+      </c>
+      <c r="G85" s="34">
         <f t="shared" si="12"/>
-        <v>115.5</v>
-      </c>
-      <c r="H83" s="34">
-        <f t="shared" si="12"/>
-        <v>46</v>
-      </c>
-      <c r="I83" s="34">
-        <f t="shared" si="12"/>
-        <v>116</v>
-      </c>
-      <c r="J83" s="34">
+        <v>113.5</v>
+      </c>
+      <c r="H85" s="34">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="32">
-        <f>C83+E83+G83+I83+K83</f>
-        <v>484.5</v>
-      </c>
-      <c r="N83" s="34">
-        <f>D83+F83+H83+J83+L83</f>
-        <v>204.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="33" t="s">
+      <c r="I85" s="34">
+        <f t="shared" si="12"/>
+        <v>114</v>
+      </c>
+      <c r="J85" s="34">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="32">
+        <f>C85+E85+G85+I85+K85</f>
+        <v>476.5</v>
+      </c>
+      <c r="N85" s="34">
+        <f>D85+F85+H85+J85+L85</f>
+        <v>220.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B86" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K84" s="43"/>
+      <c r="K86" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4062,29 +4157,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4245,15 +4317,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -4269,28 +4382,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -291,12 +291,6 @@
     <t>Dag 2 Doxygen testen</t>
   </si>
   <si>
-    <t>Dag 4 Onderzoek Wasprogramma wijzigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dag 4 Maken wasprogramma wijzigen </t>
-  </si>
-  <si>
     <t>Dag 5 Maken wasprogramma uitvoeren</t>
   </si>
   <si>
@@ -396,6 +390,12 @@
   </si>
   <si>
     <t>Dag 3 Maken Code</t>
+  </si>
+  <si>
+    <t>Dag 4 HTML Website maken</t>
+  </si>
+  <si>
+    <t>Dag 4 Code maken</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="20">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="21">
         <v>3</v>
@@ -2350,7 +2350,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H34" s="16">
         <v>3.5</v>
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" s="21">
         <v>2</v>
@@ -2516,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="21">
         <v>1</v>
@@ -2594,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" s="21">
         <v>0.5</v>
@@ -2636,7 +2636,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" s="21">
         <v>1.5</v>
@@ -2678,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="21">
         <v>0.5</v>
@@ -2720,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44" s="21">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="49">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C48" s="63">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C49" s="49">
         <v>0.5</v>
@@ -2925,7 +2925,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" s="22">
         <v>0.5</v>
@@ -2967,7 +2967,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="60">
         <v>2</v>
@@ -3141,7 +3141,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="39">
         <v>4</v>
@@ -3234,10 +3234,10 @@
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="66">
         <v>2</v>
@@ -3270,10 +3270,10 @@
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="C61" s="66">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="22">
         <v>3</v>
@@ -3367,7 +3367,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="22">
         <v>1.5</v>
@@ -3409,7 +3409,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="49">
         <v>1</v>
@@ -3445,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="69">
         <v>2</v>
@@ -3481,7 +3481,7 @@
         <v>12</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="49">
         <v>2</v>
@@ -3517,7 +3517,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="22">
         <v>0.5</v>
@@ -3559,7 +3559,7 @@
         <v>12</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="49">
         <v>2</v>
@@ -3595,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C70" s="72">
         <v>2</v>
@@ -3631,7 +3631,7 @@
         <v>12</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" s="72">
         <v>0</v>
@@ -3667,33 +3667,41 @@
         <v>12</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C72" s="22">
-        <v>0</v>
-      </c>
-      <c r="D72" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="D72" s="22">
+        <v>5</v>
+      </c>
       <c r="E72" s="1">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F72" s="1">
+        <v>6.5</v>
+      </c>
       <c r="G72" s="17">
-        <v>1</v>
-      </c>
-      <c r="H72" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="17">
+        <v>0</v>
+      </c>
       <c r="I72" s="1">
         <v>0</v>
       </c>
-      <c r="J72" s="1"/>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="30">
         <f t="shared" ref="M72:M84" si="11">C72+E72+G72+I72+K72</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -3701,29 +3709,37 @@
         <v>12</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C73" s="49">
-        <v>8</v>
-      </c>
-      <c r="D73" s="49"/>
+        <v>0</v>
+      </c>
+      <c r="D73" s="49">
+        <v>0</v>
+      </c>
       <c r="E73" s="50">
-        <v>8</v>
-      </c>
-      <c r="F73" s="50"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="50">
+        <v>0</v>
+      </c>
       <c r="G73" s="51">
-        <v>7</v>
-      </c>
-      <c r="H73" s="51"/>
+        <v>6</v>
+      </c>
+      <c r="H73" s="51">
+        <v>0</v>
+      </c>
       <c r="I73" s="50">
         <v>8</v>
       </c>
-      <c r="J73" s="50"/>
+      <c r="J73" s="50">
+        <v>4.5</v>
+      </c>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="30">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N73" s="2"/>
     </row>
@@ -3732,7 +3748,7 @@
         <v>12</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C74" s="22">
         <v>8</v>
@@ -3766,7 +3782,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C75" s="54">
         <v>0</v>
@@ -3816,7 +3832,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C77" s="22">
         <v>8</v>
@@ -4078,23 +4094,23 @@
       <c r="B85" s="10"/>
       <c r="C85" s="34">
         <f t="shared" ref="C85:J85" si="12">SUM(C5:C84)</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D85" s="34">
         <f t="shared" si="12"/>
-        <v>60.5</v>
+        <v>65.5</v>
       </c>
       <c r="E85" s="34">
         <f t="shared" si="12"/>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F85" s="34">
         <f t="shared" si="12"/>
-        <v>56</v>
+        <v>62.5</v>
       </c>
       <c r="G85" s="34">
         <f t="shared" si="12"/>
-        <v>113.5</v>
+        <v>111.5</v>
       </c>
       <c r="H85" s="34">
         <f t="shared" si="12"/>
@@ -4106,17 +4122,17 @@
       </c>
       <c r="J85" s="34">
         <f t="shared" si="12"/>
-        <v>54</v>
+        <v>58.5</v>
       </c>
       <c r="K85" s="34"/>
       <c r="L85" s="34"/>
       <c r="M85" s="32">
         <f>C85+E85+G85+I85+K85</f>
-        <v>476.5</v>
+        <v>470.5</v>
       </c>
       <c r="N85" s="34">
         <f>D85+F85+H85+J85+L85</f>
-        <v>220.5</v>
+        <v>236.5</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4157,6 +4173,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4317,30 +4352,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4358,30 +4398,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="86">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -291,12 +291,6 @@
     <t>Dag 2 Doxygen testen</t>
   </si>
   <si>
-    <t>Dag 5 Maken wasprogramma uitvoeren</t>
-  </si>
-  <si>
-    <t>Dag 5 Code optimaliseren/ bug fixen / uitlopen / extra tijd</t>
-  </si>
-  <si>
     <t>Dag 1 Code optimaliseren/ bug fixen / uitlopen / extra tijd</t>
   </si>
   <si>
@@ -397,6 +391,9 @@
   <si>
     <t>Dag 4 Code maken</t>
   </si>
+  <si>
+    <t>Dag 5 Werken aan code en HTML website</t>
+  </si>
 </sst>
 </file>
 
@@ -405,7 +402,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -445,12 +442,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -569,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,9 +691,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1082,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1125,24 +1113,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79" t="s">
+      <c r="F3" s="77"/>
+      <c r="G3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="78" t="s">
+      <c r="H3" s="78"/>
+      <c r="I3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -1318,11 +1306,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64">
+      <c r="A8" s="63">
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
@@ -1630,11 +1618,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64">
+      <c r="A16" s="63">
         <v>2</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="20">
         <v>0</v>
@@ -2154,7 +2142,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="30">
-        <f t="shared" ref="M29:N83" si="7">C29+E29+G29+I29+K29</f>
+        <f t="shared" ref="M29:N82" si="7">C29+E29+G29+I29+K29</f>
         <v>6</v>
       </c>
       <c r="N29" s="2">
@@ -2335,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" s="21">
         <v>3</v>
@@ -2350,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H34" s="16">
         <v>3.5</v>
@@ -2376,28 +2364,28 @@
       <c r="B35" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F35" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="57" t="s">
+      <c r="H35" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="I35" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="56" t="s">
+      <c r="J35" s="55" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="8"/>
@@ -2418,28 +2406,28 @@
       <c r="B36" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="56" t="s">
+      <c r="E36" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="56" t="s">
+      <c r="F36" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="57" t="s">
+      <c r="G36" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="56" t="s">
+      <c r="I36" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="56" t="s">
+      <c r="J36" s="55" t="s">
         <v>17</v>
       </c>
       <c r="K36" s="8"/>
@@ -2474,7 +2462,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C38" s="21">
         <v>2</v>
@@ -2516,7 +2504,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39" s="21">
         <v>1</v>
@@ -2594,7 +2582,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="21">
         <v>0.5</v>
@@ -2636,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" s="21">
         <v>1.5</v>
@@ -2678,7 +2666,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" s="21">
         <v>0.5</v>
@@ -2716,11 +2704,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="64">
+      <c r="A44" s="63">
         <v>5</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" s="21">
         <v>0</v>
@@ -2781,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C46" s="49">
         <v>0</v>
@@ -2849,34 +2837,34 @@
       <c r="N47" s="2"/>
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="64">
+      <c r="A48" s="63">
         <v>6</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="63">
-        <v>0</v>
-      </c>
-      <c r="D48" s="63">
-        <v>0</v>
-      </c>
-      <c r="E48" s="64">
-        <v>0</v>
-      </c>
-      <c r="F48" s="64">
-        <v>0</v>
-      </c>
-      <c r="G48" s="65">
-        <v>0</v>
-      </c>
-      <c r="H48" s="65">
-        <v>0</v>
-      </c>
-      <c r="I48" s="64">
+        <v>69</v>
+      </c>
+      <c r="C48" s="62">
+        <v>0</v>
+      </c>
+      <c r="D48" s="62">
+        <v>0</v>
+      </c>
+      <c r="E48" s="63">
+        <v>0</v>
+      </c>
+      <c r="F48" s="63">
+        <v>0</v>
+      </c>
+      <c r="G48" s="64">
+        <v>0</v>
+      </c>
+      <c r="H48" s="64">
+        <v>0</v>
+      </c>
+      <c r="I48" s="63">
         <v>1.5</v>
       </c>
-      <c r="J48" s="64">
+      <c r="J48" s="63">
         <v>1.5</v>
       </c>
       <c r="K48" s="8"/>
@@ -2889,7 +2877,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C49" s="49">
         <v>0.5</v>
@@ -2925,7 +2913,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" s="22">
         <v>0.5</v>
@@ -2963,34 +2951,34 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="61">
+      <c r="A51" s="60">
         <v>6</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="60">
-        <v>2</v>
-      </c>
-      <c r="D51" s="60">
-        <v>1</v>
-      </c>
-      <c r="E51" s="61">
-        <v>2</v>
-      </c>
-      <c r="F51" s="61">
-        <v>1</v>
-      </c>
-      <c r="G51" s="62">
-        <v>0</v>
-      </c>
-      <c r="H51" s="62">
-        <v>0</v>
-      </c>
-      <c r="I51" s="61">
-        <v>2</v>
-      </c>
-      <c r="J51" s="61">
+        <v>60</v>
+      </c>
+      <c r="C51" s="59">
+        <v>2</v>
+      </c>
+      <c r="D51" s="59">
+        <v>1</v>
+      </c>
+      <c r="E51" s="60">
+        <v>2</v>
+      </c>
+      <c r="F51" s="60">
+        <v>1</v>
+      </c>
+      <c r="G51" s="61">
+        <v>0</v>
+      </c>
+      <c r="H51" s="61">
+        <v>0</v>
+      </c>
+      <c r="I51" s="60">
+        <v>2</v>
+      </c>
+      <c r="J51" s="60">
         <v>1</v>
       </c>
       <c r="K51" s="8"/>
@@ -3029,10 +3017,10 @@
       <c r="B53" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="57" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="38" t="s">
@@ -3041,10 +3029,10 @@
       <c r="F53" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="59" t="s">
+      <c r="G53" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="59" t="s">
+      <c r="H53" s="58" t="s">
         <v>17</v>
       </c>
       <c r="I53" s="38" t="s">
@@ -3141,7 +3129,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="39">
         <v>4</v>
@@ -3233,34 +3221,34 @@
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="67" t="s">
-        <v>73</v>
+      <c r="A60" s="66" t="s">
+        <v>71</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="66">
-        <v>2</v>
-      </c>
-      <c r="D60" s="66">
-        <v>2</v>
-      </c>
-      <c r="E60" s="67">
-        <v>0</v>
-      </c>
-      <c r="F60" s="67">
-        <v>0</v>
-      </c>
-      <c r="G60" s="68">
-        <v>0</v>
-      </c>
-      <c r="H60" s="68">
-        <v>0</v>
-      </c>
-      <c r="I60" s="67">
+        <v>72</v>
+      </c>
+      <c r="C60" s="65">
+        <v>2</v>
+      </c>
+      <c r="D60" s="65">
+        <v>2</v>
+      </c>
+      <c r="E60" s="66">
+        <v>0</v>
+      </c>
+      <c r="F60" s="66">
+        <v>0</v>
+      </c>
+      <c r="G60" s="67">
+        <v>0</v>
+      </c>
+      <c r="H60" s="67">
+        <v>0</v>
+      </c>
+      <c r="I60" s="66">
         <v>1.5</v>
       </c>
-      <c r="J60" s="67">
+      <c r="J60" s="66">
         <v>1.5</v>
       </c>
       <c r="K60" s="8"/>
@@ -3269,34 +3257,34 @@
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="67" t="s">
+      <c r="A61" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="66">
-        <v>0</v>
-      </c>
-      <c r="D61" s="66">
-        <v>0</v>
-      </c>
-      <c r="E61" s="67">
-        <v>0</v>
-      </c>
-      <c r="F61" s="67">
-        <v>0</v>
-      </c>
-      <c r="G61" s="68">
-        <v>0</v>
-      </c>
-      <c r="H61" s="68">
-        <v>0</v>
-      </c>
-      <c r="I61" s="67">
-        <v>1</v>
-      </c>
-      <c r="J61" s="67">
+      <c r="C61" s="65">
+        <v>0</v>
+      </c>
+      <c r="D61" s="65">
+        <v>0</v>
+      </c>
+      <c r="E61" s="66">
+        <v>0</v>
+      </c>
+      <c r="F61" s="66">
+        <v>0</v>
+      </c>
+      <c r="G61" s="67">
+        <v>0</v>
+      </c>
+      <c r="H61" s="67">
+        <v>0</v>
+      </c>
+      <c r="I61" s="66">
+        <v>1</v>
+      </c>
+      <c r="J61" s="66">
         <v>1</v>
       </c>
       <c r="K61" s="8"/>
@@ -3325,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="22">
         <v>3</v>
@@ -3367,7 +3355,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="22">
         <v>1.5</v>
@@ -3409,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="49">
         <v>1</v>
@@ -3441,34 +3429,34 @@
       <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="70" t="s">
+      <c r="A66" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="69">
-        <v>2</v>
-      </c>
-      <c r="D66" s="69">
-        <v>2</v>
-      </c>
-      <c r="E66" s="70">
-        <v>2</v>
-      </c>
-      <c r="F66" s="70">
-        <v>2</v>
-      </c>
-      <c r="G66" s="71">
-        <v>0</v>
-      </c>
-      <c r="H66" s="71">
-        <v>0</v>
-      </c>
-      <c r="I66" s="70">
-        <v>0</v>
-      </c>
-      <c r="J66" s="70">
+        <v>78</v>
+      </c>
+      <c r="C66" s="68">
+        <v>2</v>
+      </c>
+      <c r="D66" s="68">
+        <v>2</v>
+      </c>
+      <c r="E66" s="69">
+        <v>2</v>
+      </c>
+      <c r="F66" s="69">
+        <v>2</v>
+      </c>
+      <c r="G66" s="70">
+        <v>0</v>
+      </c>
+      <c r="H66" s="70">
+        <v>0</v>
+      </c>
+      <c r="I66" s="69">
+        <v>0</v>
+      </c>
+      <c r="J66" s="69">
         <v>0</v>
       </c>
       <c r="K66" s="8"/>
@@ -3481,7 +3469,7 @@
         <v>12</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" s="49">
         <v>2</v>
@@ -3517,7 +3505,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C68" s="22">
         <v>0.5</v>
@@ -3559,7 +3547,7 @@
         <v>12</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C69" s="49">
         <v>2</v>
@@ -3591,34 +3579,34 @@
       <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="72">
-        <v>2</v>
-      </c>
-      <c r="D70" s="72">
-        <v>2</v>
-      </c>
-      <c r="E70" s="73">
-        <v>2</v>
-      </c>
-      <c r="F70" s="73">
-        <v>2</v>
-      </c>
-      <c r="G70" s="74">
-        <v>0</v>
-      </c>
-      <c r="H70" s="74">
-        <v>0</v>
-      </c>
-      <c r="I70" s="73">
-        <v>0</v>
-      </c>
-      <c r="J70" s="73">
+        <v>81</v>
+      </c>
+      <c r="C70" s="71">
+        <v>2</v>
+      </c>
+      <c r="D70" s="71">
+        <v>2</v>
+      </c>
+      <c r="E70" s="72">
+        <v>2</v>
+      </c>
+      <c r="F70" s="72">
+        <v>2</v>
+      </c>
+      <c r="G70" s="73">
+        <v>0</v>
+      </c>
+      <c r="H70" s="73">
+        <v>0</v>
+      </c>
+      <c r="I70" s="72">
+        <v>0</v>
+      </c>
+      <c r="J70" s="72">
         <v>0</v>
       </c>
       <c r="K70" s="8"/>
@@ -3627,34 +3615,34 @@
       <c r="N70" s="2"/>
     </row>
     <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="72">
-        <v>0</v>
-      </c>
-      <c r="D71" s="72">
-        <v>0</v>
-      </c>
-      <c r="E71" s="73">
-        <v>0</v>
-      </c>
-      <c r="F71" s="73">
-        <v>0</v>
-      </c>
-      <c r="G71" s="74">
-        <v>2</v>
-      </c>
-      <c r="H71" s="74">
-        <v>2</v>
-      </c>
-      <c r="I71" s="73">
-        <v>2</v>
-      </c>
-      <c r="J71" s="73">
+        <v>82</v>
+      </c>
+      <c r="C71" s="71">
+        <v>0</v>
+      </c>
+      <c r="D71" s="71">
+        <v>0</v>
+      </c>
+      <c r="E71" s="72">
+        <v>0</v>
+      </c>
+      <c r="F71" s="72">
+        <v>0</v>
+      </c>
+      <c r="G71" s="73">
+        <v>2</v>
+      </c>
+      <c r="H71" s="73">
+        <v>0</v>
+      </c>
+      <c r="I71" s="72">
+        <v>2</v>
+      </c>
+      <c r="J71" s="72">
         <v>2</v>
       </c>
       <c r="K71" s="8"/>
@@ -3667,7 +3655,7 @@
         <v>12</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C72" s="22">
         <v>6</v>
@@ -3696,7 +3684,7 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="30">
-        <f t="shared" ref="M72:M84" si="11">C72+E72+G72+I72+K72</f>
+        <f t="shared" ref="M72:M83" si="11">C72+E72+G72+I72+K72</f>
         <v>12</v>
       </c>
       <c r="N72" s="2">
@@ -3709,7 +3697,7 @@
         <v>12</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C73" s="49">
         <v>0</v>
@@ -3748,91 +3736,101 @@
         <v>12</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C74" s="22">
-        <v>8</v>
-      </c>
-      <c r="D74" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="D74" s="22">
+        <v>6</v>
+      </c>
       <c r="E74" s="1">
-        <v>8</v>
-      </c>
-      <c r="F74" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F74" s="1">
+        <v>6</v>
+      </c>
       <c r="G74" s="17">
-        <v>8</v>
-      </c>
-      <c r="H74" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="17">
+        <v>0</v>
+      </c>
       <c r="I74" s="1">
-        <v>8</v>
-      </c>
-      <c r="J74" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="J74" s="1">
+        <v>6</v>
+      </c>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="54">
-        <v>0</v>
-      </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="17">
-        <v>0</v>
-      </c>
-      <c r="H75" s="17"/>
-      <c r="I75" s="1">
-        <v>0</v>
-      </c>
-      <c r="J75" s="1"/>
+      <c r="A75" s="50"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
-      <c r="M75" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="M75" s="30"/>
+      <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
+      <c r="A76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="22">
+        <v>8</v>
+      </c>
+      <c r="D76" s="22"/>
+      <c r="E76" s="1">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="17">
+        <v>0</v>
+      </c>
+      <c r="H76" s="17">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>8</v>
+      </c>
+      <c r="J76" s="1"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="2"/>
+      <c r="M76" s="30">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>57</v>
+      <c r="B77" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C77" s="22">
         <v>8</v>
@@ -3843,18 +3841,20 @@
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="17">
-        <v>8</v>
-      </c>
-      <c r="H77" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="17">
+        <v>0</v>
+      </c>
       <c r="I77" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="7"/>
@@ -3862,76 +3862,80 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="22">
-        <v>8</v>
-      </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="1">
-        <v>8</v>
-      </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="17">
-        <v>8</v>
-      </c>
-      <c r="H78" s="17"/>
-      <c r="I78" s="1">
-        <v>7</v>
-      </c>
-      <c r="J78" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C78" s="49">
+        <v>0</v>
+      </c>
+      <c r="D78" s="49"/>
+      <c r="E78" s="50">
+        <v>0</v>
+      </c>
+      <c r="F78" s="50"/>
+      <c r="G78" s="51">
+        <v>0</v>
+      </c>
+      <c r="H78" s="51">
+        <v>0</v>
+      </c>
+      <c r="I78" s="50">
+        <v>1</v>
+      </c>
+      <c r="J78" s="50"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="30">
         <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-      <c r="N78" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="49">
-        <v>0</v>
-      </c>
-      <c r="D79" s="49"/>
-      <c r="E79" s="50">
-        <v>0</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="51">
-        <v>0</v>
-      </c>
-      <c r="H79" s="51"/>
-      <c r="I79" s="50">
-        <v>1</v>
-      </c>
-      <c r="J79" s="50"/>
+      <c r="B79" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="22">
+        <v>8</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="1">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="17">
+        <v>0</v>
+      </c>
+      <c r="H79" s="17">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>8</v>
+      </c>
+      <c r="J79" s="1"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="30">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="N79" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>51</v>
+      <c r="B80" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="C80" s="22">
         <v>8</v>
@@ -3942,9 +3946,11 @@
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="17">
-        <v>8</v>
-      </c>
-      <c r="H80" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="17">
+        <v>0</v>
+      </c>
       <c r="I80" s="1">
         <v>8</v>
       </c>
@@ -3953,7 +3959,7 @@
       <c r="L80" s="8"/>
       <c r="M80" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="7"/>
@@ -3965,7 +3971,7 @@
         <v>13</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C81" s="22">
         <v>8</v>
@@ -3976,9 +3982,11 @@
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="17">
-        <v>8</v>
-      </c>
-      <c r="H81" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="17">
+        <v>0</v>
+      </c>
       <c r="I81" s="1">
         <v>8</v>
       </c>
@@ -3987,7 +3995,7 @@
       <c r="L81" s="8"/>
       <c r="M81" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="7"/>
@@ -3998,148 +4006,114 @@
       <c r="A82" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="22">
-        <v>8</v>
-      </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="1">
-        <v>8</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="17">
-        <v>8</v>
-      </c>
-      <c r="H82" s="17"/>
-      <c r="I82" s="1">
-        <v>8</v>
-      </c>
-      <c r="J82" s="1"/>
+      <c r="B82" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="38" t="s">
+        <v>17</v>
+      </c>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
-      <c r="M82" s="30">
+      <c r="M82" s="30" t="e">
         <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="N82" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N82" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I83" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="A83" s="10"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
-      <c r="M83" s="30" t="e">
+      <c r="M83" s="31">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N83" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N83" s="11"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N84" s="11"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="34">
+        <f t="shared" ref="C84:J84" si="12">SUM(C5:C83)</f>
+        <v>121</v>
+      </c>
+      <c r="D84" s="34">
+        <f t="shared" si="12"/>
+        <v>71.5</v>
+      </c>
+      <c r="E84" s="34">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="F84" s="34">
+        <f t="shared" si="12"/>
+        <v>68.5</v>
+      </c>
+      <c r="G84" s="34">
+        <f t="shared" si="12"/>
+        <v>63.5</v>
+      </c>
+      <c r="H84" s="34">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="I84" s="34">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="J84" s="34">
+        <f t="shared" si="12"/>
+        <v>64.5</v>
+      </c>
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="32">
+        <f>C84+E84+G84+I84+K84</f>
+        <v>416.5</v>
+      </c>
+      <c r="N84" s="34">
+        <f>D84+F84+H84+J84+L84</f>
+        <v>252.5</v>
+      </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="32"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="34">
-        <f t="shared" ref="C85:J85" si="12">SUM(C5:C84)</f>
-        <v>123</v>
-      </c>
-      <c r="D85" s="34">
-        <f t="shared" si="12"/>
-        <v>65.5</v>
-      </c>
-      <c r="E85" s="34">
-        <f t="shared" si="12"/>
-        <v>122</v>
-      </c>
-      <c r="F85" s="34">
-        <f t="shared" si="12"/>
-        <v>62.5</v>
-      </c>
-      <c r="G85" s="34">
-        <f t="shared" si="12"/>
-        <v>111.5</v>
-      </c>
-      <c r="H85" s="34">
-        <f t="shared" si="12"/>
-        <v>50</v>
-      </c>
-      <c r="I85" s="34">
-        <f t="shared" si="12"/>
-        <v>114</v>
-      </c>
-      <c r="J85" s="34">
-        <f t="shared" si="12"/>
-        <v>58.5</v>
-      </c>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="32">
-        <f>C85+E85+G85+I85+K85</f>
-        <v>470.5</v>
-      </c>
-      <c r="N85" s="34">
-        <f>D85+F85+H85+J85+L85</f>
-        <v>236.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B86" s="33" t="s">
+      <c r="B85" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K86" s="43"/>
+      <c r="K85" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4173,25 +4147,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4352,35 +4311,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4398,10 +4356,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3799,11 +3799,15 @@
       <c r="C76" s="22">
         <v>8</v>
       </c>
-      <c r="D76" s="22"/>
+      <c r="D76" s="22">
+        <v>7.5</v>
+      </c>
       <c r="E76" s="1">
         <v>8</v>
       </c>
-      <c r="F76" s="1"/>
+      <c r="F76" s="1">
+        <v>7.5</v>
+      </c>
       <c r="G76" s="17">
         <v>0</v>
       </c>
@@ -3813,7 +3817,9 @@
       <c r="I76" s="1">
         <v>8</v>
       </c>
-      <c r="J76" s="1"/>
+      <c r="J76" s="1">
+        <v>5</v>
+      </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="30">
@@ -3822,7 +3828,7 @@
       </c>
       <c r="N76" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4072,7 +4078,7 @@
       </c>
       <c r="D84" s="34">
         <f t="shared" si="12"/>
-        <v>71.5</v>
+        <v>79</v>
       </c>
       <c r="E84" s="34">
         <f t="shared" si="12"/>
@@ -4080,7 +4086,7 @@
       </c>
       <c r="F84" s="34">
         <f t="shared" si="12"/>
-        <v>68.5</v>
+        <v>76</v>
       </c>
       <c r="G84" s="34">
         <f t="shared" si="12"/>
@@ -4096,7 +4102,7 @@
       </c>
       <c r="J84" s="34">
         <f t="shared" si="12"/>
-        <v>64.5</v>
+        <v>69.5</v>
       </c>
       <c r="K84" s="34"/>
       <c r="L84" s="34"/>
@@ -4106,7 +4112,7 @@
       </c>
       <c r="N84" s="34">
         <f>D84+F84+H84+J84+L84</f>
-        <v>252.5</v>
+        <v>272.5</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4147,7 +4153,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4312,12 +4323,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4331,9 +4337,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4357,9 +4363,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3818,7 +3818,7 @@
         <v>8</v>
       </c>
       <c r="J76" s="1">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="N76" s="2">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="J84" s="34">
         <f t="shared" si="12"/>
-        <v>69.5</v>
+        <v>71</v>
       </c>
       <c r="K84" s="34"/>
       <c r="L84" s="34"/>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="N84" s="34">
         <f>D84+F84+H84+J84+L84</f>
-        <v>272.5</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4153,15 +4153,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4322,11 +4313,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
@@ -4336,15 +4332,11 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4362,15 +4354,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -4384,4 +4376,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -279,16 +279,7 @@
     <t>Dag 5 Technisch verslag afronden</t>
   </si>
   <si>
-    <t>Dag 3 Technisch verslag beginnen</t>
-  </si>
-  <si>
     <t>Dag 4 Technisch verslag bijwerken</t>
-  </si>
-  <si>
-    <t>Dag 2 Code afronden</t>
-  </si>
-  <si>
-    <t>Dag 2 Doxygen testen</t>
   </si>
   <si>
     <t>Dag 1 Code optimaliseren/ bug fixen / uitlopen / extra tijd</t>
@@ -393,6 +384,12 @@
   </si>
   <si>
     <t>Dag 5 Werken aan code en HTML website</t>
+  </si>
+  <si>
+    <t>Dag 2 Code optimaliseren/ bug fixen / uitlopen / extra tijd</t>
+  </si>
+  <si>
+    <t>Dag 3 Technisch verslag aanmaken, testen met de Pi</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
@@ -1622,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="20">
         <v>0</v>
@@ -2142,7 +2139,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="30">
-        <f t="shared" ref="M29:N82" si="7">C29+E29+G29+I29+K29</f>
+        <f t="shared" ref="M29:N81" si="7">C29+E29+G29+I29+K29</f>
         <v>6</v>
       </c>
       <c r="N29" s="2">
@@ -2323,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C34" s="21">
         <v>3</v>
@@ -2338,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H34" s="16">
         <v>3.5</v>
@@ -2462,7 +2459,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38" s="21">
         <v>2</v>
@@ -2504,7 +2501,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C39" s="21">
         <v>1</v>
@@ -2582,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C41" s="21">
         <v>0.5</v>
@@ -2624,7 +2621,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C42" s="21">
         <v>1.5</v>
@@ -2666,7 +2663,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C43" s="21">
         <v>0.5</v>
@@ -2708,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C44" s="21">
         <v>0</v>
@@ -2769,7 +2766,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46" s="49">
         <v>0</v>
@@ -2841,7 +2838,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C48" s="62">
         <v>0</v>
@@ -2877,7 +2874,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C49" s="49">
         <v>0.5</v>
@@ -2913,7 +2910,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C50" s="22">
         <v>0.5</v>
@@ -2955,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C51" s="59">
         <v>2</v>
@@ -3081,7 +3078,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -3099,19 +3096,19 @@
         <v>5</v>
       </c>
       <c r="D55" s="39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E55" s="40">
         <v>5</v>
       </c>
       <c r="F55" s="40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55" s="41">
         <v>5</v>
       </c>
       <c r="H55" s="41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55" s="40">
         <v>0</v>
@@ -3129,7 +3126,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C56" s="39">
         <v>4</v>
@@ -3222,10 +3219,10 @@
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C60" s="65">
         <v>2</v>
@@ -3246,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="I60" s="66">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J60" s="66">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
@@ -3258,10 +3255,10 @@
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C61" s="65">
         <v>0</v>
@@ -3282,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" s="66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
@@ -3313,7 +3310,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C63" s="22">
         <v>3</v>
@@ -3355,7 +3352,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C64" s="22">
         <v>1.5</v>
@@ -3397,7 +3394,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C65" s="49">
         <v>1</v>
@@ -3433,19 +3430,19 @@
         <v>12</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C66" s="68">
         <v>2</v>
       </c>
       <c r="D66" s="68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" s="69">
         <v>2</v>
       </c>
       <c r="F66" s="69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="70">
         <v>0</v>
@@ -3469,19 +3466,19 @@
         <v>12</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C67" s="49">
         <v>2</v>
       </c>
       <c r="D67" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" s="50">
         <v>2</v>
       </c>
       <c r="F67" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" s="51">
         <v>2</v>
@@ -3493,7 +3490,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -3505,7 +3502,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C68" s="22">
         <v>0.5</v>
@@ -3547,7 +3544,7 @@
         <v>12</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C69" s="49">
         <v>2</v>
@@ -3583,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C70" s="71">
         <v>2</v>
@@ -3619,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C71" s="71">
         <v>0</v>
@@ -3655,7 +3652,7 @@
         <v>12</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C72" s="22">
         <v>6</v>
@@ -3684,7 +3681,7 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="30">
-        <f t="shared" ref="M72:M83" si="11">C72+E72+G72+I72+K72</f>
+        <f t="shared" ref="M72:M82" si="11">C72+E72+G72+I72+K72</f>
         <v>12</v>
       </c>
       <c r="N72" s="2">
@@ -3697,7 +3694,7 @@
         <v>12</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C73" s="49">
         <v>0</v>
@@ -3736,7 +3733,7 @@
         <v>12</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C74" s="22">
         <v>6</v>
@@ -3794,7 +3791,7 @@
         <v>13</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C76" s="22">
         <v>8</v>
@@ -3836,16 +3833,20 @@
         <v>13</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C77" s="22">
         <v>8</v>
       </c>
-      <c r="D77" s="22"/>
+      <c r="D77" s="22">
+        <v>8</v>
+      </c>
       <c r="E77" s="1">
         <v>8</v>
       </c>
-      <c r="F77" s="1"/>
+      <c r="F77" s="1">
+        <v>8</v>
+      </c>
       <c r="G77" s="17">
         <v>0</v>
       </c>
@@ -3853,58 +3854,69 @@
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <v>7</v>
-      </c>
-      <c r="J77" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="J77" s="1">
+        <v>8</v>
+      </c>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="30">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="49">
-        <v>0</v>
-      </c>
-      <c r="D78" s="49"/>
-      <c r="E78" s="50">
-        <v>0</v>
-      </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="51">
-        <v>0</v>
-      </c>
-      <c r="H78" s="51">
-        <v>0</v>
-      </c>
-      <c r="I78" s="50">
-        <v>1</v>
-      </c>
-      <c r="J78" s="50"/>
+      <c r="B78" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="22">
+        <v>8</v>
+      </c>
+      <c r="D78" s="22">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1">
+        <v>7</v>
+      </c>
+      <c r="G78" s="17">
+        <v>0</v>
+      </c>
+      <c r="H78" s="17">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>8</v>
+      </c>
+      <c r="J78" s="1">
+        <v>7</v>
+      </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="30">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="N78" s="2">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C79" s="22">
@@ -3941,7 +3953,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C80" s="22">
         <v>8</v>
@@ -3976,150 +3988,114 @@
       <c r="A81" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="22">
-        <v>8</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="1">
-        <v>8</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="17">
-        <v>0</v>
-      </c>
-      <c r="H81" s="17">
-        <v>0</v>
-      </c>
-      <c r="I81" s="1">
-        <v>8</v>
-      </c>
-      <c r="J81" s="1"/>
+      <c r="B81" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="38" t="s">
+        <v>17</v>
+      </c>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
-      <c r="M81" s="30">
+      <c r="M81" s="30" t="e">
         <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="N81" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N81" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="A82" s="10"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
-      <c r="M82" s="30" t="e">
+      <c r="M82" s="31">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N82" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N82" s="11"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="10"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="11"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="32"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="34">
-        <f t="shared" ref="C84:J84" si="12">SUM(C5:C83)</f>
+      <c r="A83" s="32"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="34">
+        <f t="shared" ref="C83:J83" si="12">SUM(C5:C82)</f>
         <v>121</v>
       </c>
-      <c r="D84" s="34">
+      <c r="D83" s="34">
         <f t="shared" si="12"/>
-        <v>79</v>
-      </c>
-      <c r="E84" s="34">
+        <v>99</v>
+      </c>
+      <c r="E83" s="34">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
-      <c r="F84" s="34">
+      <c r="F83" s="34">
         <f t="shared" si="12"/>
-        <v>76</v>
-      </c>
-      <c r="G84" s="34">
+        <v>96</v>
+      </c>
+      <c r="G83" s="34">
         <f t="shared" si="12"/>
         <v>63.5</v>
       </c>
-      <c r="H84" s="34">
+      <c r="H83" s="34">
         <f t="shared" si="12"/>
-        <v>48</v>
-      </c>
-      <c r="I84" s="34">
+        <v>51</v>
+      </c>
+      <c r="I83" s="34">
         <f t="shared" si="12"/>
-        <v>112</v>
-      </c>
-      <c r="J84" s="34">
+        <v>113.5</v>
+      </c>
+      <c r="J83" s="34">
         <f t="shared" si="12"/>
-        <v>71</v>
-      </c>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="32">
-        <f>C84+E84+G84+I84+K84</f>
-        <v>416.5</v>
-      </c>
-      <c r="N84" s="34">
-        <f>D84+F84+H84+J84+L84</f>
-        <v>274</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B85" s="33" t="s">
+        <v>89.5</v>
+      </c>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="32">
+        <f>C83+E83+G83+I83+K83</f>
+        <v>418</v>
+      </c>
+      <c r="N83" s="34">
+        <f>D83+F83+H83+J83+L83</f>
+        <v>335.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B84" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K85" s="43"/>
+      <c r="K84" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4153,6 +4129,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4313,30 +4308,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4354,30 +4354,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -276,12 +276,6 @@
     <t>Woensdag Maken Activity Diagram Manage user profile</t>
   </si>
   <si>
-    <t>Dag 5 Technisch verslag afronden</t>
-  </si>
-  <si>
-    <t>Dag 4 Technisch verslag bijwerken</t>
-  </si>
-  <si>
     <t>Dag 1 Code optimaliseren/ bug fixen / uitlopen / extra tijd</t>
   </si>
   <si>
@@ -390,6 +384,27 @@
   </si>
   <si>
     <t>Dag 3 Technisch verslag aanmaken, testen met de Pi</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Za</t>
+  </si>
+  <si>
+    <t>Zo</t>
+  </si>
+  <si>
+    <t>Dag 4 Technisch verslag bijwerken, Testen met de Pi</t>
+  </si>
+  <si>
+    <t>Dag 5 Technisch verslag bijwerken, Testen met de Pi</t>
+  </si>
+  <si>
+    <t>Techinisch verslag afmaken</t>
+  </si>
+  <si>
+    <t>Precentatie maken</t>
   </si>
 </sst>
 </file>
@@ -557,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -701,6 +716,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1067,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1110,24 +1134,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77" t="s">
+      <c r="D3" s="79"/>
+      <c r="E3" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78" t="s">
+      <c r="F3" s="80"/>
+      <c r="G3" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="77" t="s">
+      <c r="H3" s="81"/>
+      <c r="I3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
@@ -1619,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="20">
         <v>0</v>
@@ -2139,7 +2163,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="30">
-        <f t="shared" ref="M29:N81" si="7">C29+E29+G29+I29+K29</f>
+        <f t="shared" ref="M29:N85" si="7">C29+E29+G29+I29+K29</f>
         <v>6</v>
       </c>
       <c r="N29" s="2">
@@ -2320,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="21">
         <v>3</v>
@@ -2335,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H34" s="16">
         <v>3.5</v>
@@ -2459,7 +2483,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="21">
         <v>2</v>
@@ -2501,7 +2525,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="21">
         <v>1</v>
@@ -2579,7 +2603,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C41" s="21">
         <v>0.5</v>
@@ -2621,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" s="21">
         <v>1.5</v>
@@ -2663,7 +2687,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C43" s="21">
         <v>0.5</v>
@@ -2705,7 +2729,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="21">
         <v>0</v>
@@ -2766,7 +2790,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="49">
         <v>0</v>
@@ -2838,7 +2862,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" s="62">
         <v>0</v>
@@ -2874,7 +2898,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="49">
         <v>0.5</v>
@@ -2910,7 +2934,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="22">
         <v>0.5</v>
@@ -2952,7 +2976,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="59">
         <v>2</v>
@@ -3126,7 +3150,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="39">
         <v>4</v>
@@ -3219,10 +3243,10 @@
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="65">
         <v>2</v>
@@ -3255,10 +3279,10 @@
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="C61" s="65">
         <v>0</v>
@@ -3310,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="22">
         <v>3</v>
@@ -3352,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C64" s="22">
         <v>1.5</v>
@@ -3394,7 +3418,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C65" s="49">
         <v>1</v>
@@ -3430,7 +3454,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="68">
         <v>2</v>
@@ -3466,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C67" s="49">
         <v>2</v>
@@ -3502,7 +3526,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C68" s="22">
         <v>0.5</v>
@@ -3544,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C69" s="49">
         <v>2</v>
@@ -3580,7 +3604,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" s="71">
         <v>2</v>
@@ -3616,7 +3640,7 @@
         <v>12</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" s="71">
         <v>0</v>
@@ -3652,19 +3676,19 @@
         <v>12</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" s="22">
         <v>6</v>
       </c>
       <c r="D72" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E72" s="1">
         <v>6</v>
       </c>
       <c r="F72" s="1">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G72" s="17">
         <v>0</v>
@@ -3681,12 +3705,12 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="30">
-        <f t="shared" ref="M72:M82" si="11">C72+E72+G72+I72+K72</f>
+        <f t="shared" ref="M72:M86" si="11">C72+E72+G72+I72+K72</f>
         <v>12</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="7"/>
-        <v>11.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -3694,7 +3718,7 @@
         <v>12</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C73" s="49">
         <v>0</v>
@@ -3733,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C74" s="22">
         <v>6</v>
@@ -3791,7 +3815,7 @@
         <v>13</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C76" s="22">
         <v>8</v>
@@ -3833,7 +3857,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C77" s="22">
         <v>8</v>
@@ -3875,7 +3899,7 @@
         <v>13</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C78" s="22">
         <v>8</v>
@@ -3917,16 +3941,20 @@
         <v>13</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C79" s="22">
         <v>8</v>
       </c>
-      <c r="D79" s="22"/>
+      <c r="D79" s="22">
+        <v>8</v>
+      </c>
       <c r="E79" s="1">
         <v>8</v>
       </c>
-      <c r="F79" s="1"/>
+      <c r="F79" s="1">
+        <v>9</v>
+      </c>
       <c r="G79" s="17">
         <v>0</v>
       </c>
@@ -3936,7 +3964,9 @@
       <c r="I79" s="1">
         <v>8</v>
       </c>
-      <c r="J79" s="1"/>
+      <c r="J79" s="1">
+        <v>7</v>
+      </c>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="30">
@@ -3945,7 +3975,7 @@
       </c>
       <c r="N79" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -3953,16 +3983,20 @@
         <v>13</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C80" s="22">
         <v>8</v>
       </c>
-      <c r="D80" s="22"/>
+      <c r="D80" s="22">
+        <v>7</v>
+      </c>
       <c r="E80" s="1">
         <v>8</v>
       </c>
-      <c r="F80" s="1"/>
+      <c r="F80" s="1">
+        <v>7</v>
+      </c>
       <c r="G80" s="17">
         <v>0</v>
       </c>
@@ -3972,7 +4006,9 @@
       <c r="I80" s="1">
         <v>8</v>
       </c>
-      <c r="J80" s="1"/>
+      <c r="J80" s="1">
+        <v>7</v>
+      </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="30">
@@ -3981,121 +4017,261 @@
       </c>
       <c r="N80" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="38" t="s">
-        <v>17</v>
+      <c r="A81" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="74">
+        <v>6</v>
+      </c>
+      <c r="D81" s="74"/>
+      <c r="E81" s="75">
+        <v>6</v>
+      </c>
+      <c r="F81" s="75"/>
+      <c r="G81" s="76">
+        <v>0</v>
+      </c>
+      <c r="H81" s="76">
+        <v>0</v>
+      </c>
+      <c r="I81" s="75">
+        <v>0</v>
+      </c>
+      <c r="J81" s="75">
+        <v>0</v>
       </c>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
-      <c r="M81" s="30" t="e">
+      <c r="M81" s="30">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="74">
+        <v>0</v>
+      </c>
+      <c r="D82" s="74">
+        <v>0</v>
+      </c>
+      <c r="E82" s="75">
+        <v>6</v>
+      </c>
+      <c r="F82" s="75"/>
+      <c r="G82" s="76">
+        <v>0</v>
+      </c>
+      <c r="H82" s="76">
+        <v>0</v>
+      </c>
+      <c r="I82" s="75">
+        <v>6</v>
+      </c>
+      <c r="J82" s="75"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="30">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="74">
+        <v>8</v>
+      </c>
+      <c r="D83" s="74"/>
+      <c r="E83" s="75">
+        <v>8</v>
+      </c>
+      <c r="F83" s="75"/>
+      <c r="G83" s="76">
+        <v>0</v>
+      </c>
+      <c r="H83" s="76">
+        <v>0</v>
+      </c>
+      <c r="I83" s="75">
+        <v>8</v>
+      </c>
+      <c r="J83" s="75"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="30">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="74">
+        <v>0</v>
+      </c>
+      <c r="D84" s="74">
+        <v>0</v>
+      </c>
+      <c r="E84" s="75">
+        <v>0</v>
+      </c>
+      <c r="F84" s="75">
+        <v>0</v>
+      </c>
+      <c r="G84" s="76">
+        <v>0</v>
+      </c>
+      <c r="H84" s="76">
+        <v>0</v>
+      </c>
+      <c r="I84" s="75">
+        <v>0</v>
+      </c>
+      <c r="J84" s="75">
+        <v>0</v>
+      </c>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="30" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N81" s="2" t="e">
+      <c r="N85" s="2" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="31">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="10"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N82" s="11"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="32"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="34">
-        <f t="shared" ref="C83:J83" si="12">SUM(C5:C82)</f>
-        <v>121</v>
-      </c>
-      <c r="D83" s="34">
-        <f t="shared" si="12"/>
-        <v>99</v>
-      </c>
-      <c r="E83" s="34">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="F83" s="34">
-        <f t="shared" si="12"/>
-        <v>96</v>
-      </c>
-      <c r="G83" s="34">
-        <f t="shared" si="12"/>
+      <c r="N86" s="11"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="32"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="34">
+        <f>SUM(C5:C86)</f>
+        <v>135</v>
+      </c>
+      <c r="D87" s="34">
+        <f>SUM(D5:D86)</f>
+        <v>115</v>
+      </c>
+      <c r="E87" s="34">
+        <f>SUM(E5:E86)</f>
+        <v>140</v>
+      </c>
+      <c r="F87" s="34">
+        <f>SUM(F5:F86)</f>
+        <v>112.5</v>
+      </c>
+      <c r="G87" s="34">
+        <f>SUM(G5:G86)</f>
         <v>63.5</v>
       </c>
-      <c r="H83" s="34">
-        <f t="shared" si="12"/>
+      <c r="H87" s="34">
+        <f>SUM(H5:H86)</f>
         <v>51</v>
       </c>
-      <c r="I83" s="34">
-        <f t="shared" si="12"/>
-        <v>113.5</v>
-      </c>
-      <c r="J83" s="34">
-        <f t="shared" si="12"/>
-        <v>89.5</v>
-      </c>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="32">
-        <f>C83+E83+G83+I83+K83</f>
-        <v>418</v>
-      </c>
-      <c r="N83" s="34">
-        <f>D83+F83+H83+J83+L83</f>
-        <v>335.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="33" t="s">
+      <c r="I87" s="34">
+        <f>SUM(I5:I86)</f>
+        <v>127.5</v>
+      </c>
+      <c r="J87" s="34">
+        <f>SUM(J5:J86)</f>
+        <v>103.5</v>
+      </c>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="32">
+        <f>C87+E87+G87+I87+K87</f>
+        <v>466</v>
+      </c>
+      <c r="N87" s="34">
+        <f>D87+F87+H87+J87+L87</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B88" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K84" s="43"/>
+      <c r="K88" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4129,25 +4305,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4308,35 +4469,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4354,10 +4514,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -404,7 +404,19 @@
     <t>Techinisch verslag afmaken</t>
   </si>
   <si>
-    <t>Precentatie maken</t>
+    <t>Techninisch verslag afmaken</t>
+  </si>
+  <si>
+    <t>SA afmaken Verslag afmaken Presentatie maken</t>
+  </si>
+  <si>
+    <t>Overleg project afronding en Verwerken Feedback modellen</t>
+  </si>
+  <si>
+    <t>Verbeteren Std modellen</t>
+  </si>
+  <si>
+    <t>Werken aan de code en Pi</t>
   </si>
 </sst>
 </file>
@@ -572,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -772,6 +784,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,6 +800,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1091,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1134,24 +1152,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80" t="s">
+      <c r="D3" s="80"/>
+      <c r="E3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="80" t="s">
+      <c r="H3" s="82"/>
+      <c r="I3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -1897,7 +1915,9 @@
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="30"/>
+      <c r="M22" s="30">
+        <v>8</v>
+      </c>
       <c r="N22" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2163,7 +2183,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="30">
-        <f t="shared" ref="M29:N85" si="7">C29+E29+G29+I29+K29</f>
+        <f t="shared" ref="M29:N84" si="7">C29+E29+G29+I29+K29</f>
         <v>6</v>
       </c>
       <c r="N29" s="2">
@@ -2557,7 +2577,9 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="N39" s="2"/>
+      <c r="N39" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50">
@@ -2596,7 +2618,9 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="N40" s="2"/>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="25">
@@ -2761,7 +2785,9 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N44" s="2"/>
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
@@ -2818,8 +2844,12 @@
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="2"/>
+      <c r="M46" s="30">
+        <v>7</v>
+      </c>
+      <c r="N46" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50">
@@ -2854,8 +2884,12 @@
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="2"/>
+      <c r="M47" s="30">
+        <v>7</v>
+      </c>
+      <c r="N47" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="63">
@@ -2890,8 +2924,12 @@
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="2"/>
+      <c r="M48" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="49" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50">
@@ -2926,8 +2964,12 @@
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="2"/>
+      <c r="M49" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
@@ -3705,7 +3747,7 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="30">
-        <f t="shared" ref="M72:M86" si="11">C72+E72+G72+I72+K72</f>
+        <f t="shared" ref="M72:M89" si="11">C72+E72+G72+I72+K72</f>
         <v>12</v>
       </c>
       <c r="N72" s="2">
@@ -3839,7 +3881,7 @@
         <v>8</v>
       </c>
       <c r="J76" s="1">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
@@ -3849,7 +3891,7 @@
       </c>
       <c r="N76" s="2">
         <f t="shared" si="7"/>
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4025,16 +4067,20 @@
         <v>84</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C81" s="74">
         <v>6</v>
       </c>
-      <c r="D81" s="74"/>
+      <c r="D81" s="74">
+        <v>4</v>
+      </c>
       <c r="E81" s="75">
-        <v>6</v>
-      </c>
-      <c r="F81" s="75"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="75">
+        <v>0</v>
+      </c>
       <c r="G81" s="76">
         <v>0</v>
       </c>
@@ -4051,9 +4097,12 @@
       <c r="L81" s="8"/>
       <c r="M81" s="30">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="N81" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="75" t="s">
@@ -4071,7 +4120,9 @@
       <c r="E82" s="75">
         <v>6</v>
       </c>
-      <c r="F82" s="75"/>
+      <c r="F82" s="75">
+        <v>4</v>
+      </c>
       <c r="G82" s="76">
         <v>0</v>
       </c>
@@ -4081,7 +4132,9 @@
       <c r="I82" s="75">
         <v>6</v>
       </c>
-      <c r="J82" s="75"/>
+      <c r="J82" s="75">
+        <v>4</v>
+      </c>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="30">
@@ -4095,16 +4148,20 @@
         <v>83</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C83" s="74">
         <v>8</v>
       </c>
-      <c r="D83" s="74"/>
+      <c r="D83" s="74">
+        <v>8</v>
+      </c>
       <c r="E83" s="75">
         <v>8</v>
       </c>
-      <c r="F83" s="75"/>
+      <c r="F83" s="75">
+        <v>8</v>
+      </c>
       <c r="G83" s="76">
         <v>0</v>
       </c>
@@ -4114,7 +4171,9 @@
       <c r="I83" s="75">
         <v>8</v>
       </c>
-      <c r="J83" s="75"/>
+      <c r="J83" s="75">
+        <v>8</v>
+      </c>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="30">
@@ -4124,154 +4183,237 @@
       <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="75" t="s">
+      <c r="A84" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="74">
-        <v>0</v>
-      </c>
-      <c r="D84" s="74">
-        <v>0</v>
-      </c>
-      <c r="E84" s="75">
-        <v>0</v>
-      </c>
-      <c r="F84" s="75">
-        <v>0</v>
-      </c>
-      <c r="G84" s="76">
-        <v>0</v>
-      </c>
-      <c r="H84" s="76">
-        <v>0</v>
-      </c>
-      <c r="I84" s="75">
-        <v>0</v>
-      </c>
-      <c r="J84" s="75">
-        <v>0</v>
+      <c r="B84" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="38" t="s">
+        <v>17</v>
       </c>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
-      <c r="M84" s="30">
+      <c r="M84" s="30" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N84" s="2" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="I85" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" s="38" t="s">
-        <v>17</v>
-      </c>
+      <c r="A85" s="77"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
-      <c r="M85" s="30" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N85" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="M85" s="30"/>
+      <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
+      <c r="A86" s="83">
+        <v>42406</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="57">
+        <v>0</v>
+      </c>
+      <c r="D86" s="57">
+        <v>0</v>
+      </c>
+      <c r="E86" s="38">
+        <v>0</v>
+      </c>
+      <c r="F86" s="38">
+        <v>0</v>
+      </c>
+      <c r="G86" s="58">
+        <v>0</v>
+      </c>
+      <c r="H86" s="58">
+        <v>0</v>
+      </c>
+      <c r="I86" s="38">
+        <v>6</v>
+      </c>
+      <c r="J86" s="38">
+        <v>6</v>
+      </c>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
-      <c r="M86" s="31">
+      <c r="M86" s="30"/>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="83">
+        <v>42408</v>
+      </c>
+      <c r="B87" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="57">
+        <v>4</v>
+      </c>
+      <c r="D87" s="57">
+        <v>4</v>
+      </c>
+      <c r="E87" s="38">
+        <v>4</v>
+      </c>
+      <c r="F87" s="38">
+        <v>4</v>
+      </c>
+      <c r="G87" s="58">
+        <v>0</v>
+      </c>
+      <c r="H87" s="58">
+        <v>0</v>
+      </c>
+      <c r="I87" s="38">
+        <v>4</v>
+      </c>
+      <c r="J87" s="38">
+        <v>4</v>
+      </c>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="30"/>
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="83">
+        <v>42410</v>
+      </c>
+      <c r="B88" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="57">
+        <v>8</v>
+      </c>
+      <c r="D88" s="57">
+        <v>8</v>
+      </c>
+      <c r="E88" s="38">
+        <v>8</v>
+      </c>
+      <c r="F88" s="38">
+        <v>8</v>
+      </c>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="38">
+        <v>8</v>
+      </c>
+      <c r="J88" s="38">
+        <v>8</v>
+      </c>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="30"/>
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="10"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N86" s="11"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="32"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="34">
-        <f>SUM(C5:C86)</f>
-        <v>135</v>
-      </c>
-      <c r="D87" s="34">
-        <f>SUM(D5:D86)</f>
-        <v>115</v>
-      </c>
-      <c r="E87" s="34">
-        <f>SUM(E5:E86)</f>
-        <v>140</v>
-      </c>
-      <c r="F87" s="34">
-        <f>SUM(F5:F86)</f>
-        <v>112.5</v>
-      </c>
-      <c r="G87" s="34">
-        <f>SUM(G5:G86)</f>
+      <c r="N89" s="11"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="32"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="34">
+        <f t="shared" ref="C90:J90" si="12">SUM(C5:C89)</f>
+        <v>147</v>
+      </c>
+      <c r="D90" s="34">
+        <f t="shared" si="12"/>
+        <v>139</v>
+      </c>
+      <c r="E90" s="34">
+        <f t="shared" si="12"/>
+        <v>146</v>
+      </c>
+      <c r="F90" s="34">
+        <f t="shared" si="12"/>
+        <v>136.5</v>
+      </c>
+      <c r="G90" s="34">
+        <f t="shared" si="12"/>
         <v>63.5</v>
       </c>
-      <c r="H87" s="34">
-        <f>SUM(H5:H86)</f>
+      <c r="H90" s="34">
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
-      <c r="I87" s="34">
-        <f>SUM(I5:I86)</f>
-        <v>127.5</v>
-      </c>
-      <c r="J87" s="34">
-        <f>SUM(J5:J86)</f>
-        <v>103.5</v>
-      </c>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="32">
-        <f>C87+E87+G87+I87+K87</f>
-        <v>466</v>
-      </c>
-      <c r="N87" s="34">
-        <f>D87+F87+H87+J87+L87</f>
-        <v>382</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B88" s="33" t="s">
+      <c r="I90" s="34">
+        <f t="shared" si="12"/>
+        <v>145.5</v>
+      </c>
+      <c r="J90" s="34">
+        <f t="shared" si="12"/>
+        <v>134.5</v>
+      </c>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="32">
+        <f>C90+E90+G90+I90+K90</f>
+        <v>502</v>
+      </c>
+      <c r="N90" s="34">
+        <f>D90+F90+H90+J90+L90</f>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B91" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K88" s="43"/>
+      <c r="K91" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4305,10 +4447,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4469,7 +4607,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4478,7 +4616,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
@@ -4488,15 +4626,11 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4514,7 +4648,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4522,7 +4656,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -4536,4 +4670,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -787,6 +787,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,9 +803,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1109,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N90" sqref="N90"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1152,24 +1152,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="81" t="s">
+      <c r="H3" s="83"/>
+      <c r="I3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
       <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="30">
-        <f t="shared" ref="M72:M89" si="11">C72+E72+G72+I72+K72</f>
+        <f t="shared" ref="M72:M94" si="11">C72+E72+G72+I72+K72</f>
         <v>12</v>
       </c>
       <c r="N72" s="2">
@@ -4241,7 +4241,7 @@
       <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="83">
+      <c r="A86" s="78">
         <v>42406</v>
       </c>
       <c r="B86" s="53" t="s">
@@ -4277,7 +4277,7 @@
       <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="83">
+      <c r="A87" s="78">
         <v>42408</v>
       </c>
       <c r="B87" s="53" t="s">
@@ -4313,7 +4313,7 @@
       <c r="N87" s="2"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="83">
+      <c r="A88" s="78">
         <v>42410</v>
       </c>
       <c r="B88" s="53" t="s">
@@ -4331,8 +4331,12 @@
       <c r="F88" s="38">
         <v>8</v>
       </c>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
+      <c r="G88" s="58">
+        <v>0</v>
+      </c>
+      <c r="H88" s="58">
+        <v>0</v>
+      </c>
       <c r="I88" s="38">
         <v>8</v>
       </c>
@@ -4345,75 +4349,203 @@
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
+      <c r="A89" s="78"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
-      <c r="M89" s="31">
+      <c r="M89" s="30"/>
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="78">
+        <v>42415</v>
+      </c>
+      <c r="B90" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="57">
+        <v>3</v>
+      </c>
+      <c r="D90" s="57">
+        <v>3</v>
+      </c>
+      <c r="E90" s="38">
+        <v>3</v>
+      </c>
+      <c r="F90" s="38">
+        <v>3</v>
+      </c>
+      <c r="G90" s="58">
+        <v>0</v>
+      </c>
+      <c r="H90" s="58">
+        <v>0</v>
+      </c>
+      <c r="I90" s="38">
+        <v>3</v>
+      </c>
+      <c r="J90" s="38">
+        <v>3</v>
+      </c>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="78">
+        <v>42417</v>
+      </c>
+      <c r="B91" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="57">
+        <v>7</v>
+      </c>
+      <c r="D91" s="57"/>
+      <c r="E91" s="38">
+        <v>7</v>
+      </c>
+      <c r="F91" s="38"/>
+      <c r="G91" s="58">
+        <v>0</v>
+      </c>
+      <c r="H91" s="58">
+        <v>0</v>
+      </c>
+      <c r="I91" s="38">
+        <v>7</v>
+      </c>
+      <c r="J91" s="38"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="78">
+        <v>42419</v>
+      </c>
+      <c r="B92" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="57">
+        <v>3</v>
+      </c>
+      <c r="D92" s="57"/>
+      <c r="E92" s="38">
+        <v>3</v>
+      </c>
+      <c r="F92" s="38"/>
+      <c r="G92" s="58">
+        <v>0</v>
+      </c>
+      <c r="H92" s="58">
+        <v>0</v>
+      </c>
+      <c r="I92" s="38">
+        <v>3</v>
+      </c>
+      <c r="J92" s="38"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="78"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="30"/>
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="10"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N89" s="11"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="32"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="34">
-        <f t="shared" ref="C90:J90" si="12">SUM(C5:C89)</f>
-        <v>147</v>
-      </c>
-      <c r="D90" s="34">
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="32"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="34">
+        <f t="shared" ref="C95:J95" si="12">SUM(C5:C94)</f>
+        <v>160</v>
+      </c>
+      <c r="D95" s="34">
         <f t="shared" si="12"/>
-        <v>139</v>
-      </c>
-      <c r="E90" s="34">
+        <v>142</v>
+      </c>
+      <c r="E95" s="34">
         <f t="shared" si="12"/>
-        <v>146</v>
-      </c>
-      <c r="F90" s="34">
+        <v>159</v>
+      </c>
+      <c r="F95" s="34">
         <f t="shared" si="12"/>
-        <v>136.5</v>
-      </c>
-      <c r="G90" s="34">
+        <v>139.5</v>
+      </c>
+      <c r="G95" s="34">
         <f t="shared" si="12"/>
         <v>63.5</v>
       </c>
-      <c r="H90" s="34">
+      <c r="H95" s="34">
         <f t="shared" si="12"/>
         <v>51</v>
       </c>
-      <c r="I90" s="34">
+      <c r="I95" s="34">
         <f t="shared" si="12"/>
-        <v>145.5</v>
-      </c>
-      <c r="J90" s="34">
+        <v>158.5</v>
+      </c>
+      <c r="J95" s="34">
         <f t="shared" si="12"/>
-        <v>134.5</v>
-      </c>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="32">
-        <f>C90+E90+G90+I90+K90</f>
-        <v>502</v>
-      </c>
-      <c r="N90" s="34">
-        <f>D90+F90+H90+J90+L90</f>
-        <v>461</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B91" s="33" t="s">
+        <v>137.5</v>
+      </c>
+      <c r="K95" s="34"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="32">
+        <f>C95+E95+G95+I95+K95</f>
+        <v>541</v>
+      </c>
+      <c r="N95" s="34">
+        <f>D95+F95+H95+J95+L95</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B96" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K91" s="43"/>
+      <c r="K96" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4447,6 +4579,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4607,30 +4758,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4648,30 +4804,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4410,11 +4410,15 @@
       <c r="C91" s="57">
         <v>7</v>
       </c>
-      <c r="D91" s="57"/>
+      <c r="D91" s="57">
+        <v>7</v>
+      </c>
       <c r="E91" s="38">
         <v>7</v>
       </c>
-      <c r="F91" s="38"/>
+      <c r="F91" s="38">
+        <v>7</v>
+      </c>
       <c r="G91" s="58">
         <v>0</v>
       </c>
@@ -4424,7 +4428,9 @@
       <c r="I91" s="38">
         <v>7</v>
       </c>
-      <c r="J91" s="38"/>
+      <c r="J91" s="38">
+        <v>7</v>
+      </c>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="30"/>
@@ -4504,7 +4510,7 @@
       </c>
       <c r="D95" s="34">
         <f t="shared" si="12"/>
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E95" s="34">
         <f t="shared" si="12"/>
@@ -4512,7 +4518,7 @@
       </c>
       <c r="F95" s="34">
         <f t="shared" si="12"/>
-        <v>139.5</v>
+        <v>146.5</v>
       </c>
       <c r="G95" s="34">
         <f t="shared" si="12"/>
@@ -4528,7 +4534,7 @@
       </c>
       <c r="J95" s="34">
         <f t="shared" si="12"/>
-        <v>137.5</v>
+        <v>144.5</v>
       </c>
       <c r="K95" s="34"/>
       <c r="L95" s="34"/>
@@ -4538,7 +4544,7 @@
       </c>
       <c r="N95" s="34">
         <f>D95+F95+H95+J95+L95</f>
-        <v>470</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -4579,25 +4585,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4758,35 +4745,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4804,6 +4786,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -1109,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3747,7 +3747,7 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="30">
-        <f t="shared" ref="M72:M94" si="11">C72+E72+G72+I72+K72</f>
+        <f t="shared" ref="M72:M97" si="11">C72+E72+G72+I72+K72</f>
         <v>12</v>
       </c>
       <c r="N72" s="2">
@@ -4446,11 +4446,15 @@
       <c r="C92" s="57">
         <v>3</v>
       </c>
-      <c r="D92" s="57"/>
+      <c r="D92" s="57">
+        <v>0</v>
+      </c>
       <c r="E92" s="38">
         <v>3</v>
       </c>
-      <c r="F92" s="38"/>
+      <c r="F92" s="38">
+        <v>0</v>
+      </c>
       <c r="G92" s="58">
         <v>0</v>
       </c>
@@ -4460,7 +4464,9 @@
       <c r="I92" s="38">
         <v>3</v>
       </c>
-      <c r="J92" s="38"/>
+      <c r="J92" s="38">
+        <v>1</v>
+      </c>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="30"/>
@@ -4483,75 +4489,175 @@
       <c r="N93" s="2"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
+      <c r="A94" s="78">
+        <v>42422</v>
+      </c>
+      <c r="B94" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="57">
+        <v>7</v>
+      </c>
+      <c r="D94" s="57">
+        <v>7</v>
+      </c>
+      <c r="E94" s="38">
+        <v>7</v>
+      </c>
+      <c r="F94" s="38">
+        <v>7</v>
+      </c>
+      <c r="G94" s="58">
+        <v>0</v>
+      </c>
+      <c r="H94" s="58">
+        <v>0</v>
+      </c>
+      <c r="I94" s="38">
+        <v>7</v>
+      </c>
+      <c r="J94" s="38">
+        <v>7</v>
+      </c>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
-      <c r="M94" s="31">
+      <c r="M94" s="30"/>
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="78">
+        <v>42423</v>
+      </c>
+      <c r="B95" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" s="57">
+        <v>7</v>
+      </c>
+      <c r="D95" s="57"/>
+      <c r="E95" s="38">
+        <v>7</v>
+      </c>
+      <c r="F95" s="38"/>
+      <c r="G95" s="58">
+        <v>0</v>
+      </c>
+      <c r="H95" s="58">
+        <v>0</v>
+      </c>
+      <c r="I95" s="38">
+        <v>7</v>
+      </c>
+      <c r="J95" s="38"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="30"/>
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="78">
+        <v>42424</v>
+      </c>
+      <c r="B96" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="57">
+        <v>7</v>
+      </c>
+      <c r="D96" s="57"/>
+      <c r="E96" s="38">
+        <v>7</v>
+      </c>
+      <c r="F96" s="38"/>
+      <c r="G96" s="58">
+        <v>0</v>
+      </c>
+      <c r="H96" s="58">
+        <v>0</v>
+      </c>
+      <c r="I96" s="38">
+        <v>7</v>
+      </c>
+      <c r="J96" s="38"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="10"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="18">
+        <v>0</v>
+      </c>
+      <c r="H97" s="18">
+        <v>0</v>
+      </c>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N94" s="11"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="32"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="34">
-        <f t="shared" ref="C95:J95" si="12">SUM(C5:C94)</f>
-        <v>160</v>
-      </c>
-      <c r="D95" s="34">
+      <c r="N97" s="11"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="32"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="34">
+        <f t="shared" ref="C98:J98" si="12">SUM(C5:C97)</f>
+        <v>181</v>
+      </c>
+      <c r="D98" s="34">
         <f t="shared" si="12"/>
-        <v>149</v>
-      </c>
-      <c r="E95" s="34">
+        <v>156</v>
+      </c>
+      <c r="E98" s="34">
         <f t="shared" si="12"/>
-        <v>159</v>
-      </c>
-      <c r="F95" s="34">
+        <v>180</v>
+      </c>
+      <c r="F98" s="34">
         <f t="shared" si="12"/>
-        <v>146.5</v>
-      </c>
-      <c r="G95" s="34">
+        <v>153.5</v>
+      </c>
+      <c r="G98" s="34">
         <f t="shared" si="12"/>
         <v>63.5</v>
       </c>
-      <c r="H95" s="34">
+      <c r="H98" s="34">
         <f t="shared" si="12"/>
         <v>51</v>
       </c>
-      <c r="I95" s="34">
+      <c r="I98" s="34">
         <f t="shared" si="12"/>
-        <v>158.5</v>
-      </c>
-      <c r="J95" s="34">
+        <v>179.5</v>
+      </c>
+      <c r="J98" s="34">
         <f t="shared" si="12"/>
-        <v>144.5</v>
-      </c>
-      <c r="K95" s="34"/>
-      <c r="L95" s="34"/>
-      <c r="M95" s="32">
-        <f>C95+E95+G95+I95+K95</f>
-        <v>541</v>
-      </c>
-      <c r="N95" s="34">
-        <f>D95+F95+H95+J95+L95</f>
-        <v>491</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B96" s="33" t="s">
+        <v>152.5</v>
+      </c>
+      <c r="K98" s="34"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="32">
+        <f>C98+E98+G98+I98+K98</f>
+        <v>604</v>
+      </c>
+      <c r="N98" s="34">
+        <f>D98+F98+H98+J98+L98</f>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B99" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K96" s="43"/>
+      <c r="K99" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4585,6 +4691,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4745,30 +4870,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4786,30 +4916,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>

--- a/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
+++ b/docs/Uren_Verantwoording/Urenverantwoording Team 4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -1109,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3747,7 +3747,7 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="30">
-        <f t="shared" ref="M72:M97" si="11">C72+E72+G72+I72+K72</f>
+        <f t="shared" ref="M72:M100" si="11">C72+E72+G72+I72+K72</f>
         <v>12</v>
       </c>
       <c r="N72" s="2">
@@ -4534,11 +4534,15 @@
       <c r="C95" s="57">
         <v>7</v>
       </c>
-      <c r="D95" s="57"/>
+      <c r="D95" s="57">
+        <v>6</v>
+      </c>
       <c r="E95" s="38">
         <v>7</v>
       </c>
-      <c r="F95" s="38"/>
+      <c r="F95" s="38">
+        <v>6</v>
+      </c>
       <c r="G95" s="58">
         <v>0</v>
       </c>
@@ -4548,7 +4552,9 @@
       <c r="I95" s="38">
         <v>7</v>
       </c>
-      <c r="J95" s="38"/>
+      <c r="J95" s="38">
+        <v>6</v>
+      </c>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="30"/>
@@ -4564,11 +4570,15 @@
       <c r="C96" s="57">
         <v>7</v>
       </c>
-      <c r="D96" s="57"/>
+      <c r="D96" s="57">
+        <v>6</v>
+      </c>
       <c r="E96" s="38">
         <v>7</v>
       </c>
-      <c r="F96" s="38"/>
+      <c r="F96" s="38">
+        <v>6</v>
+      </c>
       <c r="G96" s="58">
         <v>0</v>
       </c>
@@ -4578,86 +4588,172 @@
       <c r="I96" s="38">
         <v>7</v>
       </c>
-      <c r="J96" s="38"/>
+      <c r="J96" s="38">
+        <v>6</v>
+      </c>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="30"/>
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="10"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="18">
-        <v>0</v>
-      </c>
-      <c r="H97" s="18">
-        <v>0</v>
-      </c>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
+      <c r="A97" s="78"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
-      <c r="M97" s="31">
+      <c r="M97" s="30"/>
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="78">
+        <v>42431</v>
+      </c>
+      <c r="B98" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="57">
+        <v>7</v>
+      </c>
+      <c r="D98" s="57">
+        <v>6</v>
+      </c>
+      <c r="E98" s="38">
+        <v>7</v>
+      </c>
+      <c r="F98" s="38">
+        <v>6</v>
+      </c>
+      <c r="G98" s="58">
+        <v>0</v>
+      </c>
+      <c r="H98" s="58">
+        <v>0</v>
+      </c>
+      <c r="I98" s="38">
+        <v>7</v>
+      </c>
+      <c r="J98" s="38">
+        <v>8.5</v>
+      </c>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="30"/>
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="78">
+        <v>42438</v>
+      </c>
+      <c r="B99" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" s="57">
+        <v>7</v>
+      </c>
+      <c r="D99" s="57">
+        <v>6</v>
+      </c>
+      <c r="E99" s="38">
+        <v>7</v>
+      </c>
+      <c r="F99" s="38">
+        <v>6</v>
+      </c>
+      <c r="G99" s="58">
+        <v>0</v>
+      </c>
+      <c r="H99" s="58">
+        <v>0</v>
+      </c>
+      <c r="I99" s="38">
+        <v>7</v>
+      </c>
+      <c r="J99" s="38">
+        <v>6</v>
+      </c>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="30"/>
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="10"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N97" s="11"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="32"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="34">
-        <f t="shared" ref="C98:J98" si="12">SUM(C5:C97)</f>
-        <v>181</v>
-      </c>
-      <c r="D98" s="34">
-        <f t="shared" si="12"/>
-        <v>156</v>
-      </c>
-      <c r="E98" s="34">
+      <c r="N100" s="11"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="32"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="34">
+        <f t="shared" ref="C101:J101" si="12">SUM(C5:C100)</f>
+        <v>195</v>
+      </c>
+      <c r="D101" s="34">
         <f t="shared" si="12"/>
         <v>180</v>
       </c>
-      <c r="F98" s="34">
+      <c r="E101" s="34">
         <f t="shared" si="12"/>
-        <v>153.5</v>
-      </c>
-      <c r="G98" s="34">
+        <v>194</v>
+      </c>
+      <c r="F101" s="34">
+        <f t="shared" si="12"/>
+        <v>177.5</v>
+      </c>
+      <c r="G101" s="34">
         <f t="shared" si="12"/>
         <v>63.5</v>
       </c>
-      <c r="H98" s="34">
+      <c r="H101" s="34">
         <f t="shared" si="12"/>
         <v>51</v>
       </c>
-      <c r="I98" s="34">
+      <c r="I101" s="34">
         <f t="shared" si="12"/>
-        <v>179.5</v>
-      </c>
-      <c r="J98" s="34">
+        <v>193.5</v>
+      </c>
+      <c r="J101" s="34">
         <f t="shared" si="12"/>
-        <v>152.5</v>
-      </c>
-      <c r="K98" s="34"/>
-      <c r="L98" s="34"/>
-      <c r="M98" s="32">
-        <f>C98+E98+G98+I98+K98</f>
-        <v>604</v>
-      </c>
-      <c r="N98" s="34">
-        <f>D98+F98+H98+J98+L98</f>
-        <v>513</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B99" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="K101" s="34"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="32">
+        <f>C101+E101+G101+I101+K101</f>
+        <v>646</v>
+      </c>
+      <c r="N101" s="34">
+        <f>D101+F101+H101+J101+L101</f>
+        <v>587.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B102" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K99" s="43"/>
+      <c r="K102" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4691,25 +4787,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4870,35 +4947,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4916,6 +4988,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>
